--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="496">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -111,54 +111,62 @@
     <t xml:space="preserve">Mank</t>
   </si>
   <si>
+    <t xml:space="preserve">7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1930's Hollywood is reevaluated through the eyes of scathing social critic and alcoholic screenwriter Herman J. Mankiewicz as he races to finish the screenplay of Citizen Kane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1940. Film studio RKO hires 24-year-old wunderkind Orson Welles under a contract that gives him full creative control of his movies. For his first film he calls in washed up alcoholic Herman J Mankiewicz to write the screenplay. That film is Citizen Kane and this is the story of how it was written.
+                Written by
+grantss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1930s, 1940s, alcoholic, funeral, politics, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography , Comedy , Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life in a Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie follows 17-year-old Daryn who finds out that his girlfriend is dying. He sets out to give her an entire life in the last year she has left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> girlfriend, blue green hair, pink hair, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama , Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Christmas Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story of sister and brother, Kate and Teddy Pierce, whose Christmas Eve plan to catch Santa Claus on camera turns into an unexpected journey that most kids could only dream about.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> christmas, reindeer, christmas spirit, santa's sleigh, brother sister relationship, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.4</t>
   </si>
   <si>
-    <t xml:space="preserve">1930's Hollywood is reevaluated through the eyes of scathing social critic and alcoholic screenwriter Herman J. Mankiewicz as he races to finish the screenplay of Citizen Kane.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1930s, 1940s, alcoholic, funeral, politics, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography , Comedy , Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life in a Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The movie follows 17-year-old Daryn who finds out that his girlfriend is dying. He sets out to give her an entire life in the last year she has left.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> girlfriend, blue green hair, pink hair, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama , Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Christmas Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The story of sister and brother, Kate and Teddy Pierce, whose Christmas Eve plan to catch Santa Claus on camera turns into an unexpected journey that most kids could only dream about.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> christmas, reindeer, christmas spirit, santa's sleigh, brother sister relationship, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faced with an unplanned pregnancy, an offbeat young person makes an unusual decision regarding the unborn child.</t>
   </si>
   <si>
@@ -240,7 +248,7 @@
     <t xml:space="preserve">In 1973, when Frank Bledsoe and his 18-year-old niece Beth take a road trip from Manhattan to Creekville, South Carolina, for the family patriarch's funeral, they're unexpectedly joined by Frank's lover, Walid.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1970s, gay couple relationship, lesbian kiss, jewish lesbian, reference to gay sex, </t>
+    <t xml:space="preserve"> 1970s, uncle niece relationship, gay couple relationship, jewish lesbian, gay muslim, </t>
   </si>
   <si>
     <t xml:space="preserve">The Mauritanian</t>
@@ -249,12 +257,6 @@
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">A detainee at the U.S military's Guantanamo Bay detention center is held without charges for over a decade and seeks help from a defense attorney for his release.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> based on book, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Thriller</t>
   </si>
   <si>
@@ -293,22 +295,13 @@
     <t xml:space="preserve">Wonder Woman 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">Fast forward to the 1980s as Wonder Woman's next big screen adventure finds her facing two all-new foes: Max Lord and The Cheetah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> action heroine, princess, based on comic book, based on comic, sequel, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Fantasy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buddy der Weihnachtself</t>
   </si>
   <si>
     <t xml:space="preserve">2003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9</t>
+    <t xml:space="preserve">7.0</t>
   </si>
   <si>
     <t xml:space="preserve">After discovering he is a human, a man raised as an elf at the North Pole decides to travel to New York City to locate his real father.</t>
@@ -440,7 +433,7 @@
 statmanjeff</t>
   </si>
   <si>
-    <t xml:space="preserve"> holiday, ugly christmas sweater, man wearing a christmas sweater, christmas, dysfunctional family, </t>
+    <t xml:space="preserve"> holiday, christmas, halloween, wedding, date, </t>
   </si>
   <si>
     <t xml:space="preserve">Comedy , Romance</t>
@@ -573,15 +566,6 @@
     <t xml:space="preserve">Boss Level</t>
   </si>
   <si>
-    <t xml:space="preserve">A retired special forces officer is trapped in a never ending time loop on the day of his death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dying repeatedly, end of the world, one against many, time loop, stuck in a time loop, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Sci-Fi , Thriller</t>
-  </si>
-  <si>
     <t xml:space="preserve">X-Men: New Mutants</t>
   </si>
   <si>
@@ -662,7 +646,7 @@
     <t xml:space="preserve">The Prom</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4</t>
+    <t xml:space="preserve">5.1</t>
   </si>
   <si>
     <t xml:space="preserve">A troupe of hilariously self-obsessed theater stars swarm into a small conservative Indiana town in support of a high school girl who wants to take her girlfriend to the prom.</t>
@@ -694,17 +678,6 @@
     <t xml:space="preserve">Dune</t>
   </si>
   <si>
-    <t xml:space="preserve">Feature adaptation of Frank Herbert's science fiction novel, about the son of a noble family entrusted with the protection of the most valuable asset and most vital element in the galaxy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mythic and emotionally charged hero's journey, "Dune" tells the story of Paul Atreides, a brilliant and gifted young man born into a great destiny beyond his understanding, must travel to the most dangerous planet in the universe to ensure the future of his family and his people. As malevolent forces explode into conflict over the planet's exclusive supply of the most precious resource in existence-a commodity capable of unlocking humanity's greatest potential-only those who can conquer their fear will survive.
-                Written by
-Warner Bros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dune, based on novel, feudalism, adaptation, desert, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Adventure , Drama , Sci-Fi</t>
   </si>
   <si>
@@ -780,15 +753,6 @@
     <t xml:space="preserve">Mortal Kombat</t>
   </si>
   <si>
-    <t xml:space="preserve">Feature film based on the popular video game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> based on video game, reboot, two word title, intentionally misspelled title, violence, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Fantasy , Sci-Fi , Thriller</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wander</t>
   </si>
   <si>
@@ -804,12 +768,6 @@
     <t xml:space="preserve">The Matrix 4</t>
   </si>
   <si>
-    <t xml:space="preserve">The plot is currently unknown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fourth part, sequel, </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Trial of the Chicago 7</t>
   </si>
   <si>
@@ -833,740 +791,722 @@
     <t xml:space="preserve">The 2nd</t>
   </si>
   <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Army Delta Force officer is late picking up his son at college. His son and a Supreme Court Justice's daughter are the last there. A gang of terrorists are there to abduct her and force her dad's hand on a Second Amendment vote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret-service agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> secret agent, electronic music score, 2020s, 2010s, ambiguous ending, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knives Out: Ein Mord zum Dessert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A detective investigates the death of a patriarch of an eccentric, combative family.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When renowned crime novelist Harlan Thrombey (Christopher Plummer) is found dead at his estate just after his 85th birthday, the inquisitive and debonair Detective Benoit Blanc (Daniel Craig) is mysteriously enlisted to investigate. From Harlan's disfunctional family to his devoted staff, Blanc sifts through a web of red herrings and self-serving lies to uncover the truth behind Harlan's untimely death.
+                Written by
+Lionsgate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> private detective, vomiting, murder mystery, whodunit, suspected suicide, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy , Crime , Drama , Mystery , Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man: A New Universe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teen Miles Morales becomes the Spider-Man of his universe, and must join with five spider-powered individuals from other dimensions to stop a threat for all realities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles Morales is a New York teen struggling with school, friends and, on top of that, being the new Spider-Man. When he comes across Peter Parker, the erstwhile saviour of New York, in the multiverse, Miles must train to become the new protector of his city.
+                Written by
+Tom Daly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teenage superhero, multiverse, wisecrack humor, posthumous cameo, interdimensional travel, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation , Action , Adventure , Family , Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A filmmaker at a creative impasse seeks solace from her tumultuous past at a rural retreat, only to find that the woods summon her inner demons in intense and surprising ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> woods, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin - Allein in New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One year after Kevin McCallister was left home alone and had to defeat a pair of bumbling burglars, he accidentally finds himself stranded in New York City - and the same criminals are not far behind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin McCallister (Macaulay Culkin) is back. But this time he's in New York City with enough cash and credit cards to turn the Big Apple into his own playground. But Kevin won't be alone for long. The notorious Wet Bandits, Harry (Joe Pesci) and Marv (Daniel Stern), still smarting from their last encounter with Kevin, are bound for New York City too, plotting a huge holiday heist. Kevin's ready to welcome them with more battery of booby traps the bumbling bandits will never forget.
+                Written by
+Anthony Pereyra &lt;hypersonic91@yahoo.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reference to donald trump, credit card, 1990s, repeat sequel, hitting one's head, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventure , Comedy , Crime , Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirb langsam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An NYPD officer tries to save his wife and several others taken hostage by German terrorists during a Christmas party at the Nakatomi Plaza in Los Angeles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYPD cop John McClane goes on a Christmas vacation to visit his wife Holly in Los Angeles where she works for the Nakatomi Corporation. While they are at the Nakatomi headquarters for a Christmas party, a group of robbers led by Hans Gruber take control of the building and hold everyone hostage, with the exception of John, while they plan to perform a lucrative heist. Unable to escape and with no immediate police response, John is forced to take matters into his own hands.
+                Written by
+Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hostage, one against many, los angeles california, christmas, christmas eve, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A heavy-metal drummer's life is thrown into freefall when he begins to lose his hearing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bare chested male, deaf man, rock band, rock performance, band performance, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama , Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Handwerk des Teufels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinister characters converge around a young man devoted to protecting those he loves in a postwar backwoods town teeming with corruption and brutality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set in rural southern Ohio and West Virginia, The Devil All the Time follows a cast of compelling and bizarre characters from the end of World War II to the 1960s. There's Willard Russell, tormented veteran of the carnage in the South Pacific, who can't save his beautiful wife, Charlotte, from an agonizing death by cancer no matter how much sacrificial blood he pours on his "prayer log." There's Carl and Sandy Henderson, a husband-and-wife team of serial killers, who troll America's highways searching for suitable models to photograph and exterminate. There's the spider-handling preacher Roy and his crippled virtuoso-guitar-playing sidekick, Theodore, running from the law. And caught in the middle of all this is Arvin Eugene Russell, Willard and Charlotte's orphaned son, who grows up to be a good but also violent man in his own right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> male full frontal nudity, neo noir, male rear nudity, evil, post war, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Prinz aus Zamunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An extremely pampered African Prince travels to Queens, New York, and goes undercover to find a wife that he can respect for her intelligence and will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immersed in luxury and riches, the courteous blue blood and refined heir apparent to Africa's prosperous kingdom of Zamunda, Prince Akeem, summons up the courage to reject an arranged marriage proposal on his twenty-first birthday. Bent on finding true love, the young aristocrat along with his trusted valet, Semmi, find themselves in the strange and unknown urban jungle of New York City's Queens, trying to mingle with their neighbours by posing as humble exchange students. More than anything in the world, the noble prince yearns to be loved for what he is, and not for his title; however, can he find his soulmate in the bustling Big Apple?
+                Written by
+Nick Riganas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> janitor, robber, 1980s, mcdonald's restaurant, dog, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1800s England, a well meaning but selfish young woman meddles in the love lives of her friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austen's beloved comedy about finding your equal and earning your happy ending, is reimagined in this. Handsome, clever, and rich, Emma Woodhouse is a restless queen bee without rivals in her sleepy little town. In this glittering satire of social class and the pain of growing up, Emma must adventure through misguided matches and romantic missteps to find the love that has been there all along.
+                Written by
+Focus Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> regency, matchmaker, nineteenth century, female protagonist, female name as title, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter und der Stein der Weisen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An orphaned boy enrolls in a school of wizardry, where he learns the truth about himself, his family and the terrible evil that haunts the magical world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the tale of Harry Potter (Daniel Radcliffe), an ordinary eleven-year-old boy serving as a sort of slave for his aunt and uncle who learns that he is actually a wizard and has been invited to attend the Hogwarts School for Witchcraft and Wizardry. Harry is snatched away from his mundane existence by Rubeus Hagrid (Robbie Coltrane), the groundskeeper for Hogwarts, and quickly thrown into a world completely foreign to both him and the viewer. Famous for an incident that happened at his birth, Harry makes friends easily at his new school. He soon finds, however, that the wizarding world is far more dangerous for him than he would have imagined, and he quickly learns that not all wizards are ones to be trusted.
+                Written by
+Carly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> magic, wizard, school of magic, based on novel, abusive uncle, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventure , Family , Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once Upon a Time In... Hollywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A faded television actor and his stunt double strive to achieve fame and success in the final years of Hollywood's Golden Age in 1969 Los Angeles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quentin Tarantino's Once Upon a Time... in Hollywood visits 1969 Los Angeles, where everything is changing, as TV star Rick Dalton (Leonardo DiCaprio) and his longtime stunt double Cliff Booth (Brad Pitt) make their way around an industry they hardly recognize anymore. The ninth film from the writer-director features a large ensemble cast and multiple storylines in a tribute to the final moments of Hollywood's golden age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> white miniskirt, visible midriff, nagging wife, miniskirt with boots, flaunting girl, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple act of kindness always sparks another, even in a frozen, faraway place. When Smeerensburg's new postman, Jesper, befriends toymaker Klaus, their gifts melt an age-old feud and deliver a sleigh full of holiday traditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Jesper (Jason Schwartzman) distinguishes himself as the postal academy's worst student, he is stationed on a frozen island above the Arctic Circle, where the feuding locals hardly exchange words let alone letters. Jesper is about to give up when he finds an ally in local teacher Alva (Rashida Jones), and discovers Klaus (Oscar® winner J.K. Simmons), a mysterious carpenter who lives alone in a cabin full of handmade toys. These unlikely friendships return laughter to Smeerensburg, forging a new legacy of generous neighbors, magical lore and stockings hung by the chimney with care. An animated Christmas comedy directed by Despicable Me co-creator Sergio Pablos, KLAUS co-stars Rashida Jones, Jason Schwartzman and JK Simmons.
+                Written by
+Netflix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> christmas, friendship, post man, island, forest, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation , Adventure , Comedy , Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jojo Rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young boy in Hitler's army finds out his mother is hiding a Jewish girl in their home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A World War II satire that follows a lonely German boy named Jojo (Roman Griffin Davis) whose world view is turned upside down when he discovers his single mother (Scarlett Johansson) is hiding a young Jewish girl (Thomasin McKenzie) in their attic. Aided only by his idiotic imaginary friend, Adolf Hitler (Taika Waititi), Jojo must confront his blind nationalism.
+                Written by
+Fox Searchlight Pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nazi germany, black comedy, world war two, mother son relationship, satire, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy , Drama , War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wild horse and a teenage girl forge an unbreakable bond which keeps them connected for a lifetime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> girl horse relationship, mare, wild mustang, animal narrator, teenager, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama , Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enola Holmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Enola Holmes-Sherlock's teen sister-discovers her mother missing, she sets off to find her, becoming a super-sleuth in her own right as she outwits her famous brother and unravels a dangerous conspiracy around a mysterious young Lord.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, 1884 - a world on the brink of change. On the morning of her 16th birthday, Enola Holmes (Millie Bobby Brown) wakes to find that her mother (Helena Bonham Carter) has disappeared, leaving behind an odd assortment of gifts but no apparent clue as to where she's gone or why. After a free-spirited childhood, Enola suddenly finds herself under the care of her brothers Sherlock (Henry Cavill) and Mycroft (Sam Claflin), both set on sending her away to a finishing school for "proper" young ladies. Refusing to follow their wishes, Enola escapes to search for her mother in London. But when her journey finds her entangled in a mystery surrounding a young runaway Lord (Louis Partridge), Enola becomes a super-sleuth in her own right, outwitting her famous brother as she unravels a conspiracy that threatens to set back the course of history.
+                Written by
+Netflix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> runaway, breaking the fourth wall, train, detective, amateur detective, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Adventure , Crime , Drama , Mystery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Suicide Squad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Pate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aging patriarch of an organized crime dynasty transfers control of his clandestine empire to his reluctant son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Godfather "Don" Vito Corleone is the head of the Corleone mafia family in New York. He is at the event of his daughter's wedding. Michael, Vito's youngest son and a decorated WW II Marine is also present at the wedding. Michael seems to be uninterested in being a part of the family business. Vito is a powerful man, and is kind to all those who give him respect but is ruthless against those who do not. But when a powerful and treacherous rival wants to sell drugs and needs the Don's influence for the same, Vito refuses to do it. What follows is a clash between Vito's fading old values and the new ways which may cause Michael to do the thing he was most reluctant in doing and wage a mob war against all the other mafia families which could tear the Corleone family apart.
+                Written by
+srijanarora-152-448595</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crime family, mafia, patriarch, organized crime, rise to power, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime , Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krieg der Sterne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a Wookiee and two droids to save the galaxy from the Empire's world-destroying battle station, while also attempting to rescue Princess Leia from the mysterious Darth Vader.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Imperial Forces, under orders from cruel Darth Vader, hold Princess Leia hostage in their efforts to quell the rebellion against the Galactic Empire. Luke Skywalker and Han Solo, captain of the Millennium Falcon, work together with the companionable droid duo R2-D2 and C-3PO to rescue the beautiful princess, help the Rebel Alliance and restore freedom and justice to the Galaxy.
+                Written by
+Jwelch5742</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rebellion, galactic war, space opera, princess, droid, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Adventure , Fantasy , Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizen Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following the death of publishing tycoon Charles Foster Kane, reporters scramble to uncover the meaning of his final utterance; 'Rosebud'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A group of reporters are trying to decipher the last word ever spoken by Charles Foster Kane, the millionaire newspaper tycoon: "Rosebud". The film begins with a news reel detailing Kane's life for the masses, and then from there, we are shown flashbacks from Kane's life. As the reporters investigate further, the viewers see a display of a fascinating man's rise to fame, and how he eventually fell off the top of the world.
+                Written by
+Zack H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> newspaper publisher, rosebud, new york, narcissism, materialism, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama , Mystery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prinzessinnentausch: Wieder vertauscht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Duchess Margaret unexpectedly inherits the throne to Montenaro and hits a rough patch with Kevin, it's up to her double Stacy to save the day before a new lookalike, party girl Fiona foils their plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> party, royalty, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy , Drama , Family , Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos Walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avengers: Endgame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the devastating events of Avengers: Infinity War (2018), the universe is in ruins. With the help of remaining allies, the Avengers assemble once more in order to reverse Thanos' actions and restore balance to the universe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the devastating events of Avengers: Infinity War (2018), the universe is in ruins due to the efforts of the Mad Titan, Thanos. With the help of remaining allies, the Avengers must assemble once more in order to undo Thanos's actions and undo the chaos to the universe, no matter what consequences may be in store, and no matter who they face...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time travel, superhero, cosmic, super villain, marvel cinematic universe, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Adventure , Drama , Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unhinged - Außer Kontrolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a confrontation with an unstable man at an intersection, a woman becomes the target of his rage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy Award winner Russell Crowe stars in Unhinged, a psychological thriller that takes something we've all experienced- road rage - to an unpredictable and terrifying conclusion. Rachel (Caren Pistorius) is running late getting to work when she crosses paths with a stranger (Crowe) at a traffic light. Soon, Rachel finds herself and everyone she loves the target of a man who feels invisible and is looking to make one last mark upon the world by teaching her a series of deadly lessons. What follows is a dangerous game of cat and mouse that proves you never know who you're driving next to.
+                Written by
+Elissa Greer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scissors, stabbing, car chase, female vomiting, vomiting, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greed and class discrimination threaten the newly formed symbiotic relationship between the wealthy Park family and the destitute Kim clan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kims - mother and father Chung-sook and Ki-taek, and their young adult offspring, son Ki-woo and daughter Ki-jung - are a poor family living in a shabby and cramped half basement apartment in a busy lower working class commercial district of Seoul. Without even knowing it, they, especially Mr. and Mrs. Kim, literally smell of poverty. Often as a collective, they perpetrate minor scams to get by, and even when they have jobs, they do the minimum work required. Ki-woo is the one who has dreams of getting out of poverty by one day going to university. Despite not having that university education, Ki-woo is chosen by his university student friend Min, who is leaving to go to school, to take over his tutoring job to Park Da-hye, who Min plans to date once he returns to Seoul and she herself is in university. The Parks are a wealthy family who for four years have lived in their modernistic house designed by and the former residence of famed architect Namgoong. While Mr. and Mrs. Park ...
+                Written by
+Huggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> social satire, class differences, house, fraud, scam, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy , Drama , Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Serbian Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An aging porn star agrees to participate in an "art film" in order to make a clean break from the business, only to discover that he has been drafted into making a pedophilia and necrophilia themed snuff film.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Serbia, the retired porn star Milos is married with his beloved wife Marija and they have a little son, Peter, that is their pride and joy. The family is facing financial difficulties, but out of the blue, Milos is contacted by the porn actress Lejla who offers him a job opportunity in an art film. Milos is introduced to the director Vukmir who offers a millionaire contract to Milos to act in a film. However, Vukmir neither show the screenplay nor tells the story to Milos. Milos discusses the proposal with Marija and he signs the contract. But soon he finds that Vukmir and his crew are involved in sick snuff films of pedophilia, necrophilia and torture and there is no way back for him and maybe it is too late to protect his family.
+                Written by
+Claudio Carvalho, Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incest rape, graphic violence, rape of a minor, depravity, controversy, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peppermint - Angel of Vengeance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five years after her husband and daughter are killed in a senseless act of violence, a woman comes back from self-imposed exile to seek revenge against those responsible and the system that let them go free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unidentified woman is engaged in a brutal fight with a man in a car and finally dispatches him with a shot to the head. Five years earlier, the same woman, Riley North, is working as a bank teller in Los Angeles struggling to make ends meet. Her husband Chris owns a failing mechanic shop. They have a ten-year-old daughter, Carly. Chris' friend tries to talk him into robbing Diego Garcia, a powerful drug lord. Chris turns him down, but not before Garcia has already discovered his involvement and ordered his men to make an example of him. Riley and Chris take Carly out for pizza and to a carnival for her birthday since no one showed up to her party. At the carnival, Carly orders peppermint ice cream. As the family walks to the car, Diego's men gun down her husband and daughter in a drive-by shooting. She is wounded, but survives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> revenge, loss of husband, female protagonist, corruption, woman beats up a man, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan Is Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.6</t>
   </si>
   <si>
-    <t xml:space="preserve">A Green Beret is late picking up his son at college. His son and a Supreme Court Justice's daughter are the last there. A gang of terrorists are there to abduct her and force her dad's hand on a Second Amendment vote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret-service agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> secret agent, electronic music score, 2020s, 2010s, ambiguous ending, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knives Out: Ein Mord zum Dessert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A detective investigates the death of a patriarch of an eccentric, combative family.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When renowned crime novelist Harlan Thrombey (Christopher Plummer) is found dead at his estate just after his 85th birthday, the inquisitive and debonair Detective Benoit Blanc (Daniel Craig) is mysteriously enlisted to investigate. From Harlan's disfunctional family to his devoted staff, Blanc sifts through a web of red herrings and self-serving lies to uncover the truth behind Harlan's untimely death.
-                Written by
-Lionsgate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> private detective, vomiting, murder mystery, whodunit, suspected suicide, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedy , Crime , Drama , Mystery , Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider-Man: A New Universe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teen Miles Morales becomes the Spider-Man of his universe, and must join with five spider-powered individuals from other dimensions to stop a threat for all realities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles Morales is a New York teen struggling with school, friends and, on top of that, being the new Spider-Man. When he comes across Peter Parker, the erstwhile saviour of New York, in the multiverse, Miles must train to become the new protector of his city.
-                Written by
-Tom Daly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teenage superhero, multiverse, wisecrack humor, posthumous cameo, interdimensional travel, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation , Action , Adventure , Family , Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A filmmaker at a creative impasse seeks solace from her tumultuous past at a rural retreat, only to find that the woods summon her inner demons in intense and surprising ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> woods, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin - Allein in New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One year after Kevin McCallister was left home alone and had to defeat a pair of bumbling burglars, he accidentally finds himself stranded in New York City - and the same criminals are not far behind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin McCallister (Macaulay Culkin) is back. But this time he's in New York City with enough cash and credit cards to turn the Big Apple into his own playground. But Kevin won't be alone for long. The notorious Wet Bandits, Harry (Joe Pesci) and Marv (Daniel Stern), still smarting from their last encounter with Kevin, are bound for New York City too, plotting a huge holiday heist. Kevin's ready to welcome them with more battery of booby traps the bumbling bandits will never forget.
-                Written by
-Anthony Pereyra &lt;hypersonic91@yahoo.com&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> reference to donald trump, credit card, 1990s, repeat sequel, hitting one's head, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventure , Comedy , Crime , Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stirb langsam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An NYPD officer tries to save his wife and several others taken hostage by German terrorists during a Christmas party at the Nakatomi Plaza in Los Angeles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYPD cop John McClane goes on a Christmas vacation to visit his wife Holly in Los Angeles where she works for the Nakatomi Corporation. While they are at the Nakatomi headquarters for a Christmas party, a group of robbers led by Hans Gruber take control of the building and hold everyone hostage, with the exception of John, while they plan to perform a lucrative heist. Unable to escape and with no immediate police response, John is forced to take matters into his own hands.
-                Written by
-Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hostage, one against many, los angeles california, christmas, christmas eve, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A heavy-metal drummer's life is thrown into freefall when he begins to lose his hearing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bare chested male, deaf man, rock band, rock performance, band performance, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama , Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Handwerk des Teufels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinister characters converge around a young man devoted to protecting those he loves in a postwar backwoods town teeming with corruption and brutality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set in rural southern Ohio and West Virginia, The Devil All the Time follows a cast of compelling and bizarre characters from the end of World War II to the 1960s. There's Willard Russell, tormented veteran of the carnage in the South Pacific, who can't save his beautiful wife, Charlotte, from an agonizing death by cancer no matter how much sacrificial blood he pours on his "prayer log." There's Carl and Sandy Henderson, a husband-and-wife team of serial killers, who troll America's highways searching for suitable models to photograph and exterminate. There's the spider-handling preacher Roy and his crippled virtuoso-guitar-playing sidekick, Theodore, running from the law. And caught in the middle of all this is Arvin Eugene Russell, Willard and Charlotte's orphaned son, who grows up to be a good but also violent man in his own right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> male full frontal nudity, neo noir, male rear nudity, evil, post war, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Prinz aus Zamunda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An extremely pampered African Prince travels to Queens, New York, and goes undercover to find a wife that he can respect for her intelligence and will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immersed in luxury and riches, the courteous blue blood and refined heir apparent to Africa's prosperous kingdom of Zamunda, Prince Akeem, summons up the courage to reject an arranged marriage proposal on his twenty-first birthday. Bent on finding true love, the young aristocrat along with his trusted valet, Semmi, find themselves in the strange and unknown urban jungle of New York City's Queens, trying to mingle with their neighbours by posing as humble exchange students. More than anything in the world, the noble prince yearns to be loved for what he is, and not for his title; however, can he find his soulmate in the bustling Big Apple?
+    <t xml:space="preserve">Two teenage girls encounter an Internet child predator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan Stewart, 14, and her best friend Amy Herman, 13, though opposites in personality, are best friends. Megan carries the front of being the most popular girl in school, but this masks a lifestyle of hard partying, drugs, alcohol and indiscriminate sex. Amy, unpopular and socially awkward, clings to her relationship with Megan as a lifeline to social acceptance. Together, these two young girls forge a deep friendship based on their mutual needs. The two girls regularly communicate by web chat cameras or cell phone, and even meet boys online. As Megan seeks friends who are different from her usual posse of hanger-ons, she is introduced by a friend online to a 17 year-old boy named Josh in a chat room. Megan and Josh bond quickly, leaving Amy feeling a bit left out. One day, Megan goes to meet Josh in person, and she is never seen again. Amy launches into a concentrated effort to find her friend. As the media swirls around the story of Megan's disappearance, Amy discovers the ...
+                Written by
+Michael Goi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> angst, friend, girl, chat, best friend, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a post-apocalyptic wasteland, a woman rebels against a tyrannical ruler in search for her homeland with the aid of a group of female prisoners, a psychotic worshiper, and a drifter named Max.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An apocalyptic story set in the furthest reaches of our planet, in a stark desert landscape where humanity is broken, and almost everyone is crazed fighting for the necessities of life. Within this world exist two rebels on the run who just might be able to restore order. There's Max, a man of action and a man of few words, who seeks peace of mind following the loss of his wife and child in the aftermath of the chaos. And Furiosa, a woman of action and a woman who believes her path to survival may be achieved if she can make it across the desert back to her childhood homeland.
+                Written by
+Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> post apocalypse, desert, car chase, chase, escape, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammonite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1840s England, acclaimed but overlooked fossil hunter Mary Anning and a young woman sent to convalesce by the sea develop an intense relationship, altering both of their lives forever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1840s England, acclaimed but overlooked fossil hunter Mary Anning (Kate Winslet) works alone on the rugged Southern coastline. With the days of her famed discoveries behind her, she now searches for common fossils to sell to tourists to support herself and her ailing mother. When a wealthy visitor entrusts Mary with the care of his wife Charlotte Murchison (Saoirse Ronan), she cannot afford to turn his offer down. Proud and relentlessly passionate about her work, Mary initially clashes with her unwelcome guest, but despite the distance between their social class and personalities, an intense bond begins to develop, compelling the two women to determine the true nature of their relationship.
+                Written by
+See-Saw Films</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> female scientist, lesbian romance, period drama, based on real person, lesbianism, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography , Drama , Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Polarexpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Christmas Eve, a young boy embarks on a magical adventure to the North Pole on the Polar Express, while learning about friendship, bravery, and the spirit of Christmas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the story of a young hero boy on Christmas Eve who boards on a powerful magical train that's headed to the North Pole and Santa Claus's home. What unfolds is an adventure which follows a doubting boy, who takes an extraordinary train ride to the North Pole; during this ride, he embarks on a journey of self-discovery which shows him that the wonder of life never fades for those who believe.
+                Written by
+Anthony Pereyra {hypersonic91@yahoo.com}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> santa claus character, ebenezer scrooge character, christmas movie, close up of eyes, lens flare, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation , Adventure , Comedy , Family , Fantasy , Musical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexen hexen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young boy and his grandmother have a run-in with a coven of witches and their leader.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimagining Roald Dahl's beloved story for a modern audience, Robert Zemeckis's visually innovative film tells the darkly humorous and heartwarming tale of a young orphaned boy who, in late 1967, goes to live with his loving Grandma in the rural Alabama town of Demopolis. As the boy and his grandmother encounter some deceptively glamorous but thoroughly diabolical witches, she wisely whisks him away to a seaside resort. Regrettably, they arrive at precisely the same time that the world's Grand High Witch has gathered her fellow cronies from around the globe-undercover-to carry out her nefarious plans. Zemeckis is joined by a world-class team of filmmakers, including Alfonso Cuarón, Guillermo del Toro and Kenya Barris. The cast includes powerhouse performances from Anne Hathaway, Octavia Spencer, Stanley Tucci, Kristin Chenoweth and Chris Rock, with newcomer Jahzir Kadeen Bruno as the brave young hero.
+                Written by
+Warner Bros./HBOMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> witch, european literature on screen, remake of european film, remake of british film, african american, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventure , Comedy , Family , Fantasy , Horror , Mystery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Ava: Trained to Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ava is a deadly assassin who works for a black ops organization, traveling the globe specializing in high profile hits. When a job goes dangerously wrong she is forced to fight for her own survival.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethally beautiful and incredibly efficient in her dangerous line of work, Ava, a taciturn lone wolf and cold-blooded assassin, is starting to develop a conscience. Having beaten her alcohol and substance dependence with the help of Duke, her grizzled mentor of death and father figure, more and more, unstable Ava lets guilt get in the way of closing her "deals", attracting unwanted attention by breaking protocol. As a result, after a botched attempt to liquidate a high-profile target, Ava reunites with her estranged family after eight long years of absence, unaware that she has just signed her death warrant. Now, as Ava tries to settle old scores and reconnect with her loved ones, every killer in the business is after her. Can Ava rely on Duke to have her back?
                 Written by
 Nick Riganas</t>
   </si>
   <si>
-    <t xml:space="preserve"> janitor, robber, 1980s, mcdonald's restaurant, dog, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 1800s England, a well meaning but selfish young woman meddles in the love lives of her friends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Austen's beloved comedy about finding your equal and earning your happy ending, is reimagined in this. Handsome, clever, and rich, Emma Woodhouse is a restless queen bee without rivals in her sleepy little town. In this glittering satire of social class and the pain of growing up, Emma must adventure through misguided matches and romantic missteps to find the love that has been there all along.
-                Written by
-Focus Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> regency, matchmaker, nineteenth century, female protagonist, female name as title, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter und der Stein der Weisen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An orphaned boy enrolls in a school of wizardry, where he learns the truth about himself, his family and the terrible evil that haunts the magical world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the tale of Harry Potter (Daniel Radcliffe), an ordinary eleven-year-old boy serving as a sort of slave for his aunt and uncle who learns that he is actually a wizard and has been invited to attend the Hogwarts School for Witchcraft and Wizardry. Harry is snatched away from his mundane existence by Rubeus Hagrid (Robbie Coltrane), the groundskeeper for Hogwarts, and quickly thrown into a world completely foreign to both him and the viewer. Famous for an incident that happened at his birth, Harry makes friends easily at his new school. He soon finds, however, that the wizarding world is far more dangerous for him than he would have imagined, and he quickly learns that not all wizards are ones to be trusted.
-                Written by
-Carly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> magic, wizard, school of magic, based on novel, abusive uncle, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventure , Family , Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once Upon a Time In... Hollywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A faded television actor and his stunt double strive to achieve fame and success in the final years of Hollywood's Golden Age in 1969 Los Angeles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quentin Tarantino's Once Upon a Time... in Hollywood visits 1969 Los Angeles, where everything is changing, as TV star Rick Dalton (Leonardo DiCaprio) and his longtime stunt double Cliff Booth (Brad Pitt) make their way around an industry they hardly recognize anymore. The ninth film from the writer-director features a large ensemble cast and multiple storylines in a tribute to the final moments of Hollywood's golden age.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> white miniskirt, visible midriff, nagging wife, miniskirt with boots, flaunting girl, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A simple act of kindness always sparks another, even in a frozen, faraway place. When Smeerensburg's new postman, Jesper, befriends toymaker Klaus, their gifts melt an age-old feud and deliver a sleigh full of holiday traditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Jesper (Jason Schwartzman) distinguishes himself as the postal academy's worst student, he is stationed on a frozen island above the Arctic Circle, where the feuding locals hardly exchange words let alone letters. Jesper is about to give up when he finds an ally in local teacher Alva (Rashida Jones), and discovers Klaus (Oscar® winner J.K. Simmons), a mysterious carpenter who lives alone in a cabin full of handmade toys. These unlikely friendships return laughter to Smeerensburg, forging a new legacy of generous neighbors, magical lore and stockings hung by the chimney with care. An animated Christmas comedy directed by Despicable Me co-creator Sergio Pablos, KLAUS co-stars Rashida Jones, Jason Schwartzman and JK Simmons.
-                Written by
-Netflix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> christmas, friendship, post man, island, forest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation , Adventure , Comedy , Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jojo Rabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A young boy in Hitler's army finds out his mother is hiding a Jewish girl in their home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A World War II satire that follows a lonely German boy named Jojo (Roman Griffin Davis) whose world view is turned upside down when he discovers his single mother (Scarlett Johansson) is hiding a young Jewish girl (Thomasin McKenzie) in their attic. Aided only by his idiotic imaginary friend, Adolf Hitler (Taika Waititi), Jojo must confront his blind nationalism.
-                Written by
-Fox Searchlight Pictures</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nazi germany, black comedy, world war two, mother son relationship, satire, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedy , Drama , War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Beauty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wild horse and a teenage girl forge an unbreakable bond which keeps them connected for a lifetime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> girl horse relationship, mare, wild mustang, animal narrator, teenager, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama , Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enola Holmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Enola Holmes-Sherlock's teen sister-discovers her mother missing, she sets off to find her, becoming a super-sleuth in her own right as she outwits her famous brother and unravels a dangerous conspiracy around a mysterious young Lord.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, 1884 - a world on the brink of change. On the morning of her 16th birthday, Enola Holmes (Millie Bobby Brown) wakes to find that her mother (Helena Bonham Carter) has disappeared, leaving behind an odd assortment of gifts but no apparent clue as to where she's gone or why. After a free-spirited childhood, Enola suddenly finds herself under the care of her brothers Sherlock (Henry Cavill) and Mycroft (Sam Claflin), both set on sending her away to a finishing school for "proper" young ladies. Refusing to follow their wishes, Enola escapes to search for her mother in London. But when her journey finds her entangled in a mystery surrounding a young runaway Lord (Louis Partridge), Enola becomes a super-sleuth in her own right, outwitting her famous brother as she unravels a conspiracy that threatens to set back the course of history.
-                Written by
-Netflix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> runaway, breaking the fourth wall, train, detective, amateur detective, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Crime , Drama , Mystery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Suicide Squad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plot is unknown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> superheroine, superhero, based on comic, dc comics, supervillain, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Fantasy , Mystery , Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Pate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The aging patriarch of an organized crime dynasty transfers control of his clandestine empire to his reluctant son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Godfather "Don" Vito Corleone is the head of the Corleone mafia family in New York. He is at the event of his daughter's wedding. Michael, Vito's youngest son and a decorated WW II Marine is also present at the wedding. Michael seems to be uninterested in being a part of the family business. Vito is a powerful man, and is kind to all those who give him respect but is ruthless against those who do not. But when a powerful and treacherous rival wants to sell drugs and needs the Don's influence for the same, Vito refuses to do it. What follows is a clash between Vito's fading old values and the new ways which may cause Michael to do the thing he was most reluctant in doing and wage a mob war against all the other mafia families which could tear the Corleone family apart.
-                Written by
-srijanarora-152-448595</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> crime family, mafia, patriarch, organized crime, rise to power, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crime , Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krieg der Sterne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a Wookiee and two droids to save the galaxy from the Empire's world-destroying battle station, while also attempting to rescue Princess Leia from the mysterious Darth Vader.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Imperial Forces, under orders from cruel Darth Vader, hold Princess Leia hostage in their efforts to quell the rebellion against the Galactic Empire. Luke Skywalker and Han Solo, captain of the Millennium Falcon, work together with the companionable droid duo R2-D2 and C-3PO to rescue the beautiful princess, help the Rebel Alliance and restore freedom and justice to the Galaxy.
-                Written by
-Jwelch5742</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rebellion, galactic war, space opera, princess, droid, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Fantasy , Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citizen Kane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following the death of publishing tycoon Charles Foster Kane, reporters scramble to uncover the meaning of his final utterance; 'Rosebud'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A group of reporters are trying to decipher the last word ever spoken by Charles Foster Kane, the millionaire newspaper tycoon: "Rosebud". The film begins with a news reel detailing Kane's life for the masses, and then from there, we are shown flashbacks from Kane's life. As the reporters investigate further, the viewers see a display of a fascinating man's rise to fame, and how he eventually fell off the top of the world.
-                Written by
-Zack H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> newspaper publisher, rosebud, new york, narcissism, materialism, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama , Mystery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prinzessinnentausch: Wieder vertauscht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Duchess Margaret unexpectedly inherits the throne to Montenaro and hits a rough patch with Kevin, it's up to her double Stacy to save the day before a new lookalike, party girl Fiona foils their plans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> party, royalty, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedy , Drama , Family , Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos Walking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dystopian world where there are no women and all living creatures can hear each others' thoughts in a stream of images, words, and sounds called Noise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the not too distant future, Todd Hewitt (Tom Holland) discovers Viola (Daisy Ridley), a mysterious girl who crash lands on his planet, where all the women have disappeared and the men are afflicted by "the Noise" - a force that puts all their thoughts on display. In this dangerous landscape, Viola's life is threatened - and as Todd vows to protect her, he will have to discover his own inner power and unlock the planet's dark secrets. From the director of The Bourne Identity and Edge of Tomorrow and based on the best-selling novel The Knife of Never Letting Go, Daisy Ridley and Tom Holland star with Mads Mikkelsen, Demián Bichir, Cynthia Erivo, Nick Jonas, Kurt Sutter, and David Oyelowo in Chaos Walking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> based on a novel, based on a book, wilderness, based on novel, based on young adult novel, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventure , Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avengers: Endgame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the devastating events of Avengers: Infinity War (2018), the universe is in ruins. With the help of remaining allies, the Avengers assemble once more in order to reverse Thanos' actions and restore balance to the universe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the devastating events of Avengers: Infinity War (2018), the universe is in ruins due to the efforts of the Mad Titan, Thanos. With the help of remaining allies, the Avengers must assemble once more in order to undo Thanos's actions and undo the chaos to the universe, no matter what consequences may be in store, and no matter who they face...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time travel, superhero, cosmic, super villain, marvel cinematic universe, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Drama , Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unhinged - Außer Kontrolle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After a confrontation with an unstable man at an intersection, a woman becomes the target of his rage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academy Award winner Russell Crowe stars in Unhinged, a psychological thriller that takes something we've all experienced- road rage - to an unpredictable and terrifying conclusion. Rachel (Caren Pistorius) is running late getting to work when she crosses paths with a stranger (Crowe) at a traffic light. Soon, Rachel finds herself and everyone she loves the target of a man who feels invisible and is looking to make one last mark upon the world by teaching her a series of deadly lessons. What follows is a dangerous game of cat and mouse that proves you never know who you're driving next to.
-                Written by
-Elissa Greer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scissors, stabbing, car chase, female vomiting, vomiting, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greed and class discrimination threaten the newly formed symbiotic relationship between the wealthy Park family and the destitute Kim clan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kims - mother and father Chung-sook and Ki-taek, and their young adult offspring, son Ki-woo and daughter Ki-jung - are a poor family living in a shabby and cramped half basement apartment in a busy lower working class commercial district of Seoul. Without even knowing it, they, especially Mr. and Mrs. Kim, literally smell of poverty. Often as a collective, they perpetrate minor scams to get by, and even when they have jobs, they do the minimum work required. Ki-woo is the one who has dreams of getting out of poverty by one day going to university. Despite not having that university education, Ki-woo is chosen by his university student friend Min, who is leaving to go to school, to take over his tutoring job to Park Da-hye, who Min plans to date once he returns to Seoul and she herself is in university. The Parks are a wealthy family who for four years have lived in their modernistic house designed by and the former residence of famed architect Namgoong. While Mr. and Mrs. Park ...
-                Written by
-Huggo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> social satire, class differences, house, fraud, scam, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedy , Drama , Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Serbian Film</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An aging porn star agrees to participate in an "art film" in order to make a clean break from the business, only to discover that he has been drafted into making a pedophilia and necrophilia themed snuff film.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Serbia, the retired porn star Milos is married with his beloved wife Marija and they have a little son, Peter, that is their pride and joy. The family is facing financial difficulties, but out of the blue, Milos is contacted by the porn actress Lejla who offers him a job opportunity in an art film. Milos is introduced to the director Vukmir who offers a millionaire contract to Milos to act in a film. However, Vukmir neither show the screenplay nor tells the story to Milos. Milos discusses the proposal with Marija and he signs the contract. But soon he finds that Vukmir and his crew are involved in sick snuff films of pedophilia, necrophilia and torture and there is no way back for him and maybe it is too late to protect his family.
+    <t xml:space="preserve"> girl spy, gun, shooting, shot in head, shot in chest, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Midnight Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This post-apocalyptic tale follows Augustine, a lonely scientist in the Arctic, as he races to stop Sully and her fellow astronauts from returning home to a mysterious global catastrophe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scientist, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama , Fantasy , Sci-Fi , Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The work of billionaire tech CEO Donovan Chalmers (Willis) is so valuable that he hires mercenaries to protect it, and a terrorist group kidnaps his daughter just to get it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorist, 2020, 2020s, christmas, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Gotham City, mentally troubled comedian Arthur Fleck is disregarded and mistreated by society. He then embarks on a downward spiral of revolution and bloody crime. This path brings him face-to-face with his alter-ego: the Joker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Fleck works as a clown and is an aspiring stand-up comic. He has mental health issues, part of which involves uncontrollable laughter. Times are tough and, due to his issues and occupation, Arthur has an even worse time than most. Over time these issues bear down on him, shaping his actions, making him ultimately take on the persona he is more known as...Joker.
+                Written by
+grantss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mental illness, evil clown, nihilism, laughing, stand up comedian, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Clause 2 - Eine noch schönere Bescherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Calvin has been a humble Santa Claus for nearly ten years, but it might come to an end if he doesn't find a Mrs. Claus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Calvin has been Santa Claus for the past eight years, and his loyal elves consider him the best Santa ever. But he's got problems, such as a mysterious weight loss, and then he discovers that his son Charlie has landed on this year's "naughty" list. Desperate to help his son, Scott heads back home, putting a substitute Claus in charge of the North Pole. But when the substitute institutes some strange redefinition of naughty and nice that put Christmas at risk, Scott must return with a new bag of magic to save Christmas.
+                Written by
+Walt Disney Pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> santa claus character, the easter bunny character, playing american football, father time, race against time, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interstellar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A team of explorers travel through a wormhole in space in an attempt to ensure humanity's survival.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth's future has been riddled by disasters, famines, and droughts. There is only one way to ensure mankind's survival: Interstellar travel. A newly discovered wormhole in the far reaches of our solar system allows a team of astronauts to go where no man has gone before, a planet that may have the right environment to sustain human life.
+                Written by
+ahmetkozan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> astronaut, saving the world, relativity, gravity, nasa, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars: Der Aufstieg Skywalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surviving members of the resistance face the First Order once again, and the legendary conflict between the Jedi and the Sith reaches its peak bringing the Skywalker saga to its end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the First Order continues to ravage the galaxy, Rey finalizes her training as a Jedi. But danger suddenly rises from the ashes as the evil Emperor Palpatine mysteriously returns from the dead. While working with Finn and Poe Dameron to fulfill a new mission, Rey will not only face Kylo Ren once more, but she will also finally discover the truth about her parents as well as a deadly secret that could determine her future and the fate of the ultimate final showdown that is to come.
+                Written by
+Blazer346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> evil, disney star wars, villain not really dead cliche, return of dead character, puffy cheeks, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Herr der Ringe: Die Gefährten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A meek Hobbit from the Shire and eight companions set out on a journey to destroy the powerful One Ring and save Middle-earth from the Dark Lord Sauron.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ancient Ring thought lost for centuries has been found, and through a strange twist of fate has been given to a small Hobbit named Frodo. When Gandalf discovers the Ring is in fact the One Ring of the Dark Lord Sauron, Frodo must make an epic quest to the Cracks of Doom in order to destroy it. However, he does not go alone. He is joined by Gandalf, Legolas the elf, Gimli the Dwarf, Aragorn, Boromir, and his three Hobbit friends Merry, Pippin, and Samwise. Through mountains, snow, darkness, forests, rivers and plains, facing evil and danger at every corner the Fellowship of the Ring must go. Their quest to destroy the One Ring is the only hope for the end of the Dark Lords reign.
+                Written by
+Paul Twomey &lt;toomsp@hotmail.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ring, quest, hobbit, epic, elf, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Adventure , Drama , Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borat: Anschluss Moviefilm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow-up film to the 2006 comedy centering on the real-life adventures of a fictional Kazakh television journalist named Borat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making fun of americans, disguise, father daughter relationship, covid 19, coronavirus, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twelve strangers wake up in a clearing. They don't know where they are, or how they got there. They don't know they've been chosen - for a very specific purpose - The Hunt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Twelve strangers wake up in a clearing. They don't know where they are -- or how they got there. In the shadow of a dark internet conspiracy theory, ruthless elitists gather at a remote location to hunt humans for sport. But their master plan is about to be derailed when one of the hunted, Crystal, turns the tables on her pursuers.
+                Written by
+krmanirethnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gun, hunting humans, reference to animal farm the novel, satire, podcaster, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action , Horror , Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Verurteilten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two imprisoned men bond over a number of years, finding solace and eventual redemption through acts of common decency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronicles the experiences of a formerly successful banker as a prisoner in the gloomy jailhouse of Shawshank after being found guilty of a crime he did not commit. The film portrays the man's unique way of dealing with his new, torturous life; along the way he befriends a number of fellow prisoners, most notably a wise long-term inmate named Red.
+                Written by
+J-S-Golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wrongful imprisonment, based on the works of stephen king, prison, escape from prison, voice over narration, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiße Weihnachten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A successful song-and-dance team become romantically involved with a sister act and team up to save the failing Vermont inn of their former commanding general.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having left the Army following W.W.II, Bob Wallace and Phil Davis team up to become a top song-and-dance act. Davis plays matchmaker and introduces Wallace to a pair of beautiful sisters (Betty and Judy) who also have a song-and-dance act. When Betty and Judy travel to a Vermont lodge to perform a Christmas show, Wallace and Davis follow, only to find their former commander, General Waverly, as the lodge owner. A series of romantic mix-ups ensue as the performers try to help the General.
+                Written by
+Norman Cook &lt;cook@ssdgwy.mdc.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> christmas, train, war veteran, hotel, ski lodge, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy , Musical , Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebe braucht keine Ferien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two women troubled with guy-problems swap homes in each other's countries, where they each meet a local guy and fall in love.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In London, Iris Simpkins writes a wedding column in a newspaper and nurtures an unrequited love for her colleague Jasper Bloom. Near Christmas, she is informed that Jasper is engaged to marry another colleague, and her life turns upside down. In Los Angeles, the movie-trailers maker Amanda Woods has just split with her unfaithful boyfriend Ethan and wants to forget him. Through a house exchange website, Amanda impulsively swaps her mansion for Iris' cottage in Surrey for the holidays. While in Surrey, Amanda meets Iris' brother and book editor Graham and they fall in love with each other. Meanwhile, Iris meets her new next door neighbor the ninety year old screenplay writer Arthur, who helps her retrieve her self-esteem, and the film composer Miles, with whom she falls in love.
                 Written by
 Claudio Carvalho, Rio de Janeiro, Brazil</t>
   </si>
   <si>
-    <t xml:space="preserve"> incest rape, graphic violence, rape of a minor, depravity, controversy, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peppermint - Angel of Vengeance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five years after her husband and daughter are killed in a senseless act of violence, a woman comes back from self-imposed exile to seek revenge against those responsible and the system that let them go free.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An unidentified woman is engaged in a brutal fight with a man in a car and finally dispatches him with a shot to the head. Five years earlier, the same woman, Riley North, is working as a bank teller in Los Angeles struggling to make ends meet. Her husband Chris owns a failing mechanic shop. They have a ten-year-old daughter, Carly. Chris' friend tries to talk him into robbing Diego Garcia, a powerful drug lord. Chris turns him down, but not before Garcia has already discovered his involvement and ordered his men to make an example of him. Riley and Chris take Carly out for pizza and to a carnival for her birthday since no one showed up to her party. At the carnival, Carly orders peppermint ice cream. As the family walks to the car, Diego's men gun down her husband and daughter in a drive-by shooting. She is wounded, but survives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> revenge, loss of husband, female protagonist, corruption, woman beats up a man, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megan Is Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two teenage girls encounter an Internet child predator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megan Stewart, 14, and her best friend Amy Herman, 13, though opposites in personality, are best friends. Megan carries the front of being the most popular girl in school, but this masks a lifestyle of hard partying, drugs, alcohol and indiscriminate sex. Amy, unpopular and socially awkward, clings to her relationship with Megan as a lifeline to social acceptance. Together, these two young girls forge a deep friendship based on their mutual needs. The two girls regularly communicate by web chat cameras or cell phone, and even meet boys online. As Megan seeks friends who are different from her usual posse of hanger-ons, she is introduced by a friend online to a 17 year-old boy named Josh in a chat room. Megan and Josh bond quickly, leaving Amy feeling a bit left out. One day, Megan goes to meet Josh in person, and she is never seen again. Amy launches into a concentrated effort to find her friend. As the media swirls around the story of Megan's disappearance, Amy discovers the ...
-                Written by
-Michael Goi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> angst, friend, girl, chat, best friend, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad Max: Fury Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a post-apocalyptic wasteland, a woman rebels against a tyrannical ruler in search for her homeland with the aid of a group of female prisoners, a psychotic worshiper, and a drifter named Max.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An apocalyptic story set in the furthest reaches of our planet, in a stark desert landscape where humanity is broken, and almost everyone is crazed fighting for the necessities of life. Within this world exist two rebels on the run who just might be able to restore order. There's Max, a man of action and a man of few words, who seeks peace of mind following the loss of his wife and child in the aftermath of the chaos. And Furiosa, a woman of action and a woman who believes her path to survival may be achieved if she can make it across the desert back to her childhood homeland.
-                Written by
-Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> post apocalypse, desert, car chase, chase, escape, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammonite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1840s England, acclaimed but overlooked fossil hunter Mary Anning and a young woman sent to convalesce by the sea develop an intense relationship, altering both of their lives forever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 1840s England, acclaimed but overlooked fossil hunter Mary Anning (Kate Winslet) works alone on the rugged Southern coastline. With the days of her famed discoveries behind her, she now searches for common fossils to sell to tourists to support herself and her ailing mother. When a wealthy visitor entrusts Mary with the care of his wife Charlotte Murchison (Saoirse Ronan), she cannot afford to turn his offer down. Proud and relentlessly passionate about her work, Mary initially clashes with her unwelcome guest, but despite the distance between their social class and personalities, an intense bond begins to develop, compelling the two women to determine the true nature of their relationship.
-                Written by
-See-Saw Films</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> period drama, based on real person, female scientist, lesbian romance, male frontal nudity, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography , Drama , Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Polarexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Christmas Eve, a young boy embarks on a magical adventure to the North Pole on the Polar Express, while learning about friendship, bravery, and the spirit of Christmas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the story of a young hero boy on Christmas Eve who boards on a powerful magical train that's headed to the North Pole and Santa Claus's home. What unfolds is an adventure which follows a doubting boy, who takes an extraordinary train ride to the North Pole; during this ride, he embarks on a journey of self-discovery which shows him that the wonder of life never fades for those who believe.
-                Written by
-Anthony Pereyra {hypersonic91@yahoo.com}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> santa claus character, ebenezer scrooge character, christmas movie, close up of eyes, lens flare, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation , Adventure , Comedy , Family , Fantasy , Musical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexen hexen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A young boy and his grandmother have a run-in with a coven of witches and their leader.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimagining Roald Dahl's beloved story for a modern audience, Robert Zemeckis's visually innovative film tells the darkly humorous and heartwarming tale of a young orphaned boy who, in late 1967, goes to live with his loving Grandma in the rural Alabama town of Demopolis. As the boy and his grandmother encounter some deceptively glamorous but thoroughly diabolical witches, she wisely whisks him away to a seaside resort. Regrettably, they arrive at precisely the same time that the world's Grand High Witch has gathered her fellow cronies from around the globe-undercover-to carry out her nefarious plans. Zemeckis is joined by a world-class team of filmmakers, including Alfonso Cuarón, Guillermo del Toro and Kenya Barris. The cast includes powerhouse performances from Anne Hathaway, Octavia Spencer, Stanley Tucci, Kristin Chenoweth and Chris Rock, with newcomer Jahzir Kadeen Bruno as the brave young hero.
-                Written by
-Warner Bros./HBOMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> witch, european literature on screen, remake of european film, remake of british film, african american, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventure , Comedy , Family , Fantasy , Horror , Mystery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Ava: Trained to Kill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ava is a deadly assassin who works for a black ops organization, traveling the globe specializing in high profile hits. When a job goes dangerously wrong she is forced to fight for her own survival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lethally beautiful and incredibly efficient in her dangerous line of work, Ava, a taciturn lone wolf and cold-blooded assassin, is starting to develop a conscience. Having beaten her alcohol and substance dependence with the help of Duke, her grizzled mentor of death and father figure, more and more, unstable Ava lets guilt get in the way of closing her "deals", attracting unwanted attention by breaking protocol. As a result, after a botched attempt to liquidate a high-profile target, Ava reunites with her estranged family after eight long years of absence, unaware that she has just signed her death warrant. Now, as Ava tries to settle old scores and reconnect with her loved ones, every killer in the business is after her. Can Ava rely on Duke to have her back?
-                Written by
-Nick Riganas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> girl spy, gun, shooting, shot in head, shot in chest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Midnight Sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This post-apocalyptic tale follows Augustine, a lonely scientist in the Arctic, as he races to stop Sully and her fellow astronauts from returning home to a mysterious global catastrophe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scientist, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drama , Fantasy , Sci-Fi , Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard Kill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The work of billionaire tech CEO Donovan Chalmers (Willis) is so valuable that he hires mercenaries to protect it, and a terrorist group kidnaps his daughter just to get it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terrorist, 2020, 2020s, christmas, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Gotham City, mentally troubled comedian Arthur Fleck is disregarded and mistreated by society. He then embarks on a downward spiral of revolution and bloody crime. This path brings him face-to-face with his alter-ego: the Joker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arthur Fleck works as a clown and is an aspiring stand-up comic. He has mental health issues, part of which involves uncontrollable laughter. Times are tough and, due to his issues and occupation, Arthur has an even worse time than most. Over time these issues bear down on him, shaping his actions, making him ultimately take on the persona he is more known as...Joker.
-                Written by
-grantss</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mental illness, evil clown, nihilism, laughing, stand up comedian, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Clause 2 - Eine noch schönere Bescherung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Calvin has been a humble Santa Claus for nearly ten years, but it might come to an end if he doesn't find a Mrs. Claus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Calvin has been Santa Claus for the past eight years, and his loyal elves consider him the best Santa ever. But he's got problems, such as a mysterious weight loss, and then he discovers that his son Charlie has landed on this year's "naughty" list. Desperate to help his son, Scott heads back home, putting a substitute Claus in charge of the North Pole. But when the substitute institutes some strange redefinition of naughty and nice that put Christmas at risk, Scott must return with a new bag of magic to save Christmas.
-                Written by
-Walt Disney Pictures</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> santa claus character, the easter bunny character, playing american football, father time, race against time, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interstellar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A team of explorers travel through a wormhole in space in an attempt to ensure humanity's survival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth's future has been riddled by disasters, famines, and droughts. There is only one way to ensure mankind's survival: Interstellar travel. A newly discovered wormhole in the far reaches of our solar system allows a team of astronauts to go where no man has gone before, a planet that may have the right environment to sustain human life.
-                Written by
-ahmetkozan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> astronaut, saving the world, relativity, gravity, nasa, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Wars: Der Aufstieg Skywalkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surviving members of the resistance face the First Order once again, and the legendary conflict between the Jedi and the Sith reaches its peak bringing the Skywalker saga to its end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While the First Order continues to ravage the galaxy, Rey finalizes her training as a Jedi. But danger suddenly rises from the ashes as the evil Emperor Palpatine mysteriously returns from the dead. While working with Finn and Poe Dameron to fulfill a new mission, Rey will not only face Kylo Ren once more, but she will also finally discover the truth about her parents as well as a deadly secret that could determine her future and the fate of the ultimate final showdown that is to come.
-                Written by
-Blazer346</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> evil, disney star wars, villain not really dead cliche, return of dead character, puffy cheeks, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Herr der Ringe: Die Gefährten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A meek Hobbit from the Shire and eight companions set out on a journey to destroy the powerful One Ring and save Middle-earth from the Dark Lord Sauron.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An ancient Ring thought lost for centuries has been found, and through a strange twist of fate has been given to a small Hobbit named Frodo. When Gandalf discovers the Ring is in fact the One Ring of the Dark Lord Sauron, Frodo must make an epic quest to the Cracks of Doom in order to destroy it. However, he does not go alone. He is joined by Gandalf, Legolas the elf, Gimli the Dwarf, Aragorn, Boromir, and his three Hobbit friends Merry, Pippin, and Samwise. Through mountains, snow, darkness, forests, rivers and plains, facing evil and danger at every corner the Fellowship of the Ring must go. Their quest to destroy the One Ring is the only hope for the end of the Dark Lords reign.
-                Written by
-Paul Twomey &lt;toomsp@hotmail.com&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ring, quest, hobbit, epic, elf, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Adventure , Drama , Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borat: Anschluss Moviefilm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow-up film to the 2006 comedy centering on the real-life adventures of a fictional Kazakh television journalist named Borat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making fun of americans, disguise, father daughter relationship, covid 19, coronavirus, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twelve strangers wake up in a clearing. They don't know where they are, or how they got there. They don't know they've been chosen - for a very specific purpose - The Hunt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Twelve strangers wake up in a clearing. They don't know where they are -- or how they got there. In the shadow of a dark internet conspiracy theory, ruthless elitists gather at a remote location to hunt humans for sport. But their master plan is about to be derailed when one of the hunted, Crystal, turns the tables on her pursuers.
-                Written by
-krmanirethnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gun, hunting humans, reference to animal farm the novel, satire, podcaster, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action , Horror , Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Verurteilten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two imprisoned men bond over a number of years, finding solace and eventual redemption through acts of common decency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronicles the experiences of a formerly successful banker as a prisoner in the gloomy jailhouse of Shawshank after being found guilty of a crime he did not commit. The film portrays the man's unique way of dealing with his new, torturous life; along the way he befriends a number of fellow prisoners, most notably a wise long-term inmate named Red.
-                Written by
-J-S-Golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wrongful imprisonment, based on the works of stephen king, prison, escape from prison, voice over narration, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiße Weihnachten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A successful song-and-dance team become romantically involved with a sister act and team up to save the failing Vermont inn of their former commanding general.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Having left the Army following W.W.II, Bob Wallace and Phil Davis team up to become a top song-and-dance act. Davis plays matchmaker and introduces Wallace to a pair of beautiful sisters (Betty and Judy) who also have a song-and-dance act. When Betty and Judy travel to a Vermont lodge to perform a Christmas show, Wallace and Davis follow, only to find their former commander, General Waverly, as the lodge owner. A series of romantic mix-ups ensue as the performers try to help the General.
-                Written by
-Norman Cook &lt;cook@ssdgwy.mdc.com&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> christmas, train, war veteran, hotel, ski lodge, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedy , Musical , Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liebe braucht keine Ferien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two women troubled with guy-problems swap homes in each other's countries, where they each meet a local guy and fall in love.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In London, Iris Simpkins writes a wedding column in a newspaper and nurtures an unrequited love for her colleague Jasper Bloom. Near Christmas, she is informed that Jasper is engaged to marry another colleague, and her life turns upside down. In Los Angeles, the movie-trailers maker Amanda Woods has just split with her unfaithful boyfriend Ethan and wants to forget him. Through a house exchange website, Amanda impulsively swaps her mansion for Iris' cottage in Surrey for the holidays. While in Surrey, Amanda meets Iris' brother and book editor Graham and they fall in love with each other. Meanwhile, Iris meets her new next door neighbor the ninety year old screenplay writer Arthur, who helps her retrieve her self-esteem, and the film composer Miles, with whom she falls in love.
-                Written by
-Claudio Carvalho, Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
     <t xml:space="preserve"> kiss, film composer, english countryside, cottage, book editor, </t>
   </si>
   <si>
@@ -1663,7 +1603,7 @@
     <t xml:space="preserve">Congressional aide Erica (Graham) forgoes family Christmas to travel at her boss's behest. At a beachside Air Force base, she clashes with Capt. Andrew Jantz (Ludwig), who knows her assignment is finding reasons to defund the facility.</t>
   </si>
   <si>
-    <t xml:space="preserve"> interracial love, military, christmas, boss, </t>
+    <t xml:space="preserve"> interracial love, military, christmas, boss, bare chested male, </t>
   </si>
   <si>
     <t xml:space="preserve">Comedy , Family , Romance</t>
@@ -2016,7 +1956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2145,56 +2085,56 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -2202,136 +2142,130 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14"/>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>77</v>
       </c>
@@ -2390,137 +2324,129 @@
         <v>8</v>
       </c>
       <c r="C17"/>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
         <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>115</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>117</v>
-      </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2529,44 +2455,44 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>127</v>
-      </c>
-      <c r="E24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2575,59 +2501,59 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s">
         <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
         <v>136</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -2635,7 +2561,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2644,44 +2570,44 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
         <v>145</v>
-      </c>
-      <c r="E28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" t="s">
         <v>149</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>150</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>151</v>
-      </c>
-      <c r="E29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2690,59 +2616,59 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
         <v>159</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>160</v>
       </c>
-      <c r="D31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" t="s">
-        <v>163</v>
-      </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" t="s">
         <v>164</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" t="s">
-        <v>167</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2750,338 +2676,316 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" t="s">
         <v>169</v>
-      </c>
-      <c r="E33" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34"/>
-      <c r="D34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" t="s">
-        <v>176</v>
-      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" t="s">
         <v>183</v>
-      </c>
-      <c r="B36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41"/>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" t="s">
-        <v>213</v>
-      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F45" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C46"/>
-      <c r="D46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" t="s">
-        <v>239</v>
-      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -3089,135 +2993,129 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48"/>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" t="s">
-        <v>246</v>
-      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" t="s">
         <v>248</v>
       </c>
-      <c r="D51" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" t="s">
-        <v>262</v>
-      </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G52" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F53" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G53" t="s">
         <v>25</v>
@@ -3225,122 +3123,122 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G54" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D55" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E55" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G55" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F57" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F58" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -3349,13 +3247,13 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3363,691 +3261,677 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G60" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F61" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G62" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E63" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F63" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G63" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G64" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G65" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C66"/>
-      <c r="D66" t="s">
-        <v>334</v>
-      </c>
-      <c r="E66" t="s">
-        <v>334</v>
-      </c>
-      <c r="F66" t="s">
-        <v>335</v>
-      </c>
-      <c r="G66" t="s">
-        <v>336</v>
-      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D67" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E67" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G67" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E68" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F68" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G68" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F69" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="G69" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="E70" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F70" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="G70" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71"/>
-      <c r="D71" t="s">
-        <v>362</v>
-      </c>
-      <c r="E71" t="s">
-        <v>363</v>
-      </c>
-      <c r="F71" t="s">
-        <v>364</v>
-      </c>
-      <c r="G71" t="s">
-        <v>365</v>
-      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D72" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="E72" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G72" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E73" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F73" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G73" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E74" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="F74" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="G74" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E75" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="F75" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="G75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="E76" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="F76" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="G76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B77" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="D77" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="E77" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="F77" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="E78" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F78" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="G78" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E79" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="F79" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G79" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E80" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="F80" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="G80" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E81" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="F81" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G81" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E82" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="F82" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="G82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83"/>
+      <c r="C83" t="s">
+        <v>401</v>
+      </c>
       <c r="D83" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E83" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F83" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="G83" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D84" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="E84" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F84" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="G84" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D85" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="E85" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F85" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="G85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B86" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="C86" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D86" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="E86" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="F86" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="G86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D87" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="F87" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="G87" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D88" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="E88" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="F88" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="G88" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E89" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="F89" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="G89" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -4056,21 +3940,21 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="E90" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="F90" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="G90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4079,36 +3963,36 @@
         <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="E91" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="F91" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="G91" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D92" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="E92" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="F92" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="G92" t="s">
         <v>25</v>
@@ -4116,68 +4000,68 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B93" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="E93" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="F93" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="G93" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B94" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>455</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E94" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="F94" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="G94" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D95" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E95" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="F95" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -4185,140 +4069,140 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B96" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D96" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="E96" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="F96" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="G96" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="D97" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E97" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="F97" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="G97" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E98" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="F98" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="G98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B99" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D99" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="E99" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="F99" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="G99" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="D100" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="E100" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="F100" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="G100" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B101" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D101" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="E101" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F101" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="G101" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve"> UK , USA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 361,300,000        
+    <t xml:space="preserve"> 361,400,000        
         </t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t xml:space="preserve"> girl, female protagonist, disney plus, christmas, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Comedy, Drama, Family, Fantasy</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  The Montecito Picture Company, Walt Disney Pictures      
         </t>
@@ -228,7 +231,7 @@
     <t xml:space="preserve"> USA , Canada </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,028,979        
+    <t xml:space="preserve"> 1,401,954        
         </t>
   </si>
   <si>
@@ -246,7 +249,7 @@
     <t xml:space="preserve">Kate Pierce, now a cynical teen, is unexpectedly reunited with Santa Claus when a mysterious troublemaker threatens to cancel Christmas - forever.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Adventure, Comedy, Family, Fantasy</t>
+    <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy</t>
   </si>
   <si>
     <t xml:space="preserve"> Canada </t>
@@ -272,7 +275,7 @@
     <t xml:space="preserve"> Action, Crime, Drama, Romance, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 28,671,530        
+    <t xml:space="preserve"> 28,821,301        
         </t>
   </si>
   <si>
@@ -296,7 +299,7 @@
     <t xml:space="preserve"> Comedy, Horror, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14,194,365        
+    <t xml:space="preserve"> 14,179,080        
         </t>
   </si>
   <si>
@@ -338,6 +341,9 @@
     <t xml:space="preserve"> scientist, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Drama, Fantasy, Sci-Fi, Thriller</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  Anonymous Content, Netflix, Smokehouse Pictures      
         </t>
@@ -382,6 +388,9 @@
     <t xml:space="preserve"> holiday, christmas, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Family, Fantasy, Musical</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  Golden Girl, Get Lifted Film Company, 260 Degrees Entertainment      
         </t>
@@ -396,10 +405,13 @@
     <t xml:space="preserve"> fighting, christmas, santa claus, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Action, Comedy, Fantasy, Thriller</t>
+  </si>
+  <si>
     <t xml:space="preserve"> UK , Canada , USA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,028,657        
+    <t xml:space="preserve"> 1,082,179        
         </t>
   </si>
   <si>
@@ -437,6 +449,9 @@
     <t xml:space="preserve"> death, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Thriller</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Canada , USA </t>
   </si>
   <si>
@@ -471,7 +486,7 @@
     <t xml:space="preserve">Black Bear</t>
   </si>
   <si>
-    <t xml:space="preserve">A filmmaker at a creative impasse seeks solace from her tumultuous past at a rural retreat, only to find that the woods summon her inner demons in intense and surprising ways.</t>
+    <t xml:space="preserve">At a remote lake house in the Adirondack Mountains, a couple entertains an out-of-town guest looking for inspiration in her filmmaking. The group quickly falls into a calculated game of desire, manipulation, and jealousy, unaware of how dangerously convoluted their lives will soon become in the filmmaker's pursuit of a work of art, which blurs the boundaries between autobiography and invention.</t>
   </si>
   <si>
     <t xml:space="preserve"> woods, interracial kiss, </t>
@@ -539,6 +554,9 @@
     <t xml:space="preserve"> author, cruise, aunt, nephew, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Comedy, Drama</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  Extension 765, HBO Films, LS Productions      
         </t>
@@ -556,6 +574,9 @@
     <t xml:space="preserve"> time travel, present, police officer, police officer hacked, police officer killed, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Crime, Horror, Mystery, Thriller</t>
+  </si>
+  <si>
     <t xml:space="preserve"> South Korea </t>
   </si>
   <si>
@@ -576,7 +597,7 @@
     <t xml:space="preserve"> UK </t>
   </si>
   <si>
-    <t xml:space="preserve"> 25,919,223        
+    <t xml:space="preserve"> 26,287,085        
         </t>
   </si>
   <si>
@@ -597,9 +618,6 @@
     <t xml:space="preserve"> 1970s, uncle niece relationship, gay couple relationship, jewish lesbian, gay muslim, </t>
   </si>
   <si>
-    <t xml:space="preserve"> Comedy, Drama</t>
-  </si>
-  <si>
     <t xml:space="preserve">
  Amazon Studios, Miramax Films, Your Face Goes Here Entertainment      
         </t>
@@ -611,7 +629,7 @@
     <t xml:space="preserve">The 2nd</t>
   </si>
   <si>
-    <t xml:space="preserve">Secret-service agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
+    <t xml:space="preserve">Special forces agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
   </si>
   <si>
     <t xml:space="preserve"> secret agent, electronic music score, 2020s, 2010s, ambiguous ending, </t>
@@ -692,7 +710,7 @@
     <t xml:space="preserve"> Action, Horror, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> 46,316,464        
+    <t xml:space="preserve"> 46,378,380        
         </t>
   </si>
   <si>
@@ -707,7 +725,7 @@
     <t xml:space="preserve">A 16 year-old girl returns home from camp and learns that her mother has a new boyfriend, one she intends to marry; a man whose charm, intelligence and beauty make him look like he's not human at all.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Horror, Mystery, Sci-Fi, Thriller</t>
+    <t xml:space="preserve"> Horror, Mystery, Sci-Fi, Thriller</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -752,13 +770,10 @@
     <t xml:space="preserve"> woke, live action cgi hybrid, ship, voyage, queen victoria, </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> USA , China , UK , Japan </t>
   </si>
   <si>
-    <t xml:space="preserve"> 245,231,781        
+    <t xml:space="preserve"> 246,073,367        
         </t>
   </si>
   <si>
@@ -782,7 +797,7 @@
     <t xml:space="preserve"> Crime, Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10,133,050        
+    <t xml:space="preserve"> 10,136,930        
         </t>
   </si>
   <si>
@@ -800,6 +815,9 @@
     <t xml:space="preserve"> australian robots, australian horror, australian science fiction, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Sci-Fi</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Australia </t>
   </si>
   <si>
@@ -864,7 +882,7 @@
     <t xml:space="preserve"> Ireland , UK </t>
   </si>
   <si>
-    <t xml:space="preserve"> 100,466        
+    <t xml:space="preserve"> 95,360        
         </t>
   </si>
   <si>
@@ -879,7 +897,7 @@
     <t xml:space="preserve">In 2024 a pandemic ravages the world and its cities. Centering on a handful of people as they navigate the obstacles currently hindering society: disease, martial law, quarantine, and vigilantes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> reference to the coronavirus, male nudity, male rear nudity, shower, 2020, </t>
+    <t xml:space="preserve"> reference to the coronavirus, 2020, older man younger woman kiss, older man younger woman affair, produced by michael bay, </t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy, Drama, Romance, Thriller</t>
@@ -919,7 +937,7 @@
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 76,344,105        
+    <t xml:space="preserve"> 76,631,640        
         </t>
   </si>
   <si>
@@ -943,7 +961,7 @@
     <t xml:space="preserve"> Canada , UK </t>
   </si>
   <si>
-    <t xml:space="preserve"> 872,555        
+    <t xml:space="preserve"> 883,546        
         </t>
   </si>
   <si>
@@ -1019,7 +1037,10 @@
     <t xml:space="preserve"> hero, one word title, </t>
   </si>
   <si>
-    <t xml:space="preserve"> 55,700        
+    <t xml:space="preserve"> Action, Adventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54,570        
         </t>
   </si>
   <si>
@@ -1084,7 +1105,7 @@
     <t xml:space="preserve"> USA , Mexico , UK </t>
   </si>
   <si>
-    <t xml:space="preserve"> 19,000,000        
+    <t xml:space="preserve"> 22,100,000        
         </t>
   </si>
   <si>
@@ -1224,6 +1245,9 @@
     <t xml:space="preserve"> party, royalty, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Comedy, Drama, Family, Romance</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  Netflix, Motion Picture Corporation of America (MPCA), Brad Krevoy Television      
         </t>
@@ -1258,6 +1282,9 @@
     <t xml:space="preserve"> life, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Comedy, Romance, Sci-Fi</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1,600,000        
         </t>
   </si>
@@ -1291,7 +1318,7 @@
     <t xml:space="preserve">Neues aus der Welt</t>
   </si>
   <si>
-    <t xml:space="preserve">Five years after the end of the Civil War, Captain Jefferson Kyle Kidd (Tom Hanks), a veteran of three wars, now moves from town to town as a non-fiction storyteller, sharing the news of presidents and queens, glorious feuds, devastating catastrophes, and gripping adventures from the far reaches of the globe. In the plains of Texas, he crosses paths with Johanna (Helena Zengel ), a 10-year-old taken in by the Kiowa people six years earlier and raised as one of their own. Johanna, hostile to a world she's never experienced, is being returned to her biological aunt and uncle against her will. Kidd agrees to deliver the child where the law says she belongs. As they travel hundreds of miles into the unforgiving wilderness, the two will face tremendous challenges of both human and natural forces as they search for a place that either can call home.</t>
+    <t xml:space="preserve">Five years after the end of the Civil War, Captain Jefferson Kyle Kidd (Tom Hanks), a veteran of three wars, now moves from town to town as a non-fiction storyteller, sharing the news of presidents and queens, glorious feuds, devastating catastrophes, and gripping adventures from the far reaches of the globe. On the plains of Texas, he crosses paths with Johanna (Helena Zengel), a 10-year-old taken in by the Kiowa people six years earlier and raised as one of their own. Johanna, hostile to a world she's never experienced, is being returned to her biological aunt and uncle against her will. Kidd agrees to deliver the child where the law says she belongs. As they travel hundreds of miles into the unforgiving wilderness, the two will face tremendous challenges of both human and natural forces as they search for a place that either can call home.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1800s, rescue, wild west, cowboy, spaghetti western, </t>
@@ -1305,6 +1332,9 @@
         </t>
   </si>
   <si>
+    <t xml:space="preserve"> 118 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Rebecca</t>
   </si>
   <si>
@@ -1348,9 +1378,6 @@
     <t xml:space="preserve">Leyla and Adam have had a happy marriage for years. However, after a while, their marriage becomes a dead end. The excitement in their marriage is now gone, and Adam falls into a love that causes his heart to beat again. Adem, who falls in love with the woman named Nergis who comes across this period, cannot think of anyone other than Nergis. However, Nergis, who took the mind of Adam, has no intention of moving to another life from the one-man world he founded.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Comedy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Turkey </t>
   </si>
   <si>
@@ -1391,7 +1418,7 @@
     <t xml:space="preserve"> Animation, Adventure, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ireland , Luxembourg , France , USA , UK </t>
+    <t xml:space="preserve"> Ireland , Luxembourg , France , Denmark , USA , UK </t>
   </si>
   <si>
     <t xml:space="preserve"> 171,900        
@@ -1532,7 +1559,7 @@
     <t xml:space="preserve"> USA , Canada , Italy </t>
   </si>
   <si>
-    <t xml:space="preserve"> 6,243,740        
+    <t xml:space="preserve"> 6,258,081        
         </t>
   </si>
   <si>
@@ -1625,7 +1652,7 @@
     <t xml:space="preserve">In the skulduggery world of politics and crime, an innocent Chanchal has to put all on the line to prove her innocence and bring justice to Shakti and the people that he loved so much. As she gets embroiled deep in a web of deceit, Chanchal must face powers both natural and supernatural to fulfil her destiny.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Horror, Thriller</t>
+    <t xml:space="preserve"> Horror, Thriller</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1666,6 +1693,9 @@
     <t xml:space="preserve"> agent, female protagonist, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Drama, Music</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dolly Parton's Christmas on the Square</t>
   </si>
   <si>
@@ -1675,6 +1705,9 @@
     <t xml:space="preserve"> christmas, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Comedy, Drama, Family, Musical</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  Magnolia Hill Productions, Sandollar Productions, Warner Bros. Television      
         </t>
@@ -1804,7 +1837,7 @@
     <t xml:space="preserve"> Canada , USA , Portugal </t>
   </si>
   <si>
-    <t xml:space="preserve"> 110,848,357        
+    <t xml:space="preserve"> 110,939,029        
         </t>
   </si>
   <si>
@@ -1863,7 +1896,7 @@
     <t xml:space="preserve"> Drama, Fantasy, Horror</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,875,405        
+    <t xml:space="preserve"> 1,882,552        
         </t>
   </si>
   <si>
@@ -1898,7 +1931,7 @@
     <t xml:space="preserve">Takes place in 1869, before the events of the original movie. It will finally reveal how the cursed game came to be and the adventures of the first people who played Jumanji.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Adventure</t>
+    <t xml:space="preserve"> Adventure</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1977,7 +2010,7 @@
     <t xml:space="preserve">The Dark and The Wicked follows two siblings who are summoned back to the family farm to await the inevitability of their father's death. What initially appears to be a timeless ritual of loss and remembrance turns out to be something very different.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Horror</t>
+    <t xml:space="preserve"> Horror</t>
   </si>
   <si>
     <t xml:space="preserve"> 334,022        
@@ -2018,6 +2051,9 @@
     <t xml:space="preserve"> survival, </t>
   </si>
   <si>
+    <t xml:space="preserve"> Action</t>
+  </si>
+  <si>
     <t xml:space="preserve"> China </t>
   </si>
   <si>
@@ -2036,7 +2072,7 @@
     <t xml:space="preserve">A man rises from personal tragedy to lead a group of children from a refugee camp to victory, transforming their lives through the game of cricket.</t>
   </si>
   <si>
-    <t xml:space="preserve">Genres: Action, Drama, Sport, Thriller</t>
+    <t xml:space="preserve"> Action, Drama, Sport, Thriller</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2058,21 +2094,26 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">Peninsula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peninsula takes place four years after the zombie outbreak in Train to Busan. The Korean peninsula is devastated and Jung Seok, a former soldier who has managed to escape overseas, is given a mission to go back and unexpectedly meets survivors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> zombie, zombie apocalypse, united nations blue helmet, sequel, second part, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39,521,135        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Next Entertainment World, RedPeter Film      
+    <t xml:space="preserve">Free Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bank teller discovers that he's actually an NPC inside a brutal, open world video game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bank robbery, gamers, two word title, virtual reality, heroic, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action, Adventure, Comedy, Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA , Canada , Japan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 20th Century Studios, 21 Laps Entertainment, Berlanti Productions      
         </t>
   </si>
 </sst>
@@ -2590,810 +2631,826 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="E10"/>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14"/>
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16"/>
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17"/>
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19"/>
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21"/>
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24"/>
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
       <c r="F24" t="s">
         <v>22</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
         <v>192</v>
-      </c>
-      <c r="D30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" t="s">
-        <v>186</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32"/>
+        <v>210</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
       <c r="F32" t="s">
         <v>22</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I34" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36"/>
+        <v>237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
@@ -3401,576 +3458,584 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H37" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
-      </c>
-      <c r="E39"/>
+        <v>256</v>
+      </c>
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H42" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F43" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G43" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H43" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E45" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I45" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H46" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I46" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
-      </c>
-      <c r="E47"/>
+        <v>302</v>
+      </c>
+      <c r="E47" t="s">
+        <v>303</v>
+      </c>
       <c r="F47" t="s">
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H47" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I47" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D49" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H49" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G50" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H50" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I50" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H51" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E52" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G52" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H52" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E53" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F53" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I53" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54"/>
+        <v>349</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
       <c r="F54" t="s">
         <v>22</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="I54" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E55" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E56" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D57" t="s">
-        <v>356</v>
-      </c>
-      <c r="E57"/>
+        <v>363</v>
+      </c>
+      <c r="E57" t="s">
+        <v>364</v>
+      </c>
       <c r="F57" t="s">
         <v>22</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I57" t="s">
         <v>40</v>
@@ -3978,346 +4043,350 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D58" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E58" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I58" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D59" t="s">
-        <v>366</v>
-      </c>
-      <c r="E59"/>
+        <v>374</v>
+      </c>
+      <c r="E59" t="s">
+        <v>375</v>
+      </c>
       <c r="F59" t="s">
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H59" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="I59" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E60" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H60" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D61" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E61" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>379</v>
-      </c>
-      <c r="I61"/>
+        <v>388</v>
+      </c>
+      <c r="I61" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="I62" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
-      </c>
-      <c r="D64" t="s">
-        <v>393</v>
-      </c>
-      <c r="E64"/>
+        <v>402</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="s">
+        <v>359</v>
+      </c>
       <c r="F64" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D65" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E65" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="I65" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E66" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G66" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H66" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D67" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E67" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F67" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G67" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H67" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I67" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E68" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F68" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G68" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H68" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="I68" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E69" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H69" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="I69" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
@@ -4326,249 +4395,251 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H70" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="I70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D71" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E71" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F71" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G71" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H71" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="I71" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E72" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F72" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="G72" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H72" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="I72" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D73" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E73" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="F73" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="I73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D74" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E74" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="I74" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D75" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E75" t="s">
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="I75" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D76" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E76" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H76" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="I76" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>473</v>
-      </c>
-      <c r="D77" t="s">
-        <v>474</v>
-      </c>
-      <c r="E77"/>
+        <v>482</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="s">
+        <v>483</v>
+      </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="I77" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D78" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E78" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H78" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="I78" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D79" t="s">
-        <v>485</v>
-      </c>
-      <c r="E79"/>
+        <v>494</v>
+      </c>
+      <c r="E79" t="s">
+        <v>495</v>
+      </c>
       <c r="F79" t="s">
         <v>22</v>
       </c>
@@ -4577,598 +4648,604 @@
         <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D80" t="s">
-        <v>488</v>
-      </c>
-      <c r="E80"/>
+        <v>498</v>
+      </c>
+      <c r="E80" t="s">
+        <v>499</v>
+      </c>
       <c r="F80" t="s">
         <v>22</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="I80" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D81" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="H81" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="I81" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D82" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="I82" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D83" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E83" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="I83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D84" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E84" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F84" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D85" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
-      </c>
-      <c r="E86"/>
+        <v>531</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
       <c r="F86" t="s">
         <v>22</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="I86" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D87" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E87" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="F87" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="G87" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="H87" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="D88" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="E88" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F88" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="G88" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="H88" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="I88" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D89" t="s">
-        <v>538</v>
-      </c>
-      <c r="E89"/>
+        <v>549</v>
+      </c>
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
       <c r="F89" t="s">
         <v>22</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D90" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="E90" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="H90" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="I90" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D91" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="E91" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F91" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="I91" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>553</v>
-      </c>
-      <c r="D92" t="s">
-        <v>554</v>
-      </c>
-      <c r="E92"/>
+        <v>564</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="s">
+        <v>565</v>
+      </c>
       <c r="F92" t="s">
         <v>22</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="I92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D93" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E93" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="I93" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D94" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="E94" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="F94" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="G94" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="H94" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="I94" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D95" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E95" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H95" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="I95" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>576</v>
-      </c>
-      <c r="D96" t="s">
-        <v>577</v>
-      </c>
-      <c r="E96"/>
+        <v>587</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>588</v>
+      </c>
       <c r="F96" t="s">
         <v>22</v>
       </c>
       <c r="G96" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="I96" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D97" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E97" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F97" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="I97" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D98" t="s">
-        <v>588</v>
-      </c>
-      <c r="E98"/>
+        <v>599</v>
+      </c>
+      <c r="E98" t="s">
+        <v>600</v>
+      </c>
       <c r="F98" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="G98" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="H98" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="I98" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>593</v>
-      </c>
-      <c r="D99" t="s">
-        <v>594</v>
-      </c>
-      <c r="E99"/>
+        <v>605</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="s">
+        <v>606</v>
+      </c>
       <c r="F99" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="I99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D100" t="s">
-        <v>598</v>
-      </c>
-      <c r="E100"/>
+        <v>610</v>
+      </c>
+      <c r="E100" t="s">
+        <v>335</v>
+      </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="I100" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>613</v>
       </c>
       <c r="C101" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="D101" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="E101" t="s">
-        <v>307</v>
+        <v>616</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" t="s">
-        <v>603</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="G101"/>
       <c r="H101" t="s">
-        <v>604</v>
-      </c>
-      <c r="I101" t="s">
-        <v>93</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="I101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -20,25 +20,31 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot_keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runtime</t>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metascore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue..Millions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime..Minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director</t>
   </si>
   <si>
     <t xml:space="preserve">Tenet</t>
@@ -47,91 +53,97 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
+    <t xml:space="preserve"> 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199,971</t>
+  </si>
+  <si>
     <t xml:space="preserve">In a twilight world of international espionage, an unnamed CIA operative, known as The Protagonist, is recruited by a mysterious organization called Tenet to participate in a global assignment that unfolds beyond real time. The mission: prevent Andrei Sator, a renegade Russian oligarch with precognition abilities, from starting World War III. The Protagonist will soon master the art of "time inversion" as a way of countering the threat that is to come.</t>
   </si>
   <si>
-    <t xml:space="preserve"> written by director, ensemble cast, produced by director, symphony hall, car chase, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UK , USA </t>
   </si>
   <si>
     <t xml:space="preserve"> 361,400,000        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Warner Bros., Syncopy      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 150 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Christopher Nolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John David Washington, Robert Pattinson, Elizabeth Debicki, Juhan Ulfsak </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mank</t>
   </si>
   <si>
+    <t xml:space="preserve"> 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,404</t>
+  </si>
+  <si>
     <t xml:space="preserve">1940. Film studio RKO hires 24-year-old wunderkind Orson Welles under a contract that gives him full creative control of his movies. For his first film, he calls in washed-up alcoholic Herman J Mankiewicz to write the screenplay. That film is "Citizen Kane," and this is the story of how it was written.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1930s, 1940s, alcoholic, funeral, politics, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biography, Comedy, Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA </t>
   </si>
   <si>
     <t xml:space="preserve"> 83,469        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 131 </t>
   </si>
   <si>
+    <t xml:space="preserve"> David Fincher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gary Oldman, Amanda Seyfried, Lily Collins, Tom Pelphrey </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mulan</t>
   </si>
   <si>
+    <t xml:space="preserve"> 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85,070</t>
+  </si>
+  <si>
     <t xml:space="preserve">A young Chinese maiden disguises herself as a male warrior in order to save her father.</t>
   </si>
   <si>
-    <t xml:space="preserve"> remake, chinawoman, china, disney live action remake of animated film, ancient china, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Adventure, Drama, Family, Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Canada , Hong Kong </t>
   </si>
   <si>
     <t xml:space="preserve"> 66,800,000        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Walt Disney Pictures, Jason T. Reed Productions, Good Fear Content      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 115 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Niki Caro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yifei Liu, Donnie Yen, Li Gong, Jet Li </t>
+  </si>
+  <si>
     <t xml:space="preserve">Code Ava: Trained to Kill</t>
   </si>
   <si>
+    <t xml:space="preserve"> 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,866</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lethally beautiful and incredibly efficient in her dangerous line of work, Ava, a taciturn lone wolf and cold-blooded assassin, is starting to develop a conscience. Having beaten her alcohol and substance dependence with the help of Duke, her grizzled mentor of death and father figure, more and more, unstable Ava lets guilt get in the way of closing her "deals", attracting unwanted attention by breaking protocol. As a result, after a botched attempt to liquidate a high-profile target, Ava reunites with her estranged family after eight long years of absence, unaware that she has just signed her death warrant. Now, as Ava tries to settle old scores and reconnect with her loved ones, every killer in the business is after her. Can Ava rely on Duke to have her back?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> girl spy, gun, shooting, shot in head, shot in chest, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Crime, Drama, Thriller</t>
@@ -141,64 +153,73 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Freckle Films, Voltage Pictures      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 96 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Tate Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica Chastain, John Malkovich, Common, Geena Davis </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wonder Woman 1984</t>
   </si>
   <si>
+    <t xml:space="preserve"> 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fast forward to the 1980s as Wonder Woman's next big screen adventure finds her facing two all-new foes: Max Lord and The Cheetah.</t>
   </si>
   <si>
-    <t xml:space="preserve"> action heroine, princess, based on comic book, based on comic, sequel, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Adventure, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> USA , UK , Spain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Atlas Entertainment, DC Comics, DC Entertainment      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 151 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Patty Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gal Gadot, Chris Pine, Kristen Wiig, Pedro Pascal </t>
+  </si>
+  <si>
     <t xml:space="preserve">Die gute Fee</t>
   </si>
   <si>
+    <t xml:space="preserve"> 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,174</t>
+  </si>
+  <si>
     <t xml:space="preserve">A young and unskilled fairy godmother ventures out on her own to prove her worth by tracking down a young girl whose request for help was ignored.</t>
   </si>
   <si>
-    <t xml:space="preserve"> girl, female protagonist, disney plus, christmas, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Drama, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve">
- The Montecito Picture Company, Walt Disney Pictures      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 110 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Sharon Maguire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> June Squibb, Jillian Bell, Sonia Manzano, Carlease Burke </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Prom</t>
   </si>
   <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,247</t>
+  </si>
+  <si>
     <t xml:space="preserve">A troupe of hilariously self-obsessed theater stars swarm into a small conservative Indiana town in support of a high school girl who wants to take her girlfriend to the prom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> reference to beauty and the beast the broadway musical, high school, prom, lgbt, indiana, </t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy, Drama, Musical</t>
@@ -208,113 +229,124 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Dramatic Forces, Storykey, Netflix      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 130 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Ryan Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meryl Streep, James Corden, Nicole Kidman, Kerry Washington </t>
+  </si>
+  <si>
     <t xml:space="preserve">Happiest Season</t>
   </si>
   <si>
+    <t xml:space="preserve"> 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,859</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meeting your girlfriend's family for the first time can be tough. Planning to propose at her family's annual Christmas dinner - until you realize that they don't even know she's gay - is even harder. When Abby (Kristen Stewart) learns that Harper (Mackenzie Davis) has kept their relationship a secret from her family, she begins to question the girlfriend she thought she knew.</t>
   </si>
   <si>
-    <t xml:space="preserve"> lesbian, christmas, queer, holidays, lesbian relationship, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Drama, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Canada </t>
   </si>
   <si>
     <t xml:space="preserve"> 1,401,954        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- TriStar Pictures, Entertainment One, Hulu Originals      
+    <t xml:space="preserve"> 102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clea DuVall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristen Stewart, Mackenzie Davis, Mary Steenburgen, Victor Garber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Christmas Chronicles: Teil zwei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kate Pierce, now a cynical teen, is unexpectedly reunited with Santa Claus when a mysterious troublemaker threatens to cancel Christmas - forever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 112 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Columbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kurt Russell, Goldie Hawn, Darby Camp, Julian Dennison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honest Thief</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They call him the In-and-Out-Bandit because meticulous thief Tom Carter (Liam Neeson) has stolen $9 million from small-town banks while managing to keep his identity a secret. But after he falls in love with the bubbly Annie (Kate Walsh), Tom decides to make a fresh start by coming clean about his criminal past, only to be double-crossed by two ruthless FBI agents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action, Crime, Drama, Romance, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28,831,341        
         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 102 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Christmas Chronicles: Teil zwei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kate Pierce, now a cynical teen, is unexpectedly reunited with Santa Claus when a mysterious troublemaker threatens to cancel Christmas - forever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 1492 Pictures, Wonder Worldwide      
+    <t xml:space="preserve"> 99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liam Neeson, Kate Walsh, Jai Courtney, Jeffrey Donovan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freaky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After swapping bodies with a deranged serial killer, a young girl in high school discovers she has less than 24 hours before the change becomes permanent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy, Horror, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14,206,300        
         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 112 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honest Thief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They call him the In-and-Out-Bandit because meticulous thief Tom Carter (Liam Neeson) has stolen $9 million from small-town banks while managing to keep his identity a secret. But after he falls in love with the bubbly Annie (Kate Walsh), Tom decides to make a fresh start by coming clean about his criminal past, only to be double-crossed by two ruthless FBI agents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dog, divorcee, playground, love, bandit, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action, Crime, Drama, Romance, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28,821,301        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Argonaut Entertainment Partners, Briarcliff Entertainment, Cutting Edge Group      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freaky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After swapping bodies with a deranged serial killer, a young girl in high school discovers she has less than 24 hours before the change becomes permanent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> body swap, serial killer, slasher killer, violence, black comedy, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy, Horror, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14,179,080        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Blumhouse Productions, Divide/Conquer      
-        </t>
+    <t xml:space="preserve"> Christopher Landon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vince Vaughn, Kathryn Newton, Celeste O'Connor, Misha Osherovich </t>
   </si>
   <si>
     <t xml:space="preserve">Hillbilly Elegy</t>
   </si>
   <si>
+    <t xml:space="preserve">15,243</t>
+  </si>
+  <si>
     <t xml:space="preserve">Based on the bestselling memoir by J.D. Vance, HILLBILLY ELEGY is a modern exploration of the American Dream and three generations of an Appalachian family as told by its youngest member, a Yale Law student forced to return to his hometown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drugs, addiction, grandmother, mother son relationship, mother daughter relationship, </t>
   </si>
   <si>
     <t xml:space="preserve"> Drama</t>
@@ -324,189 +356,198 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Imagine Entertainment, Netflix      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 116 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Ron Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amy Adams, Glenn Close, Gabriel Basso, Haley Bennett </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Midnight Sky</t>
   </si>
   <si>
+    <t xml:space="preserve"> 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330</t>
+  </si>
+  <si>
     <t xml:space="preserve">This post-apocalyptic tale follows Augustine, a lonely scientist in the Arctic, as he races to stop Sully and her fellow astronauts from returning home to a mysterious global catastrophe.</t>
   </si>
   <si>
-    <t xml:space="preserve"> scientist, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Fantasy, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Anonymous Content, Netflix, Smokehouse Pictures      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 122 </t>
   </si>
   <si>
+    <t xml:space="preserve"> George Clooney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> George Clooney, Felicity Jones, David Oyelowo, Tiffany Boone </t>
+  </si>
+  <si>
     <t xml:space="preserve">Greenland</t>
   </si>
   <si>
+    <t xml:space="preserve">30,348</t>
+  </si>
+  <si>
     <t xml:space="preserve">A family fights for survival as a planet-killing comet races to Earth. John Garrity (Gerard Butler), his estranged wife Allison (Morena Baccarin), and young son Nathan make a perilous journey to their only hope for sanctuary. Amid terrifying news accounts of cities around the world being leveled by the comet's fragments, the Garritys experience the best and worst in humanity while they battle the increasing panic and lawlessness surrounding them. As the countdown to global apocalypse approaches zero, their incredible trek culminates in a desperate and last-minute flight to a possible safe haven.</t>
   </si>
   <si>
-    <t xml:space="preserve"> comet, apocalypse, disaster film, diabetic, diabetic child, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Drama, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , UK </t>
   </si>
   <si>
     <t xml:space="preserve"> 47,800,000        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- STX Films, Anton, Thunder Road Pictures      
+    <t xml:space="preserve"> 119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ric Roman Waugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gerard Butler, Morena Baccarin, Roger Dale Floyd, Scott Glenn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jingle Jangle Journey: Abenteuerliche Weihnachten!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the gloriously vibrant town of Cobbleton, legendary toymaker Jeronicus Jangle's (Forest Whitaker) fanciful inventions burst with whimsy and wonder. But when his trusted apprentice (Keegan-Michael Key) steals his most prized creation, it's up to his equally bright and inventive granddaughter (Madalen Mills) - and a long-forgotten invention - to heal old wounds and reawaken the magic within.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family, Fantasy, Musical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David E. Talbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forest Whitaker, Keegan-Michael Key, Hugh Bonneville, Anika Noni Rose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rowdy, unorthodox Santa Claus is fighting to save his declining business. Meanwhile, Billy, a neglected and precocious 12 year old, hires a hit man to kill Santa after receiving a lump of coal in his stocking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action, Comedy, Fantasy, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,086,339        
         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 119 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jingle Jangle Journey: Abenteuerliche Weihnachten!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the gloriously vibrant town of Cobbleton, legendary toymaker Jeronicus Jangle's (Forest Whitaker) fanciful inventions burst with whimsy and wonder. But when his trusted apprentice (Keegan-Michael Key) steals his most prized creation, it's up to his equally bright and inventive granddaughter (Madalen Mills) - and a long-forgotten invention - to heal old wounds and reawaken the magic within.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> holiday, christmas, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Family, Fantasy, Musical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Golden Girl, Get Lifted Film Company, 260 Degrees Entertainment      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rowdy, unorthodox Santa Claus is fighting to save his declining business. Meanwhile, Billy, a neglected and precocious 12 year old, hires a hit man to kill Santa after receiving a lump of coal in his stocking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting, christmas, santa claus, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action, Comedy, Fantasy, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UK , Canada , USA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,082,179        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Carte Blanche, Fortitude International, Ingenious      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 100 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Eshom Nelms, Ian Nelms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mel Gibson, Walton Goggins, Marianne Jean-Baptiste, Chance Hurstfield </t>
+  </si>
+  <si>
     <t xml:space="preserve">We Can Be Heroes</t>
   </si>
   <si>
+    <t xml:space="preserve">1,768</t>
+  </si>
+  <si>
     <t xml:space="preserve">When alien invaders kidnap Earth's superheroes, their kids are whisked away to a government safe house. But whip-smart tween Missy Moreno will stop at nothing to rescue her superhero dad, Marcus Moreno. Missy teams up with the rest of the superkids to escape their mysterious government babysitter, Ms. Granada. If they're going to save their parents, they'll have to work together by using their individual powers - from elasticity to time control to predicting the future - and form an out-of-this-world team.</t>
   </si>
   <si>
-    <t xml:space="preserve"> non comic book superhero, female protagonist, alien invasion, female hero, snake woman, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Comedy, Drama, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Quick Draw Productions, Troublemaker Studios      
-        </t>
+    <t xml:space="preserve"> Robert Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pedro Pascal, Taylor Dooley, Priyanka Chopra, Boyd Holbrook </t>
   </si>
   <si>
     <t xml:space="preserve">Wander</t>
   </si>
   <si>
+    <t xml:space="preserve"> 54</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arthur Bretnik is a mentally unstable conspiracy theorist and private eye with a traumatic past. After being hired to investigate a possible murder cover up in the small town of Wander, Arthur is plunged into a world of lies and deceit, as he quickly suspects the murder may be part of the same 'conspiracy cover up' that caused the death of his daughter. Increasingly paranoid, Arthur's sanity is tested as he attempts to filter fact from fiction and solve the case, all the while questioning if he is a pawn in a much bigger game.</t>
   </si>
   <si>
-    <t xml:space="preserve"> death, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> Canada , USA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- WANGO Films, Aloe Entertainment, Aloe Entertainment      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 94 </t>
   </si>
   <si>
+    <t xml:space="preserve"> April Mullen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Eckhart, Tommy Lee Jones, Katheryn Winnick, Heather Graham </t>
+  </si>
+  <si>
     <t xml:space="preserve">Holidate</t>
   </si>
   <si>
+    <t xml:space="preserve"> 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,808</t>
+  </si>
+  <si>
     <t xml:space="preserve">Randomly meeting at a store return counter introduces Sloane to Jackson. Both tired of nightmare dates (him) and meddling family (her) during the holidays, they strike an arrangement, whereby they meet as a couple only during the holidays to make life at the very least tolerable. Slowly, so slowly, while scoffing at the cliches of romance (and to their surprise), their relationship grows into something deeper.</t>
   </si>
   <si>
-    <t xml:space="preserve"> holiday, christmas, halloween, wedding, date, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix, Wonderland Sound and Vision      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 103 </t>
   </si>
   <si>
+    <t xml:space="preserve"> John Whitesell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emma Roberts, Luke Bracey, Kristin Chenoweth, Frances Fisher </t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Bear</t>
   </si>
   <si>
+    <t xml:space="preserve">2,266</t>
+  </si>
+  <si>
     <t xml:space="preserve">At a remote lake house in the Adirondack Mountains, a couple entertains an out-of-town guest looking for inspiration in her filmmaking. The group quickly falls into a calculated game of desire, manipulation, and jealousy, unaware of how dangerously convoluted their lives will soon become in the filmmaker's pursuit of a work of art, which blurs the boundaries between autobiography and invention.</t>
   </si>
   <si>
-    <t xml:space="preserve"> woods, interracial kiss, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Tandem Pictures, Blue Creek Pictures, Oakhurst Entertainment      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 104 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Lawrence Michael Levine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aubrey Plaza, Sarah Gadon, Christopher Abbott, Lindsay Burdge </t>
+  </si>
+  <si>
     <t xml:space="preserve">Run</t>
   </si>
   <si>
+    <t xml:space="preserve">15,162</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chloe, a teenager who is confined to a wheelchair, is home schooled by her mother, However, her mother's strange behavior doesn't go unnoticed and when Chloe pries into some private papers, she discovers a Change of Name Certificate document with her mother's name, Diane Sherman, on it. When Chloe googles "Diane Sherman," the internet suddenly disconnnects. Chloe becomes suspicious of all that her mother does, suspecting her of something sinister. She decides to go on the run in her wheelchair in a desperate attempt to get away from her.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mother daughter relationship, villainess, female antagonist, munchausen syndrome by proxy, camera shot from inside a refrigerator, </t>
   </si>
   <si>
     <t xml:space="preserve"> Horror, Mystery, Thriller</t>
@@ -516,123 +557,129 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Lionsgate      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 90 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Aneesh Chaganty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarah Paulson, Kiera Allen, Sara Sohn, Pat Healy </t>
+  </si>
+  <si>
     <t xml:space="preserve">Monster Hunter</t>
   </si>
   <si>
+    <t xml:space="preserve">1,056</t>
+  </si>
+  <si>
     <t xml:space="preserve">When Lt. Artemis and her loyal soldiers are transported to a new world, they engage in a desperate battle for survival against enormous enemies with incredible powers. Feature film based on the video game by Capcom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> based on video game, two word title, parallel world, soldier, female soldier, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> China , Germany , Japan , USA </t>
   </si>
   <si>
     <t xml:space="preserve"> 4,800,000        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Constantin Film, Impact Pictures, Capcom Company      
-        </t>
+    <t xml:space="preserve"> Paul W.S. Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Milla Jovovich, Tony Jaa, T.I., Meagan Good </t>
   </si>
   <si>
     <t xml:space="preserve">Let Them All Talk</t>
   </si>
   <si>
+    <t xml:space="preserve"> 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,887</t>
+  </si>
+  <si>
     <t xml:space="preserve">A famous author goes on a cruise trip with her friends and nephew in an effort to find fun and happiness while she comes to terms with her troubled past.</t>
   </si>
   <si>
-    <t xml:space="preserve"> author, cruise, aunt, nephew, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Extension 765, HBO Films, LS Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 113 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Steven Soderbergh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meryl Streep, Gemma Chan, Dianne Wiest, Christopher Fitzgerald </t>
+  </si>
+  <si>
     <t xml:space="preserve">Call</t>
   </si>
   <si>
+    <t xml:space="preserve">8,663</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two people live in different times. Seo-Yeon lives in the present and Young-Sook lives in the past. One phone call connects the two, and their lives are changed irrevocably.</t>
   </si>
   <si>
-    <t xml:space="preserve"> time travel, present, police officer, police officer hacked, police officer killed, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Crime, Horror, Mystery, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> South Korea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Yong Film      
-        </t>
+    <t xml:space="preserve"> Chung-Hyun Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Park Shin-Hye, Jong-seo Jun, Sung-ryung Kim, El Lee </t>
   </si>
   <si>
     <t xml:space="preserve">Emma</t>
   </si>
   <si>
+    <t xml:space="preserve"> 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,832</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jane Austen's beloved comedy about finding your equal and earning your happy ending, is reimagined in this. Handsome, clever, and rich, Emma Woodhouse is a restless queen bee without rivals in her sleepy little town. In this glittering satire of social class and the pain of growing up, Emma must adventure through misguided matches and romantic missteps to find the love that has been there all along.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> regency, matchmaker, nineteenth century, female protagonist, female name as title, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UK </t>
   </si>
   <si>
     <t xml:space="preserve"> 26,287,085        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Working Title Films, Blueprint Pictures, Focus Features      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 124 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Autumn de Wilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anya Taylor-Joy, Johnny Flynn, Mia Goth, Angus Imrie </t>
+  </si>
+  <si>
     <t xml:space="preserve">Uncle Frank</t>
   </si>
   <si>
+    <t xml:space="preserve"> 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,193</t>
+  </si>
+  <si>
     <t xml:space="preserve">In 1973, when Frank Bledsoe and his 18-year-old niece Beth take a road trip from Manhattan to Creekville, South Carolina, for the family patriarch's funeral, they're unexpectedly joined by Frank's lover, Walid.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1970s, uncle niece relationship, gay couple relationship, jewish lesbian, gay muslim, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Amazon Studios, Miramax Films, Your Face Goes Here Entertainment      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 95 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Alan Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paul Bettany, Sophia Lillis, Peter Macdissi, Steve Zahn </t>
+  </si>
+  <si>
     <t xml:space="preserve">The 2nd</t>
   </si>
   <si>
+    <t xml:space="preserve">3,846</t>
+  </si>
+  <si>
     <t xml:space="preserve">Special forces agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> secret agent, electronic music score, 2020s, 2010s, ambiguous ending, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Drama</t>
@@ -642,378 +689,404 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Daniel Grodnik Productions, Fury Film Franchise, Lucid Film      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 93 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Brian Skiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Phillippe, Casper Van Dien, Jack Griffo, Lexi Simonsen </t>
+  </si>
+  <si>
     <t xml:space="preserve">365 Days</t>
   </si>
   <si>
+    <t xml:space="preserve">45,642</t>
+  </si>
+  <si>
     <t xml:space="preserve">Massimo Torricelli, a young and handsome boss of a Sicilian Mafia family, has no other option but to take over after his father has been assassinated. Laura is a sales director in a luxurious hotel in Warsaw. She has a successful career, but her private life lacks passion. She is taking one last shot to save her relationship. Together with her bone-headed boyfriend, Martin and some other friends, she takes a trip to Sicily. She does not expect that Massimo, the most dangerous man on the island, will get in her way, kidnap her, hold her captive and give her 365 days - to fall in love with him.</t>
   </si>
   <si>
-    <t xml:space="preserve"> oral sex, in love with kidnapper, male objectification, female bare butt, sex scene, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Poland </t>
   </si>
   <si>
     <t xml:space="preserve"> 9,458,590        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Ekipa, Future Space, Next Film      
+    <t xml:space="preserve"> 114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barbara Bialowas, Tomasz Mandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anna Maria Sieklucka, Michele Morrone, Bronislaw Wroclawski, Otar Saralidze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tessa has everything to lose. Hardin has nothing to lose. - except her. After We Collided - Life will never be the same. After a tumultuous beginning to their relationship, Tessa and Hardin were on the path to making things work. Tessa knew Hardin could be cruel, but when a bombshell revelation is dropped about the origins of their relationship - and Hardin's mysterious past - Tessa is beside herself. Hardin will always be - Hardin. But is he really the deep, thoughtful guy Tessa fell madly in love with despite his angry exterior - or has he been a stranger all along? She wishes she could walk away. It's just not that easy. Hardin knows he made a mistake, possibly the biggest one of his life. He's not going down without a fight. But can he change? Will he change - for love? Yes, yes he will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47,990,375        
         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 114 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Truth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tessa has everything to lose. Hardin has nothing to lose. - except her. After We Collided - Life will never be the same. After a tumultuous beginning to their relationship, Tessa and Hardin were on the path to making things work. Tessa knew Hardin could be cruel, but when a bombshell revelation is dropped about the origins of their relationship - and Hardin's mysterious past - Tessa is beside herself. Hardin will always be - Hardin. But is he really the deep, thoughtful guy Tessa fell madly in love with despite his angry exterior - or has he been a stranger all along? She wishes she could walk away. It's just not that easy. Hardin knows he made a mistake, possibly the biggest one of his life. He's not going down without a fight. But can he change? Will he change - for love? Yes, yes he will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sequel, boyfriend girlfriend sex, boyfriend girlfriend conflict, boyfriend girlfriend relationship, second part, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47,990,196        
+    <t xml:space="preserve"> 105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roger Kumble</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josephine Langford, Hero Fiennes Tiffin, Dylan Sprouse, Louise Lombard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Men: New Mutants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a near-death experience during a strange tornado, Danielle Moonstar awakens in an abandoned research facility run by the mysterious Dr Cecilia Reyes. There, Dr Reyes introduces Dani to four other equally uncommon teenagers: Illyana Rasputin, Rahne Sinclair, Sam Guthrie, and Roberto da Costa, who wants to keep them safe and sound until they learn how to be in full control of their extraordinary abilities. However, even though the exceptional team of traumatised inmates believes that they're being treated and cared for, before long, they all start to experience horrifying hallucinations. But, this institution was supposed to be a safe place. Are they patients or prisoners?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action, Horror, Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46,379,478        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- CalMaple, Frayed Pages Entertainment      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Men: New Mutants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After a near-death experience during a strange tornado, Danielle Moonstar awakens in an abandoned research facility run by the mysterious Dr Cecilia Reyes. There, Dr Reyes introduces Dani to four other equally uncommon teenagers: Illyana Rasputin, Rahne Sinclair, Sam Guthrie, and Roberto da Costa, who wants to keep them safe and sound until they learn how to be in full control of their extraordinary abilities. However, even though the exceptional team of traumatised inmates believes that they're being treated and cared for, before long, they all start to experience horrifying hallucinations. But, this institution was supposed to be a safe place. Are they patients or prisoners?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blonde, mutant, x men, based on comic book, leggy girl, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action, Horror, Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46,378,380        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 20th Century Studios, Marvel Entertainment, TSG Entertainment      
-        </t>
+    <t xml:space="preserve"> Josh Boone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maisie Williams, Anya Taylor-Joy, Charlie Heaton, Alice Braga </t>
   </si>
   <si>
     <t xml:space="preserve">What Lies Below</t>
   </si>
   <si>
+    <t xml:space="preserve">836</t>
+  </si>
+  <si>
     <t xml:space="preserve">A 16 year-old girl returns home from camp and learns that her mother has a new boyfriend, one she intends to marry; a man whose charm, intelligence and beauty make him look like he's not human at all.</t>
   </si>
   <si>
     <t xml:space="preserve"> Horror, Mystery, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- DRF Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 87 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Braden R. Duemmler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ema Horvath, Troy Iwata, Danny Corbo, Mena Suvari </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ammonite</t>
   </si>
   <si>
+    <t xml:space="preserve">2,997</t>
+  </si>
+  <si>
     <t xml:space="preserve">In 1840s England, acclaimed but overlooked fossil hunter Mary Anning (Kate Winslet) works alone on the rugged Southern coastline. With the days of her famed discoveries behind her, she now searches for common fossils to sell to tourists to support herself and her ailing mother. When a wealthy visitor entrusts Mary with the care of his wife Charlotte Murchison (Saoirse Ronan), she cannot afford to turn his offer down. Proud and relentlessly passionate about her work, Mary initially clashes with her unwelcome guest, but despite the distance between their social class and personalities, an intense bond begins to develop, compelling the two women to determine the true nature of their relationship.</t>
   </si>
   <si>
-    <t xml:space="preserve"> female scientist, lesbian romance, period drama, based on real person, lesbianism, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biography, Drama, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UK , Australia , USA </t>
   </si>
   <si>
     <t xml:space="preserve"> 160,930        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">See-Saw Films, British Film Institute (BFI), BBC Films</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 120 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Francis Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kate Winslet, Saoirse Ronan, Gemma Jones, James McArdle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Die fantastische Reise des Dr. Dolittle</t>
   </si>
   <si>
+    <t xml:space="preserve"> 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,462</t>
+  </si>
+  <si>
     <t xml:space="preserve">After his wife's death, Dr. John Dolittle (Robert Downey, Jr.) decided to hide from the world with his beloved animals. But he has to take a journey to a mysterious island to find a healing tree, which is the only medicine that can help the dying Queen Victoria (Jessie Buckley) in Buckingham Palace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> woke, live action cgi hybrid, ship, voyage, queen victoria, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , China , UK , Japan </t>
   </si>
   <si>
     <t xml:space="preserve"> 246,073,367        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Universal Pictures, Dentsu, Perfect World Pictures      
+    <t xml:space="preserve"> 101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stephen Gaghan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robert Downey Jr., Antonio Banderas, Michael Sheen, Jim Broadbent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let Him Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A retired sheriff and his wife, grieving over the death of their son, set out to find their only grandson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crime, Drama, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10,144,145        
         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 101 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let Him Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A retired sheriff and his wife, grieving over the death of their son, set out to find their only grandson.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> death, husband wife relationship, sheriff, retired, grief, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime, Drama, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10,136,930        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Mazur / Kaplan Company      
-        </t>
+    <t xml:space="preserve"> Thomas Bezucha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diane Lane, Kevin Costner, Lesley Manville, Kayli Carter </t>
   </si>
   <si>
     <t xml:space="preserve">Monsters of Man</t>
   </si>
   <si>
+    <t xml:space="preserve">1,279</t>
+  </si>
+  <si>
     <t xml:space="preserve">A robotics company teams up with a corrupt CIA agent undergoing an illegal, unsanctioned military operation. Dropping four prototype robots into a suspected drug manufacturing camp in the Golden triangle that no one will miss. The mission is to prove the robotics company is worthy of winning a lucrative military contract. Six doctors on a good cause witness the brutal slaughter of an innocent village and are forced into a deadly game of cat and mouse as they become the new targets.</t>
   </si>
   <si>
-    <t xml:space="preserve"> australian robots, australian horror, australian science fiction, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> Australia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- MRT Films Pty Ltd, Hanuman Films, 11:11 Entertainment      
-        </t>
+    <t xml:space="preserve"> Mark Toia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neal McDonough, Brett Tutor, Jose Rosete, David Haverty </t>
   </si>
   <si>
     <t xml:space="preserve">The Trial of the Chicago 7</t>
   </si>
   <si>
+    <t xml:space="preserve"> 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,051</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Chicago 1968, the Democratic Party Convention was met with protests from activists like the moderate Students for a Democratic Society led by Tom Hayden and the militant Yippies led by Abbie Hoffman and Jerry Rubin, which led to violent confrontations with the local authorities. As a result, seven of the accused ringleaders are arraigned on charges like Conspiracy by the hostile Nixon administration, including Bobby Seale of the Black Panthers who was not involved in the incident. What follows is an unfair trial presided by the belligerent Judge Hoffman (No relation) and prosecuted by a reluctant but duty-bound Richard Schultz. As their pro bono lawyers face such odds, Hayden and his fellows are frustrated by the Yippies' outrageous antics undermining their defense in defiance of the system even while Seale is denied a chance to defend himself his way. Along the way, the Chicago 7 clash in their political philosophies even as they learn they need each other in this fight.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1960s, black panther party, chicago illinois, chicago 7, activism, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, History, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , UK , India </t>
   </si>
   <si>
     <t xml:space="preserve"> 24,357        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Dreamworks Pictures, Amblin Partners, Aperture Media Partners      
+    <t xml:space="preserve"> 129 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Sorkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eddie Redmayne, Alex Sharp, Sacha Baron Cohen, Jeremy Strong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promising Young Woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young woman, traumatized by a tragic event in her past, seeks out vengeance against those who cross her path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy, Crime, Drama, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emerald Fennell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carey Mulligan, Bo Burnham, Laverne Cox, Alison Brie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Mountain Thyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Patrick Shanley, who created the classic MOONSTRUCK, brings his sweeping romantic vision to Ireland with Wild Mountain Thyme. The headstrong farmer Rosemary Muldoon (Emily Blunt) has her heart set on winning her neighbor Anthony Reilly's love. The problem is Anthony (Jamie Dornan) seems to have inherited a family curse, and remains oblivious to his beautiful admirer. Stung by his father Tony's (Christopher Walken) plans to sell the family farm to his American nephew (Jon Hamm), Anthony is jolted into pursuing his dreams in this comedic, moving and wildly romantic tale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106,569        
         </t>
   </si>
   <si>
-    <t xml:space="preserve"> 129 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promising Young Woman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A young woman, traumatized by a tragic event in her past, seeks out vengeance against those who cross her path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> title directed by female, title produced by female, revenge, gender in title, f rated, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy, Crime, Drama, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- FilmNation Entertainment, Focus Features, LuckyChap Entertainment      
+    <t xml:space="preserve"> John Patrick Shanley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emily Blunt, Jamie Dornan, Jon Hamm, Christopher Walken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Songbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2024 a pandemic ravages the world and its cities. Centering on a handful of people as they navigate the obstacles currently hindering society: disease, martial law, quarantine, and vigilantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy, Drama, Romance, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K.J. Apa, Sofia Carson, Craig Robinson, Bradley Whitford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Your Woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this 1970s set crime drama, a woman is forced to go on the run after her husband betrays his partners, sending her and her baby on a dangerous journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crime, Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julia Hart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rachel Brosnahan, Marsha Stephanie Blake, Arinzé Kene, Jameson Charles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Croods - Alles auf Anfang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prehistoric family the Croods are challenged by a rival family the Bettermans, who claim to be better and more evolved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76,782,010        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">Wild Mountain Thyme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Patrick Shanley, who created the classic MOONSTRUCK, brings his sweeping romantic vision to Ireland with Wild Mountain Thyme. The headstrong farmer Rosemary Muldoon (Emily Blunt) has her heart set on winning her neighbor Anthony Reilly's love. The problem is Anthony (Jamie Dornan) seems to have inherited a family curse, and remains oblivious to his beautiful admirer. Stung by his father Tony's (Christopher Walken) plans to sell the family farm to his American nephew (Jon Hamm), Anthony is jolted into pursuing his dreams in this comedic, moving and wildly romantic tale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> land, screenplay adapted by author, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ireland , UK </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95,360        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Amasia Entertainment, Aperture Media Partners, Likely Story      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Songbird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2024 a pandemic ravages the world and its cities. Centering on a handful of people as they navigate the obstacles currently hindering society: disease, martial law, quarantine, and vigilantes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> reference to the coronavirus, 2020, older man younger woman kiss, older man younger woman affair, produced by michael bay, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy, Drama, Romance, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- STX Films, Invisible Narratives, Platinum Dunes      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm Your Woman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this 1970s set crime drama, a woman is forced to go on the run after her husband betrays his partners, sending her and her baby on a dangerous journey.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blonde, blonde hair, blonde woman, blonde female, woman with blonde hair, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime, Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Big Indie Pictures, Original Headquarters, Scrap Paper Pictures      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Croods - Alles auf Anfang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The prehistoric family the Croods are challenged by a rival family the Bettermans, who claim to be better and more evolved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> second part, caveman, sidekick, teen romance, fire, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76,631,640        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- DreamWorks Animation      
-        </t>
+    <t xml:space="preserve"> Joel Crawford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicolas Cage, Emma Stone, Ryan Reynolds, Catherine Keener </t>
   </si>
   <si>
     <t xml:space="preserve">Possessor</t>
   </si>
   <si>
+    <t xml:space="preserve"> 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,339</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tasya Vos is a corporate agent who uses brain-implant technology to inhabit other people's bodies, driving them to commit assassinations for the benefit of the company. While she has a special gift for the work, her experiences on these jobs have caused a dramatic change in her, and in her own life she struggles to suppress violent memories and urges. As her mental strain intensifies, she begins to lose control, and soon she finds herself trapped in the mind of a man whose identity threatens to obliterate her own.</t>
   </si>
   <si>
-    <t xml:space="preserve"> male nudity, male frontal nudity, male rear nudity, female frontal nudity, female nudity, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Horror, Sci-Fi, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canada , UK </t>
   </si>
   <si>
     <t xml:space="preserve"> 883,546        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Rhombus Media, Rook Films, Particular Crowd      
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Handwerk des Teufels</t>
+    <t xml:space="preserve"> Brandon Cronenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrea Riseborough, Christopher Abbott, Jennifer Jason Leigh, Rossif Sutherland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Devil All the Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,631</t>
   </si>
   <si>
     <t xml:space="preserve">Set in rural southern Ohio and West Virginia, The Devil All the Time follows a cast of compelling and bizarre characters from the end of World War II to the 1960s. There's Willard Russell, tormented veteran of the carnage in the South Pacific, who can't save his beautiful wife, Charlotte, from an agonizing death by cancer no matter how much sacrificial blood he pours on his "prayer log." There's Carl and Sandy Henderson, a husband-and-wife team of serial killers, who troll America's highways searching for suitable models to photograph and exterminate. There's the spider-handling preacher Roy and his crippled virtuoso-guitar-playing sidekick, Theodore, running from the law. And caught in the middle of all this is Arvin Eugene Russell, Willard and Charlotte's orphaned son, who grows up to be a good but also violent man in his own right.</t>
   </si>
   <si>
-    <t xml:space="preserve"> male full frontal nudity, neo noir, male rear nudity, evil, post war, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Bronx Moving Co., Nine Stories Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 138 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Antonio Campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Donald Ray Pollock, Bill Skarsgård, Tom Holland, Michael Banks Repeta </t>
+  </si>
+  <si>
     <t xml:space="preserve">Enola Holmes</t>
   </si>
   <si>
+    <t xml:space="preserve">111,864</t>
+  </si>
+  <si>
     <t xml:space="preserve">England, 1884 - a world on the brink of change. On the morning of her 16th birthday, Enola Holmes (Millie Bobby Brown) wakes to find that her mother (Helena Bonham Carter) has disappeared, leaving behind an odd assortment of gifts but no apparent clue as to where she's gone or why. After a free-spirited childhood, Enola suddenly finds herself under the care of her brothers Sherlock (Henry Cavill) and Mycroft (Sam Claflin), both set on sending her away to a finishing school for "proper" young ladies. Refusing to follow their wishes, Enola escapes to search for her mother in London. But when her journey finds her entangled in a mystery surrounding a young runaway Lord (Louis Partridge), Enola becomes a super-sleuth in her own right, outwitting her famous brother as she unravels a conspiracy that threatens to set back the course of history.</t>
   </si>
   <si>
-    <t xml:space="preserve"> runaway, breaking the fourth wall, train, detective, amateur detective, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Adventure, Crime, Drama, Mystery</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix, Legendary Entertainment, PCMA Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 123 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Harry Bradbeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Millie Bobby Brown, Henry Cavill, Sam Claflin, Helena Bonham Carter </t>
+  </si>
+  <si>
     <t xml:space="preserve">Unhinged - Außer Kontrolle</t>
   </si>
   <si>
+    <t xml:space="preserve">26,374</t>
+  </si>
+  <si>
     <t xml:space="preserve">Academy Award winner Russell Crowe stars in Unhinged, a psychological thriller that takes something we've all experienced- road rage - to an unpredictable and terrifying conclusion. Rachel (Caren Pistorius) is running late getting to work when she crosses paths with a stranger (Crowe) at a traffic light. Soon, Rachel finds herself and everyone she loves the target of a man who feels invisible and is looking to make one last mark upon the world by teaching her a series of deadly lessons. What follows is a dangerous game of cat and mouse that proves you never know who you're driving next to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scissors, stabbing, car chase, female vomiting, vomiting, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Thriller</t>
@@ -1023,18 +1096,19 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Burek Films, Ingenious, Solstice Studios      
-        </t>
+    <t xml:space="preserve"> Derrick Borte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russell Crowe, Caren Pistorius, Gabriel Bateman, Jimmi Simpson </t>
   </si>
   <si>
     <t xml:space="preserve">Archenemy</t>
   </si>
   <si>
+    <t xml:space="preserve">552</t>
+  </si>
+  <si>
     <t xml:space="preserve">Max Fist claims to be a hero from another dimension who fell through time and space to earth, where he has no powers. No one believes his stories except for a local teen named Hamster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hero, one word title, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Adventure</t>
@@ -1044,242 +1118,257 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- SpectreVision, Head Gear Films, Legion M      
-        </t>
+    <t xml:space="preserve"> Adam Egypt Mortimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica Allain, Luis Kelly-Duarte, Mac Brandt, Skylan Brooks </t>
   </si>
   <si>
     <t xml:space="preserve">Bruderherz</t>
   </si>
   <si>
+    <t xml:space="preserve"> 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">727</t>
+  </si>
+  <si>
     <t xml:space="preserve">The story of Ray-Ray McElrathbey, a freshman football player for Clemson University, who secretly raised his younger brother on campus after his home life became too unsteady.</t>
   </si>
   <si>
-    <t xml:space="preserve"> football, disney, disney plus, clemson tigers, college football, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biography, Drama, Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Select Films, The Walt Disney Company, Walt Disney Pictures      
-        </t>
+    <t xml:space="preserve"> Reginald Hudlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jay Reeves, Javien Jackson, Thaddeus J. Mixson, Corinne Foxx </t>
   </si>
   <si>
     <t xml:space="preserve">The Hunt</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,944</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Twelve strangers wake up in a clearing. They don't know where they are -- or how they got there. In the shadow of a dark internet conspiracy theory, ruthless elitists gather at a remote location to hunt humans for sport. But their master plan is about to be derailed when one of the hunted, Crystal, turns the tables on her pursuers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> gun, hunting humans, reference to animal farm the novel, satire, podcaster, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Horror, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Japan </t>
   </si>
   <si>
     <t xml:space="preserve"> 11,148,678        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Blumhouse Productions, Dentsu      
-        </t>
+    <t xml:space="preserve"> Craig Zobel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betty Gilpin, Hilary Swank, Ike Barinholtz, Wayne Duvall </t>
   </si>
   <si>
     <t xml:space="preserve">Hexen hexen</t>
   </si>
   <si>
+    <t xml:space="preserve">17,871</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimagining Roald Dahl's beloved story for a modern audience, Robert Zemeckis's visually innovative film tells the darkly humorous and heartwarming tale of a young orphaned boy who, in late 1967, goes to live with his loving Grandma in the rural Alabama town of Demopolis. As the boy and his grandmother encounter some deceptively glamorous but thoroughly diabolical witches, she wisely whisks him away to a seaside resort. Regrettably, they arrive at precisely the same time that the world's Grand High Witch has gathered her fellow cronies from around the globe-undercover-to carry out her nefarious plans. Zemeckis is joined by a world-class team of filmmakers, including Alfonso Cuarón, Guillermo del Toro and Kenya Barris. The cast includes powerhouse performances from Anne Hathaway, Octavia Spencer, Stanley Tucci, Kristin Chenoweth and Chris Rock, with newcomer Jahzir Kadeen Bruno as the brave young hero.</t>
   </si>
   <si>
-    <t xml:space="preserve"> witch, european literature on screen, remake of european film, remake of british film, african american, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy, Horror, Mystery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Mexico , UK </t>
   </si>
   <si>
     <t xml:space="preserve"> 22,100,000        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Warner Bros., ImageMovers, Canadian Film or Video Production Tax Credit (CPTC)      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 106 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Robert Zemeckis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anne Hathaway, Octavia Spencer, Stanley Tucci, Chris Rock </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Secret - Das Geheimnis</t>
   </si>
   <si>
+    <t xml:space="preserve"> 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,161</t>
+  </si>
+  <si>
     <t xml:space="preserve">Based on the groundbreaking best-selling book by Rhonda Byrne, The Secret: Dare to Dream follows Miranda (Katie Holmes), a young widow trying to make ends meet while raising her three children and dating her boyfriend (Jerry O'Connell). A devastating storm brings an enormous challenge and a mysterious man, Bray (Josh Lucas), into Miranda's life. Bray reignites the family's spirit but, unbeknownst to Miranda, also holds an important secret - one that will change everything. With its timeless messages of hope, compassion, and gratitude, The Secret: Dare to Dream is an inspiring and heartwarming film that shows how positive thoughts can transform our lives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hurricane, new orleans louisiana, fish buyer, boyfriend girlfriend relationship, restaurant manager, </t>
   </si>
   <si>
     <t xml:space="preserve"> 3,181,806        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- TRI G, Savvy Media Holdings, Covert Media      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 107 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Andy Tennant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Katie Holmes, Josh Lucas, Celia Weston, Jerry O'Connell </t>
+  </si>
+  <si>
     <t xml:space="preserve">Voces - Die Stimmen</t>
   </si>
   <si>
+    <t xml:space="preserve">5,832</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniel, Sara and their only son Eric are a happy family that move to an old house in the country. Working as home restaurateurs, Daniel and Sara plans for restoring and sale the house after the job be done change drastically when the own Eric is found dead in the pool close to the house. Broken by the pain, Sara moves to her parents for a days after a strong discussion with him, while Daniel keeps alone in the house. However, at the next night Daniel tapes Eric's voice in his cell phone when he was sending an audio message to apologize Sara. Looking for answers, Daniel meets Germán Redondo, a veteran and renowned writer and supernatural investigator specialized in electronic voice phenomena. Traveling to the house with his daughter Ruth, Germán analyzes Daniel's audio message, installing infrared cameras hoping to find any kind of ghostly activity, while at the same time Ruth tries get closer to her father, still affected by the suicide of his wife (Ruth's mother) happened years ago. ...</t>
   </si>
   <si>
-    <t xml:space="preserve"> house, haunted house, old house, night, pool, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Horror, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spain </t>
   </si>
   <si>
     <t xml:space="preserve"> 443,458        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Estudio v, Estudio v, Feelgood      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 97 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Ángel Gómez Hernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rodolfo Sancho, Ana Fernández, Ramón Barea, Belén Fabra </t>
+  </si>
+  <si>
     <t xml:space="preserve">Die unglaubliche Geschichte der Roseninsel</t>
   </si>
   <si>
+    <t xml:space="preserve">3,117</t>
+  </si>
+  <si>
     <t xml:space="preserve">In 1968, engineer Giorgio Rosa established the independent state called "The Isle of Roses" off the coast of Rimini, built on a platform outside the territorial waters, with Esperanto as the official language. The Italian authorities did not take it well because the micro nation was seen as an expedient to not pay taxes on the revenues obtained thanks to the arrival of numerous tourists and curious people.</t>
   </si>
   <si>
-    <t xml:space="preserve"> based on actual events, rimini italy, what happened to epilogue, strasbourg france, year 1968, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adventure, Comedy, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> Italy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Groenlandia      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 117 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Sydney Sibilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matilda De Angelis, Tom Wlaschiha, Elio Germano, François Cluzet </t>
+  </si>
+  <si>
     <t xml:space="preserve">Life in a Year</t>
   </si>
   <si>
+    <t xml:space="preserve">2,039</t>
+  </si>
+  <si>
     <t xml:space="preserve">The movie follows 17-year-old Daryn who finds out that his girlfriend is dying. He sets out to give her an entire life in the last year she has left.</t>
   </si>
   <si>
-    <t xml:space="preserve"> girlfriend, blue green hair, pink hair, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Overbrook Entertainment      
-        </t>
+    <t xml:space="preserve"> Mitja Okorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cara Delevingne, Jaden Smith, Nia Long, Cuba Gooding Jr. </t>
   </si>
   <si>
     <t xml:space="preserve">Alles Gute kommt von oben</t>
   </si>
   <si>
+    <t xml:space="preserve">7,379</t>
+  </si>
+  <si>
     <t xml:space="preserve">Congressional aide Erica (Graham) forgoes family Christmas to travel at her boss's behest. At a beachside Air Force base, she clashes with Capt. Andrew Jantz (Ludwig), who knows her assignment is finding reasons to defund the facility.</t>
   </si>
   <si>
-    <t xml:space="preserve"> interracial love, military, christmas, boss, bare chested male, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Family, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix Studios      
-        </t>
+    <t xml:space="preserve"> Martin Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kat Graham, Alexander Ludwig, Trezzo Mahoro, Bethany Brown </t>
   </si>
   <si>
     <t xml:space="preserve">Borat: Anschluss Moviefilm</t>
   </si>
   <si>
+    <t xml:space="preserve">94,877</t>
+  </si>
+  <si>
     <t xml:space="preserve">Follow-up film to the 2006 comedy centering on the real-life adventures of a fictional Kazakh television journalist named Borat.</t>
   </si>
   <si>
-    <t xml:space="preserve"> making fun of americans, disguise, father daughter relationship, covid 19, coronavirus, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Amazon Studios, Four by Two Films      
-        </t>
+    <t xml:space="preserve"> Jason Woliner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sacha Baron Cohen, Maria Bakalova, Tom Hanks, Dani Popescu </t>
   </si>
   <si>
     <t xml:space="preserve">Prinzessinnentausch: Wieder vertauscht</t>
   </si>
   <si>
+    <t xml:space="preserve">5,584</t>
+  </si>
+  <si>
     <t xml:space="preserve">When Duchess Margaret unexpectedly inherits the throne to Montenaro and hits a rough patch with Kevin, it's up to her double Stacy to save the day before a new lookalike, party girl Fiona foils their plans.</t>
   </si>
   <si>
-    <t xml:space="preserve"> party, royalty, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Drama, Family, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix, Motion Picture Corporation of America (MPCA), Brad Krevoy Television      
-        </t>
+    <t xml:space="preserve"> Mike Rohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Jack, Vanessa Hudgens, Sam Palladio, Mark Fleischmann </t>
   </si>
   <si>
     <t xml:space="preserve">Hamilton</t>
   </si>
   <si>
+    <t xml:space="preserve"> 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,271</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Hamilton" is the story of America then, told by America now. Featuring a score that blends hip-hop, jazz, R&amp;B, and show tunes, "Hamilton" has taken the story of American founding father Alexander Hamilton and created a revolutionary moment in theater--a musical that has had a profound impact on culture, politics, and education. Captured at the Richard Rodgers Theater on Broadway in June 2016, the film transports its audience into the world of the Broadway show in a uniquely intimate way.</t>
   </si>
   <si>
-    <t xml:space="preserve"> cultural appropriation, revolutionary war, hip hop, broadway musical, based on broadway musical, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biography, Drama, History, Musical</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Walt Disney Pictures, 5000 Broadway Productions, Nevis Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 160 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Thomas Kail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lin-Manuel Miranda, Phillipa Soo, Leslie Odom Jr., Renée Elise Goldsberry </t>
+  </si>
+  <si>
     <t xml:space="preserve">Superintelligence</t>
   </si>
   <si>
+    <t xml:space="preserve"> 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,067</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nothing extraordinary ever happens to Carol Peters, so when she starts getting snarky backtalk from her TV, phone and microwave, she thinks she's being punk'd. Or losing her mind. In fact, the world's first super-intelligence has selected her for observation, taking over her life with a bigger, more ominous plan to take over everything. Now Carol is humanity's last chance before this artificial intelligence-with-an-attitude decides to pull the plug.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> life, </t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy, Romance, Sci-Fi</t>
@@ -1289,18 +1378,22 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Creative Wealth Media Finance, New Line Cinema, On the Day      
-        </t>
+    <t xml:space="preserve"> Ben Falcone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melissa McCarthy, James Corden, Bobby Cannavale, Brian Tyree Henry </t>
   </si>
   <si>
     <t xml:space="preserve">Underwater - Es ist erwacht</t>
   </si>
   <si>
+    <t xml:space="preserve"> 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,650</t>
+  </si>
+  <si>
     <t xml:space="preserve">An unknown, massive earthquake happens in a drilling station in the bottom of the Marianna Trench. A scientific crew must find their way across the ocean floor into another station under the threats of deep pressure, dark water, dangerous deep-sea creatures, and a constant lack of oxygen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sea monster, lovecraftian, researcher, comic relief, group of survivors, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Horror, Sci-Fi, Thriller</t>
@@ -1310,181 +1403,193 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- 20th Century Fox Film Corporation, Chernin Entertainment, TSG Entertainment      
-        </t>
+    <t xml:space="preserve"> William Eubank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristen Stewart, Vincent Cassel, Mamoudou Athie, T.J. Miller </t>
   </si>
   <si>
     <t xml:space="preserve">Neues aus der Welt</t>
   </si>
   <si>
+    <t xml:space="preserve">25,573</t>
+  </si>
+  <si>
     <t xml:space="preserve">Five years after the end of the Civil War, Captain Jefferson Kyle Kidd (Tom Hanks), a veteran of three wars, now moves from town to town as a non-fiction storyteller, sharing the news of presidents and queens, glorious feuds, devastating catastrophes, and gripping adventures from the far reaches of the globe. On the plains of Texas, he crosses paths with Johanna (Helena Zengel), a 10-year-old taken in by the Kiowa people six years earlier and raised as one of their own. Johanna, hostile to a world she's never experienced, is being returned to her biological aunt and uncle against her will. Kidd agrees to deliver the child where the law says she belongs. As they travel hundreds of miles into the unforgiving wilderness, the two will face tremendous challenges of both human and natural forces as they search for a place that either can call home.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1800s, rescue, wild west, cowboy, spaghetti western, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Adventure, Drama, Western</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Perfect World Pictures, Playtone, Pretty Pictures      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 118 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Paul Greengrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom Hanks, Elizabeth Marvel, Ray McKinnon, Mare Winningham </t>
+  </si>
+  <si>
     <t xml:space="preserve">Rebecca</t>
   </si>
   <si>
+    <t xml:space="preserve">537</t>
+  </si>
+  <si>
     <t xml:space="preserve">After a whirlwind romance in Monte Carlo with handsome widower Maxim de Winter (Armie Hammer), a newly married young woman (Lily James) arrives at Manderley, her new husband's imposing family estate on a windswept English coast. Naive and inexperienced, she begins to settle into the trappings of her new life, but finds herself battling the shadow of Maxim's first wife, the elegant and urbane Rebecca, whose haunting legacy is kept alive by Manderley's sinister housekeeper Mrs. Danvers (Kristin Scott Thomas).</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20th century literature on screen, widower, mansion, hotel, orphan, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Mystery, Romance, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix, Working Title Films      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 121 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Ben Wheatley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lily James, Armie Hammer, Kristin Scott Thomas, Keeley Hawes </t>
+  </si>
+  <si>
     <t xml:space="preserve">Soul</t>
   </si>
   <si>
+    <t xml:space="preserve"> 88</t>
+  </si>
+  <si>
     <t xml:space="preserve">A musician who has lost his passion for music is transported out of his body and must find his way back with the help of an infant soul learning about herself.</t>
   </si>
   <si>
-    <t xml:space="preserve"> cgi animation, firework, fireworks, computer animation, cannes 2020, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy, Music</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Walt Disney Pictures, Pixar Animation Studios      
-        </t>
+    <t xml:space="preserve"> Pete Docter, Kemp Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jamie Foxx, Tina Fey, Graham Norton, Rachel House </t>
   </si>
   <si>
     <t xml:space="preserve">9 Kere Leyla</t>
   </si>
   <si>
+    <t xml:space="preserve">5,328</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leyla and Adam have had a happy marriage for years. However, after a while, their marriage becomes a dead end. The excitement in their marriage is now gone, and Adam falls into a love that causes his heart to beat again. Adem, who falls in love with the woman named Nergis who comes across this period, cannot think of anyone other than Nergis. However, Nergis, who took the mind of Adam, has no intention of moving to another life from the one-man world he founded.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Turkey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- BKM, Contact Film Works      
-        </t>
+    <t xml:space="preserve"> Ezel Akay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haluk Bilginer, Demet Akbag, Elçin Sangu, Firat Tanis </t>
   </si>
   <si>
     <t xml:space="preserve">I'm Thinking of Ending Things</t>
   </si>
   <si>
+    <t xml:space="preserve"> 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,172</t>
+  </si>
+  <si>
     <t xml:space="preserve">Despite second thoughts about their relationship, a young woman (Jessie Buckley) takes a road trip with her new boyfriend (Jesse Plemons) to his family farm. Trapped at the farm during a snowstorm with Jake's mother (Toni Collette) and father (David Thewlis), the young woman begins to question the nature of everything she knew or understood about her boyfriend, herself, and the world. An exploration of regret, longing and the fragility of the human spirit, I'M THINKING OF ENDING THINGS is directed and written by Academy Award® winner Charlie Kaufman (Eternal Sunshine of the Spotless Mind). Inspired by Iain Reid's bestselling namesake novel.</t>
   </si>
   <si>
-    <t xml:space="preserve"> winter, dementia, road trip, crying woman, stuttering, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Likely Story, Projective Testing Service      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 134 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Charlie Kaufman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesse Plemons, Jessie Buckley, Toni Collette, David Thewlis </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wolfwalkers</t>
   </si>
   <si>
+    <t xml:space="preserve"> 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,486</t>
+  </si>
+  <si>
     <t xml:space="preserve">In a time of superstition and magic, when wolves are seen as demonic and nature an evil to be tamed, a young apprentice hunter, ROBYN, comes to Ireland with her father to wipe out the last pack. But when Robyn saves a wild native girl, MEBH, their friendship leads her to discover the world of the WOLFWALKERS and transform her into the very thing her father is tasked to destroy.</t>
   </si>
   <si>
-    <t xml:space="preserve"> father daughter relationship, family relationships, one word title, friendship, friend, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Animation, Adventure, Family, Fantasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ireland , Luxembourg , France , Denmark , USA , UK </t>
   </si>
   <si>
     <t xml:space="preserve"> 171,900        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Apple Original Films, Cartoon Saloon, Mélusine Productions      
-        </t>
+    <t xml:space="preserve"> Tomm Moore, Ross Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honor Kneafsey, Eva Whittaker, Sean Bean, Simon McBurney </t>
   </si>
   <si>
     <t xml:space="preserve">Der Unsichtbare</t>
   </si>
   <si>
+    <t xml:space="preserve">155,006</t>
+  </si>
+  <si>
     <t xml:space="preserve">The film follows Cecilia, who receives the news of her abusive ex-boyfriend's suicide. She begins to re-build her life for the better. However, her sense of reality is put into question when she begins to suspect her deceased lover is not actually dead.</t>
   </si>
   <si>
-    <t xml:space="preserve"> domestic abuse, psychological abuse, throat slitting, invisibility, mad scientist, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Horror, Mystery, Sci-Fi, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canada , Australia , USA </t>
   </si>
   <si>
     <t xml:space="preserve"> 142,803,000        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Universal Pictures, Blumhouse Productions, Goalpost Pictures      
-        </t>
+    <t xml:space="preserve"> Leigh Whannell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elisabeth Moss, Oliver Jackson-Cohen, Harriet Dyer, Aldis Hodge </t>
   </si>
   <si>
     <t xml:space="preserve">Sputnik</t>
   </si>
   <si>
+    <t xml:space="preserve"> 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,959</t>
+  </si>
+  <si>
     <t xml:space="preserve">At the height of the Cold War, a Soviet spacecraft crash lands after a mission gone awry, leaving the commander as its only survivor. After a renowned Russian psychologist is brought in to evaluate the commander's mental state, it becomes clear that something dangerous may have come back to Earth with him.</t>
   </si>
   <si>
-    <t xml:space="preserve"> spaceship, female protagonist, monster, creature, scientist, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Horror, Sci-Fi, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Russia </t>
   </si>
   <si>
     <t xml:space="preserve"> 307,062        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Art Pictures Studio, Fond kino, Hype Film      
-        </t>
+    <t xml:space="preserve"> Egor Abramenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oksana Akinshina, Fedor Bondarchuk, Pyotr Fyodorov, Anton Vasilev </t>
   </si>
   <si>
     <t xml:space="preserve">Monster Problems</t>
   </si>
   <si>
+    <t xml:space="preserve"> 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,375</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seven years after the Monsterpocalypse, Joel Dawson (Dylan O'Brien), along with the rest of humanity, has been living underground ever since giant creatures took control of the land. After reconnecting over radio with his high school girlfriend Aimee (Jessica Henwick), who is now 80 miles away at a coastal colony, Joel begins to fall for her again. As Joel realizes that there's nothing left for him underground, he decides against all logic to venture out to Aimee, despite all the dangerous monsters that stand in his way. The fun-filled and action-packed adventure also stars Michael Rooker and Ariana Greenblatt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> survival, apocalypse, crossbow, monsters, dog, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Adventure, Comedy</t>
@@ -1494,144 +1599,157 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Paramount Pictures, Entertainment One, 21 Laps Entertainment      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 109 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Michael Matthews</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dylan O'Brien, Jessica Henwick, Michael Rooker, Dan Ewing </t>
+  </si>
+  <si>
     <t xml:space="preserve">Jiu Jitsu</t>
   </si>
   <si>
+    <t xml:space="preserve"> 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,704</t>
+  </si>
+  <si>
     <t xml:space="preserve">When Jake Barnes, a master Jiu Jitsu fighter, refuses to face Brax, an indomitable alien creature, the future of humanity hangs in the balance. Injured and suffering from severe amnesia, Jake is captured by a military squad unequipped to fight the merciless intruder who has descended upon the planet. Jake is rescued by Wylie, and an ancient order of Jiu Jitsu fighters who must help him recover his memory and regain his strength in order to band together and defeat Brax in an epic battle that will determine the fate of mankind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> based on comic, martial arts, martial artist, alien, alien invasion, </t>
   </si>
   <si>
     <t xml:space="preserve"> 47,821        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Acme Rocket Fuel, Green Olive Films      
-        </t>
+    <t xml:space="preserve"> Dimitri Logothetis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alain Moussi, Nicolas Cage, Raymond Pinharry, Mary Makariou </t>
   </si>
   <si>
     <t xml:space="preserve">Palm Springs</t>
   </si>
   <si>
+    <t xml:space="preserve"> 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,761</t>
+  </si>
+  <si>
     <t xml:space="preserve">While stuck at a wedding in Palm Springs, Nyles (Andy Samberg) meets Sarah (Cristin Milioti), the maid of honor and family black sheep. After he rescues her from a disastrous toast, Sarah becomes drawn to Nyles and his offbeat nihilism. But when their impromptu tryst is thwarted by a surreal interruption, Sarah must join Nyles in embracing the idea that nothing really matters, and they begin wreaking spirited havoc on the wedding celebration.</t>
   </si>
   <si>
-    <t xml:space="preserve"> time loop, stuck in a time loop, day repeats itself, unable to die, deja vu, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Fantasy, Mystery, Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Hong Kong </t>
   </si>
   <si>
     <t xml:space="preserve"> 765,535        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Limelight, Sun Entertainment Culture, The Lonely Island      
-        </t>
+    <t xml:space="preserve"> Max Barbakow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andy Samberg, Cristin Milioti, J.K. Simmons, Peter Gallagher </t>
   </si>
   <si>
     <t xml:space="preserve">Bill &amp; Ted Face The Music</t>
   </si>
   <si>
+    <t xml:space="preserve"> 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,446</t>
+  </si>
+  <si>
     <t xml:space="preserve">Once told they'd save the universe during a time-traveling adventure, 2 would-be rockers from San Dimas, California find themselves as middle-aged dads still trying to crank out a hit song and fulfill their destiny.</t>
   </si>
   <si>
-    <t xml:space="preserve"> sequel, third part, station, character names in title, nostalgia, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adventure, Comedy, Music, Sci-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Canada , Italy </t>
   </si>
   <si>
     <t xml:space="preserve"> 6,258,081        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Hammerstone Studios, Dugan Entertainment, Many Rivers Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 91 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Dean Parisot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keanu Reeves, Alex Winter, Kristen Schaal, Samara Weaving </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ludo</t>
   </si>
   <si>
+    <t xml:space="preserve">23,408</t>
+  </si>
+  <si>
     <t xml:space="preserve">From a resurfaced sex tape to a rogue suitcase of money, four wildly different stories overlap at the whims of fate, chance and one eccentric criminal. Now these misfits, miscreants, lovers and losers are all unwitting pawns in this unpredictable game. The only way home? Keep playing.</t>
   </si>
   <si>
-    <t xml:space="preserve"> dark, must watch, netflix original, netflix original film, family friendly, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Comedy, Crime, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> India </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Anurag Basu Productions, T-Series Films      
-        </t>
+    <t xml:space="preserve"> Anurag Basu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pankaj Tripathi, Abhishek Bachchan, Rajkummar Rao, Fatima Sana Shaikh </t>
   </si>
   <si>
     <t xml:space="preserve">The Old Guard</t>
   </si>
   <si>
+    <t xml:space="preserve"> 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118,136</t>
+  </si>
+  <si>
     <t xml:space="preserve">Led by a warrior named Andy (Charlize Theron), a covert group of tight-knit mercenaries with a mysterious inability to die have fought to protect the mortal world for centuries. But when the team is recruited to take on an emergency mission and their extraordinary abilities are suddenly exposed, it's up to Andy and Nile (Kiki Layne), the newest soldier to join their ranks, to help the group eliminate the threat of those who seek to replicate and monetize their power by any means necessary.</t>
   </si>
   <si>
-    <t xml:space="preserve"> immortality, shared dream, based on comic, immortal, gay couple, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Adventure, Fantasy, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Netflix, Skydance Media, Denver and Delilah Productions      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 125 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Gina Prince-Bythewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charlize Theron, KiKi Layne, Matthias Schoenaerts, Marwan Kenzari </t>
+  </si>
+  <si>
     <t xml:space="preserve">La belva</t>
   </si>
   <si>
+    <t xml:space="preserve">2,586</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leonida Riva is a gloomy, solitary war veteran, once Captain of the Army's special forces. Life and work have driven Riva apart from his family. His eldest son, Mattia, has never forgiven him while his daughter, Teresa, loves him unconditionally. However, a tragic event will force Leonida to transform into something he thought he had long buried in the past.</t>
   </si>
   <si>
-    <t xml:space="preserve"> war veteran, rugby player, father daughter relationship, abducted daughter, post traumatic disorder, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Groenlandia, Warner Bros., Regione Lazio      
-        </t>
+    <t xml:space="preserve"> Ludovico Di Martino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fabrizio Gifuni, Lino Musella, Monica Piseddu, Andrea Pennacchi </t>
   </si>
   <si>
     <t xml:space="preserve">Birds of Prey: The Emancipation of Harley Quinn</t>
   </si>
   <si>
+    <t xml:space="preserve"> 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156,716</t>
+  </si>
+  <si>
     <t xml:space="preserve">A twisted tale told by Harley Quinn herself, when Gotham's most nefariously narcissistic villain, Roman Sionis, and his zealous right-hand, Zsasz, put a target on a young girl named Cass, the city is turned upside down looking for her. Harley, Huntress, Black Canary and Renee Montoya's paths collide, and the unlikely foursome have no choice but to team up to take Roman down.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> harley quinn character, reference to the joker, police, chase, roller derby, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Adventure, Comedy, Crime</t>
@@ -1641,35 +1759,43 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Clubhouse Pictures (II), DC Entertainment, Kroll &amp; Co. Entertainment      
-        </t>
+    <t xml:space="preserve"> Cathy Yan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Margot Robbie, Rosie Perez, Mary Elizabeth Winstead, Jurnee Smollett </t>
   </si>
   <si>
     <t xml:space="preserve">Durgamati: The Myth</t>
   </si>
   <si>
+    <t xml:space="preserve">2,773</t>
+  </si>
+  <si>
     <t xml:space="preserve">In the skulduggery world of politics and crime, an innocent Chanchal has to put all on the line to prove her innocence and bring justice to Shakti and the people that he loved so much. As she gets embroiled deep in a web of deceit, Chanchal must face powers both natural and supernatural to fulfil her destiny.</t>
   </si>
   <si>
     <t xml:space="preserve"> Horror, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Abundantia Entertainment, Cape of Good Films, T-Series      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 155 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Ashok G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bhumi Pednekar, Mahie Gill, Karan Kapadia, Arshad Warsi </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ghosts of War</t>
   </si>
   <si>
+    <t xml:space="preserve"> 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,180</t>
+  </si>
+  <si>
     <t xml:space="preserve">Follows five battle-hardened American soldiers assigned to hold a French Chateau near the end of World War II. Formerly occupied by the Nazi high command, this unexpected respite quickly descends into madness when they encounter a supernatural enemy far more terrifying than anything seen on the battlefield.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> world war two, spoiler simulation, family massacre, afghanistan war, wrathful, </t>
   </si>
   <si>
     <t xml:space="preserve"> Horror, Thriller, War</t>
@@ -1679,218 +1805,223 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Miscellaneous Entertainment      
-        </t>
+    <t xml:space="preserve"> Eric Bress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brenton Thwaites, Kyle Gallner, Alan Ritchson, Theo Rossi </t>
   </si>
   <si>
     <t xml:space="preserve">Ma Rainey's Black Bottom</t>
   </si>
   <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tensions and temperatures rise over the course of an afternoon recording session in 1920s Chicago as a band of musicians await trailblazing performer, the legendary "Mother of the Blues," Ma Rainey (Academy Award® winner Viola Davis). Late to the session, the fearless, fiery Ma engages in a battle of wills with her white manager and producer over control of her music. As the band waits in the studio's claustrophobic rehearsal room, ambitious trumpeter Levee (Chadwick Boseman) - who has an eye for Ma's girlfriend and is determined to stake his own claim on the music industry - spurs his fellow musicians into an eruption of stories revealing truths that will forever change the course of their lives. Adapted from two-time Pulitzer Prize winner August Wilson's play, MA RAINEY'S BLACK BOTTOM celebrates the transformative power of the blues and the artists who refuse to let society's prejudices dictate their worth. Directed by George C. Wolfe and adapted for the screen by Ruben ...</t>
   </si>
   <si>
-    <t xml:space="preserve"> agent, female protagonist, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Music</t>
   </si>
   <si>
+    <t xml:space="preserve"> George C. Wolfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viola Davis, Chadwick Boseman, Colman Domingo, Glynn Turman </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dolly Parton's Christmas on the Square</t>
   </si>
   <si>
+    <t xml:space="preserve">1,567</t>
+  </si>
+  <si>
     <t xml:space="preserve">An embittered "Scrooge" of a woman plans to sell her small town, regardless of the consequences to the people who live there.</t>
   </si>
   <si>
-    <t xml:space="preserve"> christmas, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comedy, Drama, Family, Musical</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Magnolia Hill Productions, Sandollar Productions, Warner Bros. Television      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 98 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Debbie Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dolly Parton, Jenifer Lewis, Josh Segarra, Jeanine Mason </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Wolf of Snow Hollow</t>
   </si>
   <si>
+    <t xml:space="preserve">6,713</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terror grips a small mountain town as bodies are discovered after each full moon. Losing sleep, raising a teenage daughter, and caring for his ailing father, officer Marshall struggles to remind himself there's no such thing as werewolves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mountain, snow, investigation, murder, serial killer, </t>
   </si>
   <si>
     <t xml:space="preserve"> 185,026        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Vanishing Angle, New Form      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 83 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Jim Cummings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jim Cummings, Riki Lindhome, Robert Forster, Chloe East </t>
+  </si>
+  <si>
     <t xml:space="preserve">Nomadland</t>
   </si>
   <si>
+    <t xml:space="preserve"> 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,329</t>
+  </si>
+  <si>
     <t xml:space="preserve">Following the economic collapse of a company town in rural Nevada, Fern (Frances McDormand) packs her van and sets off on the road exploring a life outside of conventional society as a modern-day nomad. The third feature film from director Chloé Zhao, NOMADLAND features real nomads Linda May, Swankie and Bob Wells as Fern's mentors and comrades in her exploration through the vast landscape of the American West.</t>
   </si>
   <si>
-    <t xml:space="preserve"> title directed by female, title written by female, f rated, female frontal nudity, female nudity, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Germany </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Cor Cordium Productions, Hear/Say Productions, Highwayman Films      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 108 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Chloé Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frances McDormand, Gay DeForest, Patricia Grier, Linda May </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tyler Rake: Extraction</t>
   </si>
   <si>
+    <t xml:space="preserve">152,075</t>
+  </si>
+  <si>
     <t xml:space="preserve">In an underworld of weapons dealers and traffickers, a young boy becomes the pawn in a war between notorious drug lords. Trapped by kidnappers inside one of the world's most impenetrable cities, his rescue beckons the unparalleled skill of a mercenary named Tyler Rake, but Rake is a broken man with nothing to lose, harboring a death wish that makes an already deadly mission near impossible.</t>
   </si>
   <si>
-    <t xml:space="preserve"> drug dealers, kidnapping, child kidnapping, f word, shot in the head, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Netflix, AGBO, T.G.I.M Films      
-        </t>
+    <t xml:space="preserve"> Sam Hargrave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Hemsworth, Bryon Lerum, Ryder Lerum, Rudhraksh Jaiswal </t>
   </si>
   <si>
     <t xml:space="preserve">Black Beauty</t>
   </si>
   <si>
+    <t xml:space="preserve">1,123</t>
+  </si>
+  <si>
     <t xml:space="preserve">A wild horse and a teenage girl forge an unbreakable bond which keeps them connected for a lifetime.</t>
   </si>
   <si>
-    <t xml:space="preserve"> girl horse relationship, mare, wild mustang, animal narrator, teenager, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drama, Family</t>
   </si>
   <si>
-    <t xml:space="preserve"> USA , UK , South Africa , Germany , France </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Bolt Pictures, Constantin Film Ltd., Moonlighting Films      
-        </t>
+    <t xml:space="preserve"> Ashley Avis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kate Winslet, Mackenzie Foy, Iain Glen, Calam Lynch </t>
   </si>
   <si>
     <t xml:space="preserve">Schon wieder Weihnachten</t>
   </si>
   <si>
+    <t xml:space="preserve">1,821</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stuck in a time loop where it's forever Christmas, a family man who hates the holiday starts to learn valuable lessons about what's important in life.</t>
   </si>
   <si>
-    <t xml:space="preserve"> christmas, christmas film, netflix original, christmas movie, rio de janeiro, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brazil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Camisa Listrada      
-        </t>
+    <t xml:space="preserve"> Roberto Santucci</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arianne Botelho, Louise Cardoso, José Rubens Chachá, Rodrigo Fagundes </t>
   </si>
   <si>
     <t xml:space="preserve">Wander Darkly</t>
   </si>
   <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
     <t xml:space="preserve">New parents Adrienne and Matteo are forced to reckon with trauma amidst their troubled relationship. They must revisit the memories of their past and unravel haunting truths in order to face their uncertain future.</t>
   </si>
   <si>
-    <t xml:space="preserve"> trauma, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 51 Entertainment, ShivHans Pictures      
-        </t>
+    <t xml:space="preserve"> Tara Miele</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diego Luna, Sienna Miller, Beth Grant, Vanessa Bayer </t>
   </si>
   <si>
     <t xml:space="preserve">Ruf der Wildnis</t>
   </si>
   <si>
+    <t xml:space="preserve">34,650</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Call of the Wild is a vibrant story of Buck, a big and kindhearted dog, a crossbreed between a St. Bernard and a Scotch Collie, whose carefree life of leisure was suddenly upset when he was stolen from his home in Santa Clara County, California and deported up north, to be sold in Skagway, Alaska, and taken further north, to Dawson City, Yukon, during the late 1890s Klondike Gold Rush, when strong sled dogs were in high demand. As a newcomer to the dog team delivery service - and not before long their front-runner - Buck, a dog like no other, who had been spoiled, and who had suffered, but he could not be broken, is having the time of his life. Forced to fight to survive, eventually taken by his last owner, John Thornton, to proximity of the Arctic Circle, somewhere between Yukon and Alaska, he progressively depends on his primal instincts, sheds the comforts of civilization and responds to "the call of the wild", as master of his own.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1890s, alaska, snow, based on novel, remake, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adventure, Drama, Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canada , USA , Portugal </t>
   </si>
   <si>
     <t xml:space="preserve"> 110,939,029        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- 20th Century Studios, 3 Arts Entertainment, Halon Entertainment      
-        </t>
+    <t xml:space="preserve"> Chris Sanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harrison Ford, Omar Sy, Cara Gee, Dan Stevens </t>
   </si>
   <si>
     <t xml:space="preserve">Bad Boys for Life</t>
   </si>
   <si>
+    <t xml:space="preserve">123,179</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marcus and Mike have to confront new issues (career changes and midlife crises), as they join the newly created elite team AMMO of the Miami police department to take down the ruthless Armando Armas, the vicious leader of a Miami drug cartel.</t>
   </si>
   <si>
-    <t xml:space="preserve"> buddy cop, buddy comedy, mexico city mexico, mexico, miami florida, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Comedy, Crime, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , Mexico </t>
   </si>
   <si>
     <t xml:space="preserve"> 426,505,244        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Columbia Pictures, 2.0 Entertainment, Don Simpson/Jerry Bruckheimer Films      
-        </t>
+    <t xml:space="preserve"> Adil El Arbi, Bilall Fallah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Will Smith, Martin Lawrence, Vanessa Hudgens, Alexander Ludwig </t>
   </si>
   <si>
     <t xml:space="preserve">Fatale</t>
   </si>
   <si>
+    <t xml:space="preserve">5,081</t>
+  </si>
+  <si>
     <t xml:space="preserve">After a one-night stand, a successful married man finds himself entangled in a cunning police detective's latest investigation.</t>
   </si>
   <si>
-    <t xml:space="preserve"> murder, lionsgate, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Hidden Empire Film Group      
-        </t>
+    <t xml:space="preserve"> Deon Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hilary Swank, Michael Ealy, Mike Colter, Kali Hawk </t>
   </si>
   <si>
     <t xml:space="preserve">Blumhouse's Der Hexenclub</t>
   </si>
   <si>
+    <t xml:space="preserve">61,553</t>
+  </si>
+  <si>
     <t xml:space="preserve">A group of high school students form a coven of witches. A sequel to the 1996 film, "The Craft".</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> witch, gay, closeted gay, transexual, bisexual, </t>
   </si>
   <si>
     <t xml:space="preserve"> Drama, Fantasy, Horror</t>
@@ -1900,29 +2031,28 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Blumhouse Productions, Columbia Pictures, Red Wagon Entertainment      
-        </t>
+    <t xml:space="preserve"> Zoe Lister-Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cailee Spaeny, Zoey Luna, Gideon Adlon, Lovie Simone </t>
   </si>
   <si>
     <t xml:space="preserve">Greyhound: Schlacht im Atlantik</t>
   </si>
   <si>
+    <t xml:space="preserve">808</t>
+  </si>
+  <si>
     <t xml:space="preserve">Based upon the novel "The Good Shepherd" by C S Forester, this is the thrilling story of an Allied convoy crossing the North Atlantic in 1942 as it faces relentless attack by a German submarine wolf pack. The leader of the convoy's destroyer screen is a US Navy commander making his first Atlantic crossing. The story focuses on the his command responsibility as he fights the cold, the relentless night, the brutal sea, and his deep fatigue as he chases down the attacking submarines in the deadly game of cat and mouse. The exciting story, a thrilling ride-along with the beleaguered captain, so deeply portrays the elements of battle command that for a long period of time the book was used as a text at the US Naval Academy.</t>
   </si>
   <si>
-    <t xml:space="preserve"> world war two, u boat, war at sea, naval convoy, battle of the atlantic, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Drama, History, War</t>
   </si>
   <si>
-    <t xml:space="preserve"> USA , Canada , China </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Sony Pictures Entertainment (SPE), Stage 6 Films, Bron Creative      
-        </t>
+    <t xml:space="preserve"> Aaron Schneider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom Hanks, Elisabeth Shue, Stephen Graham, Matt Helm </t>
   </si>
   <si>
     <t xml:space="preserve">Jumanji: Level One</t>
@@ -1934,62 +2064,62 @@
     <t xml:space="preserve"> Adventure</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Controlled Chaos Films      
-        </t>
+    <t xml:space="preserve"> Lance Kawas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robert Laenen, Heather Fairbanks, Adam DeFilippi, Justin Mane </t>
   </si>
   <si>
     <t xml:space="preserve">The Very Excellent Mr. Dundee</t>
   </si>
   <si>
+    <t xml:space="preserve">8,512</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aussie Icon Paul Hogan just wants the quiet life. He lives in Brentwood, California, happy in retirement, content doing the daily crossword and enjoying regular calls from Lucy, his delightful 10-year-old granddaughter in Sydney. So, when his agent drops by to tell him he'll be receiving a knighthood for services to comedy, he is less than impressed by this imposition and much to his agents' chagrin, turns down the offer. Paul attempts to return to his tranquil life but Lucy calls; she has excitedly told kids at her new school that granddad has been offered a Knighthood. They laughed at her. What? Paul realises he needs to get the Knighthood to help her salvage her reputation. After much begging and pleading, his agent reluctantly agrees to call the Palace. The Knighthood is back on. The next six weeks, however, see Hogan's brand totally trashed. Although he is always trying to do the right thing and salvage his quickly diminishing reputation, life is conspiring against him. He's ...</t>
   </si>
   <si>
-    <t xml:space="preserve"> reputation, australia, aussie, self parody, down under, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Australia , USA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Clock Sounds Productions Pty, Kathy Morgan International, Piccadilly Pictures      
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 88 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Dean Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luke Bracey, Mel Gibson, Chevy Chase, Jacob Elordi </t>
+  </si>
+  <si>
     <t xml:space="preserve">SpongeBob Schwammkopf: Eine schwammtastische Rettung</t>
   </si>
   <si>
+    <t xml:space="preserve">34,169</t>
+  </si>
+  <si>
     <t xml:space="preserve">Set before the events of the television series, SpongeBob goes on a trip to Kamp Koral and meets some new friends. However, when his pet snail Gary gets kidnapped by Poseidon and taken to the Lost City of Atlantic City, he and his new best friend Patrick must go on a rescue mission to save him from the dastardly plan of Poseidon before it is too late. The movie will also reveal the first time our beloved characters (as kids) met at Camp...a magical moment that brings meaning to the power of true friendship.</t>
   </si>
   <si>
-    <t xml:space="preserve"> spongebob squarepants character, sequel, computer animation, cgi animation, live action and animation, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA , South Korea </t>
   </si>
   <si>
     <t xml:space="preserve"> 4,810,790        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Paramount Animation, Nickelodeon Movies, Media Rights Capital (MRC)      
-        </t>
+    <t xml:space="preserve"> Tim Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tim Hill, Clancy Brown, Bill Fagerbakke, Rodger Bumpass </t>
   </si>
   <si>
     <t xml:space="preserve">Fantasy Island</t>
   </si>
   <si>
+    <t xml:space="preserve"> 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,164</t>
+  </si>
+  <si>
     <t xml:space="preserve">The enigmatic Mr. Roarke makes the secret dreams of his lucky guests come true at a luxurious but remote tropical resort. But when the fantasies turn into nightmares, the guests have to solve the island's mystery in order to escape with their lives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chest tattoo, gay character, beach party, island, revenge, </t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Adventure, Fantasy, Horror, Mystery, Thriller</t>
@@ -1999,9 +2129,10 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Columbia Pictures, Blumhouse Productions, Tower of Babble Entertainment      
-        </t>
+    <t xml:space="preserve"> Jeff Wadlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Peña, Maggie Q, Lucy Hale, Austin Stowell </t>
   </si>
   <si>
     <t xml:space="preserve">The Dark and the Wicked</t>
@@ -2017,104 +2148,101 @@
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- Traveling Picture Show Company (TPSC), Unbroken Pictures, Shotgun Shack Pictures      
-        </t>
+    <t xml:space="preserve"> Bryan Bertino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marin Ireland, Michael Abbott Jr., Julie Oliver-Touchstone, Lynn Andrews </t>
   </si>
   <si>
     <t xml:space="preserve">Die bunte Seite des Monds</t>
   </si>
   <si>
+    <t xml:space="preserve">9,408</t>
+  </si>
+  <si>
     <t xml:space="preserve">In this animated musical, a girl builds a rocket ship and blasts off, hoping to meet a mythical moon goddess.</t>
   </si>
   <si>
-    <t xml:space="preserve"> girl, true love, moon, mother daughter relationship, goddess, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy, Musical, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> China , USA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Glen Keane Productions, Janet Yang Productions, Netflix      
-        </t>
+    <t xml:space="preserve"> Glen Keane, John Kahrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glen Keane, Brycen Hall, Ruthie Ann Miles, John Cho </t>
   </si>
   <si>
     <t xml:space="preserve">Vanguard</t>
   </si>
   <si>
+    <t xml:space="preserve"> 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,737</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covert security company Vanguard is the last hope of survival for an accountant after he is targeted by the world's deadliest mercenary organization.</t>
   </si>
   <si>
-    <t xml:space="preserve"> survival, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> China </t>
   </si>
   <si>
     <t xml:space="preserve"> 50,573,786        
         </t>
   </si>
   <si>
-    <t xml:space="preserve">
- China Film (Shanghai) International Media Co., China Film Group Corporation (CFGC), Epitome Capital      
-        </t>
+    <t xml:space="preserve"> Stanley Tong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jackie Chan, Yang Yang, Lun Ai, Miya Muqi </t>
   </si>
   <si>
     <t xml:space="preserve">Torbaaz</t>
   </si>
   <si>
+    <t xml:space="preserve">1,177</t>
+  </si>
+  <si>
     <t xml:space="preserve">A man rises from personal tragedy to lead a group of children from a refugee camp to victory, transforming their lives through the game of cricket.</t>
   </si>
   <si>
     <t xml:space="preserve"> Action, Drama, Sport, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Clapstem Entertainment, Rahul Mittra Films, Wave Cinemas      
-        </t>
+    <t xml:space="preserve"> Girish Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanjay Dutt, Nargis Fakhri, Rahul Dev, Babrak Akbari </t>
   </si>
   <si>
     <t xml:space="preserve">His House</t>
   </si>
   <si>
+    <t xml:space="preserve">17,488</t>
+  </si>
+  <si>
     <t xml:space="preserve">A refugee couple makes a harrowing escape from war-torn South Sudan, but then they struggle to adjust to their new life in an English town that has an evil lurking beneath the surface.</t>
   </si>
   <si>
-    <t xml:space="preserve"> escape, haunted, refugees, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Regency Enterprizes, BBC Films, New Regency Productions      
-        </t>
+    <t xml:space="preserve"> Remi Weekes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sope Dirisu, Wunmi Mosaku, Malaika Wakoli-Abigaba, Matt Smith </t>
   </si>
   <si>
     <t xml:space="preserve">Free Guy</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">A bank teller discovers that he's actually an NPC inside a brutal, open world video game.</t>
   </si>
   <si>
-    <t xml:space="preserve"> bank robbery, gamers, two word title, virtual reality, heroic, </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Action, Adventure, Comedy, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> USA , Canada , Japan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 20th Century Studios, 21 Laps Entertainment, Berlanti Productions      
-        </t>
+    <t xml:space="preserve"> Shawn Levy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taika Waititi, Ryan Reynolds, Jodie Comer, Utkarsh Ambudkar </t>
   </si>
 </sst>
 </file>
@@ -2474,2778 +2602,3330 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.6</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.3</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6"/>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.1</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7"/>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.2</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.7</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10"/>
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.4</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.7</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.2</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14"/>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.5</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" t="s">
-        <v>113</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16"/>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.9</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="s">
-        <v>126</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18"/>
       <c r="I18"/>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>130</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19" t="s">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19"/>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.1</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
-        <v>138</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20"/>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.5</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" t="s">
-        <v>143</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21"/>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.7</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" t="s">
-        <v>154</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>159</v>
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.1</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24" t="s">
-        <v>162</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24"/>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" t="s">
-        <v>166</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25" t="s">
-        <v>169</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25"/>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.7</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>176</v>
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>178</v>
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.2</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" t="s">
-        <v>180</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27"/>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" t="s">
-        <v>184</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D28"/>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>198</v>
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>204</v>
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.3</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>155</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>210</v>
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.5</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>212</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32"/>
       <c r="I32" t="s">
-        <v>213</v>
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>215</v>
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.4</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>223</v>
+        <v>12</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.6</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.7</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="J35" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" t="s">
-        <v>237</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D36"/>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" t="s">
-        <v>240</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36"/>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>242</v>
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.8</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>250</v>
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.4</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" t="s">
-        <v>253</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>297</v>
+      </c>
+      <c r="H38"/>
       <c r="I38" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>255</v>
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.5</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>261</v>
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.3</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
-        <v>264</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40"/>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="J40" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>266</v>
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.1</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" t="s">
-        <v>269</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="G41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41"/>
       <c r="I41" t="s">
-        <v>221</v>
+        <v>259</v>
+      </c>
+      <c r="J41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>271</v>
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.1</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G42" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="H42" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J42" t="s">
+        <v>323</v>
+      </c>
+      <c r="K42" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>277</v>
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.4</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="E43" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="I43" t="s">
-        <v>139</v>
+        <v>163</v>
+      </c>
+      <c r="J43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K43" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>284</v>
+        <v>12</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.1</v>
       </c>
       <c r="D44" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" t="s">
-        <v>286</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G44" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44"/>
       <c r="I44" t="s">
-        <v>287</v>
+        <v>337</v>
+      </c>
+      <c r="J44" t="s">
+        <v>338</v>
+      </c>
+      <c r="K44" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>289</v>
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.6</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45" t="s">
-        <v>292</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G45" t="s">
+        <v>343</v>
+      </c>
+      <c r="H45"/>
       <c r="I45" t="s">
-        <v>293</v>
+        <v>344</v>
+      </c>
+      <c r="J45" t="s">
+        <v>345</v>
+      </c>
+      <c r="K45" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>295</v>
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="H46" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="I46" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="J46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>301</v>
+        <v>12</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="G47" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="H47" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="J47" t="s">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>307</v>
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.8</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" t="s">
-        <v>310</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>365</v>
+      </c>
+      <c r="H48"/>
       <c r="I48"/>
+      <c r="J48" t="s">
+        <v>366</v>
+      </c>
+      <c r="K48" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>312</v>
+        <v>12</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.5</v>
       </c>
       <c r="D49" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="H49" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>319</v>
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.3</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="F50" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="G50" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="I50" t="s">
-        <v>325</v>
+        <v>381</v>
+      </c>
+      <c r="J50" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>327</v>
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.4</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="I51" t="s">
-        <v>331</v>
+        <v>389</v>
+      </c>
+      <c r="J51" t="s">
+        <v>390</v>
+      </c>
+      <c r="K51" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>333</v>
-      </c>
-      <c r="D52" t="s">
-        <v>334</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D52"/>
       <c r="E52" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="H52" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="I52" t="s">
-        <v>339</v>
+        <v>397</v>
+      </c>
+      <c r="J52" t="s">
+        <v>398</v>
+      </c>
+      <c r="K52" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53" t="s">
-        <v>342</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53"/>
       <c r="E53" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53" t="s">
-        <v>345</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="G53" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53"/>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>404</v>
+      </c>
+      <c r="J53" t="s">
+        <v>405</v>
+      </c>
+      <c r="K53" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>348</v>
-      </c>
-      <c r="D54" t="s">
-        <v>349</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D54"/>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54" t="s">
-        <v>350</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54"/>
       <c r="I54" t="s">
-        <v>331</v>
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>410</v>
+      </c>
+      <c r="K54" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>352</v>
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.8</v>
       </c>
       <c r="D55" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55" t="s">
-        <v>355</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55"/>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>357</v>
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.7</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56" t="s">
-        <v>360</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="G56" t="s">
+        <v>421</v>
+      </c>
+      <c r="H56"/>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J56" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>362</v>
-      </c>
-      <c r="D57" t="s">
-        <v>363</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D57"/>
       <c r="E57" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57" t="s">
-        <v>365</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>427</v>
+      </c>
+      <c r="H57"/>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="J57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K57" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>367</v>
+        <v>12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.6</v>
       </c>
       <c r="D58" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58" t="s">
-        <v>370</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="G58" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58"/>
       <c r="I58" t="s">
-        <v>371</v>
+        <v>435</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>373</v>
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.2</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="H59" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="I59" t="s">
-        <v>325</v>
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>379</v>
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.8</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="E60" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>449</v>
       </c>
       <c r="G60" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="H60" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="I60" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J60" t="s">
+        <v>452</v>
+      </c>
+      <c r="K60" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>385</v>
-      </c>
-      <c r="D61" t="s">
-        <v>386</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
       <c r="E61" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61" t="s">
-        <v>388</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="G61" t="s">
+        <v>457</v>
+      </c>
+      <c r="H61"/>
       <c r="I61" t="s">
-        <v>389</v>
+        <v>458</v>
+      </c>
+      <c r="J61" t="s">
+        <v>459</v>
+      </c>
+      <c r="K61" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>391</v>
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62" t="s">
-        <v>394</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="G62" t="s">
+        <v>464</v>
+      </c>
+      <c r="H62"/>
       <c r="I62" t="s">
-        <v>395</v>
+        <v>465</v>
+      </c>
+      <c r="J62" t="s">
+        <v>466</v>
+      </c>
+      <c r="K62" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>397</v>
+        <v>12</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
-      </c>
-      <c r="E63" t="s">
-        <v>399</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="E63"/>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63"/>
-      <c r="H63" t="s">
-        <v>400</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="G63" t="s">
+        <v>471</v>
+      </c>
+      <c r="H63"/>
       <c r="I63" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="J63" t="s">
+        <v>472</v>
+      </c>
+      <c r="K63" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>402</v>
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.8</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>359</v>
+        <v>475</v>
       </c>
       <c r="F64" t="s">
-        <v>403</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64" t="s">
-        <v>404</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="G64" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64"/>
       <c r="I64" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="J64" t="s">
+        <v>477</v>
+      </c>
+      <c r="K64" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>406</v>
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.7</v>
       </c>
       <c r="D65" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65"/>
-      <c r="H65" t="s">
-        <v>409</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G65" t="s">
+        <v>483</v>
+      </c>
+      <c r="H65"/>
       <c r="I65" t="s">
-        <v>410</v>
+        <v>484</v>
+      </c>
+      <c r="J65" t="s">
+        <v>485</v>
+      </c>
+      <c r="K65" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>412</v>
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.3</v>
       </c>
       <c r="D66" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
       <c r="E66" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
       <c r="G66" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="H66" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="I66" t="s">
-        <v>139</v>
+        <v>163</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>419</v>
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7.1</v>
       </c>
       <c r="D67" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="E67" t="s">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
       <c r="G67" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
       <c r="H67" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
       <c r="I67" t="s">
-        <v>176</v>
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>500</v>
+      </c>
+      <c r="K67" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>426</v>
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.4</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="E68" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="F68" t="s">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="G68" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="H68" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="I68" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="J68" t="s">
+        <v>508</v>
+      </c>
+      <c r="K68" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>433</v>
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>434</v>
+        <v>511</v>
       </c>
       <c r="E69" t="s">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>436</v>
+        <v>514</v>
       </c>
       <c r="H69" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="I69" t="s">
-        <v>438</v>
+        <v>516</v>
+      </c>
+      <c r="J69" t="s">
+        <v>517</v>
+      </c>
+      <c r="K69" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>440</v>
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.9</v>
       </c>
       <c r="D70" t="s">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>521</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>522</v>
       </c>
       <c r="G70" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="I70" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>445</v>
+        <v>12</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7.4</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>527</v>
       </c>
       <c r="E71" t="s">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="F71" t="s">
-        <v>448</v>
+        <v>529</v>
       </c>
       <c r="G71" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="H71" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="J71" t="s">
+        <v>532</v>
+      </c>
+      <c r="K71" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>452</v>
+        <v>12</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.1</v>
       </c>
       <c r="D72" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
       <c r="E72" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="F72" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="G72" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="H72" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="I72" t="s">
-        <v>458</v>
+        <v>540</v>
+      </c>
+      <c r="J72" t="s">
+        <v>541</v>
+      </c>
+      <c r="K72" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>460</v>
-      </c>
-      <c r="D73" t="s">
-        <v>461</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="F73" t="s">
-        <v>463</v>
-      </c>
-      <c r="G73"/>
-      <c r="H73" t="s">
-        <v>464</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="G73" t="s">
+        <v>546</v>
+      </c>
+      <c r="H73"/>
       <c r="I73"/>
+      <c r="J73" t="s">
+        <v>547</v>
+      </c>
+      <c r="K73" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>466</v>
+        <v>12</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.6</v>
       </c>
       <c r="D74" t="s">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="E74" t="s">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74" t="s">
-        <v>469</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>553</v>
+      </c>
+      <c r="H74"/>
       <c r="I74" t="s">
-        <v>470</v>
+        <v>554</v>
+      </c>
+      <c r="J74" t="s">
+        <v>555</v>
+      </c>
+      <c r="K74" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>472</v>
-      </c>
-      <c r="D75" t="s">
-        <v>473</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>558</v>
       </c>
       <c r="F75" t="s">
-        <v>344</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75" t="s">
-        <v>474</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="G75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75"/>
       <c r="I75" t="s">
-        <v>339</v>
+        <v>397</v>
+      </c>
+      <c r="J75" t="s">
+        <v>560</v>
+      </c>
+      <c r="K75" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>562</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>476</v>
+        <v>12</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.1</v>
       </c>
       <c r="D76" t="s">
-        <v>477</v>
+        <v>563</v>
       </c>
       <c r="E76" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>565</v>
       </c>
       <c r="G76" t="s">
-        <v>479</v>
+        <v>566</v>
       </c>
       <c r="H76" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="I76" t="s">
-        <v>438</v>
+        <v>516</v>
+      </c>
+      <c r="J76" t="s">
+        <v>568</v>
+      </c>
+      <c r="K76" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>482</v>
+        <v>12</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.9</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>483</v>
+        <v>571</v>
       </c>
       <c r="F77" t="s">
-        <v>463</v>
-      </c>
-      <c r="G77"/>
-      <c r="H77" t="s">
-        <v>484</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="G77" t="s">
+        <v>573</v>
+      </c>
+      <c r="H77"/>
       <c r="I77" t="s">
-        <v>485</v>
+        <v>574</v>
+      </c>
+      <c r="J77" t="s">
+        <v>575</v>
+      </c>
+      <c r="K77" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>487</v>
+        <v>12</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5.5</v>
       </c>
       <c r="D78" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
       <c r="E78" t="s">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="F78" t="s">
-        <v>173</v>
+        <v>580</v>
       </c>
       <c r="G78" t="s">
-        <v>490</v>
+        <v>581</v>
       </c>
       <c r="H78" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="I78" t="s">
-        <v>133</v>
+        <v>155</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>493</v>
+        <v>12</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E79" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79" t="s">
-        <v>24</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="G79" t="s">
+        <v>588</v>
+      </c>
+      <c r="H79"/>
       <c r="I79" t="s">
-        <v>133</v>
+        <v>155</v>
+      </c>
+      <c r="J79" t="s">
+        <v>589</v>
+      </c>
+      <c r="K79" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>497</v>
+        <v>12</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5.2</v>
       </c>
       <c r="D80" t="s">
-        <v>498</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80" t="s">
-        <v>500</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="G80" t="s">
+        <v>594</v>
+      </c>
+      <c r="H80"/>
       <c r="I80" t="s">
-        <v>501</v>
+        <v>595</v>
+      </c>
+      <c r="J80" t="s">
+        <v>596</v>
+      </c>
+      <c r="K80" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>503</v>
+        <v>12</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.2</v>
       </c>
       <c r="D81" t="s">
-        <v>504</v>
+        <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>599</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="G81" t="s">
-        <v>505</v>
+        <v>102</v>
       </c>
       <c r="H81" t="s">
-        <v>506</v>
+        <v>601</v>
       </c>
       <c r="I81" t="s">
-        <v>507</v>
+        <v>602</v>
+      </c>
+      <c r="J81" t="s">
+        <v>603</v>
+      </c>
+      <c r="K81" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>508</v>
+        <v>605</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>509</v>
+        <v>12</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.8</v>
       </c>
       <c r="D82" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>607</v>
       </c>
       <c r="F82" t="s">
-        <v>511</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82" t="s">
-        <v>512</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82"/>
       <c r="I82" t="s">
-        <v>513</v>
+        <v>609</v>
+      </c>
+      <c r="J82" t="s">
+        <v>610</v>
+      </c>
+      <c r="K82" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>515</v>
+        <v>12</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.7</v>
       </c>
       <c r="D83" t="s">
-        <v>516</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>297</v>
+        <v>613</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83"/>
-      <c r="H83" t="s">
-        <v>517</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="G83" t="s">
+        <v>350</v>
+      </c>
+      <c r="H83"/>
       <c r="I83" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+      <c r="J83" t="s">
+        <v>615</v>
+      </c>
+      <c r="K83" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>518</v>
+        <v>617</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>519</v>
+        <v>12</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6.3</v>
       </c>
       <c r="D84" t="s">
-        <v>520</v>
+        <v>362</v>
       </c>
       <c r="E84" t="s">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="F84" t="s">
-        <v>522</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84" t="s">
-        <v>523</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="G84" t="s">
+        <v>620</v>
+      </c>
+      <c r="H84"/>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="J84" t="s">
+        <v>621</v>
+      </c>
+      <c r="K84" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>524</v>
+        <v>623</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>525</v>
-      </c>
-      <c r="D85" t="s">
-        <v>526</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D85"/>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>624</v>
       </c>
       <c r="F85" t="s">
-        <v>527</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85" t="s">
-        <v>528</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="G85" t="s">
+        <v>190</v>
+      </c>
+      <c r="H85"/>
       <c r="I85" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="J85" t="s">
+        <v>626</v>
+      </c>
+      <c r="K85" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>529</v>
+        <v>628</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>530</v>
+        <v>12</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.5</v>
       </c>
       <c r="D86" t="s">
-        <v>531</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>629</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86" t="s">
-        <v>532</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="G86" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86"/>
       <c r="I86" t="s">
-        <v>339</v>
+        <v>397</v>
+      </c>
+      <c r="J86" t="s">
+        <v>631</v>
+      </c>
+      <c r="K86" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>534</v>
+        <v>12</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.8</v>
       </c>
       <c r="D87" t="s">
-        <v>535</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
       <c r="F87" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="G87" t="s">
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="H87" t="s">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="I87" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="J87" t="s">
+        <v>638</v>
+      </c>
+      <c r="K87" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>541</v>
+        <v>12</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.6</v>
       </c>
       <c r="D88" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="E88" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="F88" t="s">
-        <v>544</v>
+        <v>642</v>
       </c>
       <c r="G88" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="H88" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="I88" t="s">
-        <v>176</v>
+        <v>205</v>
+      </c>
+      <c r="J88" t="s">
+        <v>645</v>
+      </c>
+      <c r="K88" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>548</v>
-      </c>
-      <c r="D89" t="s">
-        <v>549</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
       <c r="E89" t="s">
-        <v>130</v>
+        <v>648</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89" t="s">
-        <v>550</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G89" t="s">
+        <v>154</v>
+      </c>
+      <c r="H89"/>
       <c r="I89"/>
+      <c r="J89" t="s">
+        <v>650</v>
+      </c>
+      <c r="K89" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>551</v>
+        <v>652</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>552</v>
+        <v>12</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>553</v>
+        <v>152</v>
       </c>
       <c r="E90" t="s">
-        <v>554</v>
+        <v>653</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>654</v>
       </c>
       <c r="G90" t="s">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="H90" t="s">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="I90" t="s">
-        <v>339</v>
+        <v>397</v>
+      </c>
+      <c r="J90" t="s">
+        <v>657</v>
+      </c>
+      <c r="K90" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>557</v>
+        <v>659</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>558</v>
+        <v>12</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>559</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="F91" t="s">
-        <v>561</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91" t="s">
-        <v>562</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="G91" t="s">
+        <v>662</v>
+      </c>
+      <c r="H91"/>
       <c r="I91" t="s">
-        <v>458</v>
+        <v>540</v>
+      </c>
+      <c r="J91" t="s">
+        <v>663</v>
+      </c>
+      <c r="K91" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>563</v>
+        <v>665</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>564</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" t="s">
-        <v>565</v>
-      </c>
+      <c r="E92"/>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92" t="s">
-        <v>566</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="G92" t="s">
+        <v>667</v>
+      </c>
+      <c r="H92"/>
       <c r="I92"/>
+      <c r="J92" t="s">
+        <v>668</v>
+      </c>
+      <c r="K92" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>567</v>
+        <v>670</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>568</v>
-      </c>
-      <c r="D93" t="s">
-        <v>569</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D93"/>
       <c r="E93" t="s">
-        <v>359</v>
+        <v>671</v>
       </c>
       <c r="F93" t="s">
-        <v>570</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93" t="s">
-        <v>571</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="G93" t="s">
+        <v>421</v>
+      </c>
+      <c r="H93"/>
       <c r="I93" t="s">
-        <v>572</v>
+        <v>673</v>
+      </c>
+      <c r="J93" t="s">
+        <v>674</v>
+      </c>
+      <c r="K93" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>574</v>
-      </c>
-      <c r="D94" t="s">
-        <v>575</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6</v>
+      </c>
+      <c r="D94"/>
       <c r="E94" t="s">
-        <v>576</v>
+        <v>677</v>
       </c>
       <c r="F94" t="s">
-        <v>577</v>
+        <v>678</v>
       </c>
       <c r="G94" t="s">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>680</v>
       </c>
       <c r="I94" t="s">
-        <v>458</v>
+        <v>540</v>
+      </c>
+      <c r="J94" t="s">
+        <v>681</v>
+      </c>
+      <c r="K94" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>683</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>581</v>
+        <v>12</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.9</v>
       </c>
       <c r="D95" t="s">
-        <v>582</v>
+        <v>684</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>686</v>
       </c>
       <c r="G95" t="s">
-        <v>584</v>
+        <v>687</v>
       </c>
       <c r="H95" t="s">
-        <v>585</v>
+        <v>688</v>
       </c>
       <c r="I95" t="s">
-        <v>438</v>
+        <v>516</v>
+      </c>
+      <c r="J95" t="s">
+        <v>689</v>
+      </c>
+      <c r="K95" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>587</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>588</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>326</v>
+      </c>
+      <c r="E96"/>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>692</v>
       </c>
       <c r="G96" t="s">
-        <v>589</v>
+        <v>693</v>
       </c>
       <c r="H96" t="s">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="I96" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J96" t="s">
+        <v>695</v>
+      </c>
+      <c r="K96" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>592</v>
+        <v>12</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.5</v>
       </c>
       <c r="D97" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="E97" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="F97" t="s">
-        <v>595</v>
-      </c>
-      <c r="G97"/>
-      <c r="H97" t="s">
-        <v>596</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="G97" t="s">
+        <v>700</v>
+      </c>
+      <c r="H97"/>
       <c r="I97" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="J97" t="s">
+        <v>701</v>
+      </c>
+      <c r="K97" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>597</v>
+        <v>703</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>598</v>
+        <v>12</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
-        <v>599</v>
+        <v>704</v>
       </c>
       <c r="E98" t="s">
-        <v>600</v>
+        <v>705</v>
       </c>
       <c r="F98" t="s">
-        <v>601</v>
+        <v>706</v>
       </c>
       <c r="G98" t="s">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="H98" t="s">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="I98" t="s">
-        <v>331</v>
+        <v>389</v>
+      </c>
+      <c r="J98" t="s">
+        <v>709</v>
+      </c>
+      <c r="K98" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>604</v>
+        <v>711</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>605</v>
+        <v>12</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="F99" t="s">
-        <v>463</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99" t="s">
-        <v>607</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="G99" t="s">
+        <v>714</v>
+      </c>
+      <c r="H99"/>
       <c r="I99"/>
+      <c r="J99" t="s">
+        <v>715</v>
+      </c>
+      <c r="K99" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>608</v>
+        <v>717</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>609</v>
+        <v>12</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.4</v>
       </c>
       <c r="D100" t="s">
-        <v>610</v>
+        <v>326</v>
       </c>
       <c r="E100" t="s">
-        <v>335</v>
+        <v>718</v>
       </c>
       <c r="F100" t="s">
-        <v>173</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100" t="s">
-        <v>611</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="G100" t="s">
+        <v>395</v>
+      </c>
+      <c r="H100"/>
       <c r="I100" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="J100" t="s">
+        <v>720</v>
+      </c>
+      <c r="K100" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="B101" t="s">
-        <v>613</v>
-      </c>
-      <c r="C101" t="s">
-        <v>614</v>
-      </c>
-      <c r="D101" t="s">
-        <v>615</v>
-      </c>
-      <c r="E101" t="s">
-        <v>616</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
       <c r="F101" t="s">
-        <v>617</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101" t="s">
-        <v>618</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="G101" t="s">
+        <v>724</v>
+      </c>
+      <c r="H101"/>
       <c r="I101"/>
+      <c r="J101" t="s">
+        <v>725</v>
+      </c>
+      <c r="K101" t="s">
+        <v>726</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="584">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -50,13 +50,7 @@
     <t xml:space="preserve">Tenet</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199,971</t>
+    <t xml:space="preserve">202,395</t>
   </si>
   <si>
     <t xml:space="preserve">In a twilight world of international espionage, an unnamed CIA operative, known as The Protagonist, is recruited by a mysterious organization called Tenet to participate in a global assignment that unfolds beyond real time. The mission: prevent Andrei Sator, a renegade Russian oligarch with precognition abilities, from starting World War III. The Protagonist will soon master the art of "time inversion" as a way of countering the threat that is to come.</t>
@@ -65,13 +59,6 @@
     <t xml:space="preserve"> Action, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> 361,400,000        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Christopher Nolan</t>
   </si>
   <si>
@@ -81,10 +68,7 @@
     <t xml:space="preserve">Mank</t>
   </si>
   <si>
-    <t xml:space="preserve"> 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,404</t>
+    <t xml:space="preserve">20,947</t>
   </si>
   <si>
     <t xml:space="preserve">1940. Film studio RKO hires 24-year-old wunderkind Orson Welles under a contract that gives him full creative control of his movies. For his first film, he calls in washed-up alcoholic Herman J Mankiewicz to write the screenplay. That film is "Citizen Kane," and this is the story of how it was written.</t>
@@ -93,13 +77,6 @@
     <t xml:space="preserve"> Biography, Comedy, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> 83,469        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 131 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> David Fincher</t>
   </si>
   <si>
@@ -109,10 +86,7 @@
     <t xml:space="preserve">Mulan</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85,070</t>
+    <t xml:space="preserve">85,664</t>
   </si>
   <si>
     <t xml:space="preserve">A young Chinese maiden disguises herself as a male warrior in order to save her father.</t>
@@ -121,13 +95,6 @@
     <t xml:space="preserve"> Action, Adventure, Drama, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66,800,000        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 115 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Niki Caro</t>
   </si>
   <si>
@@ -137,10 +104,7 @@
     <t xml:space="preserve">Code Ava: Trained to Kill</t>
   </si>
   <si>
-    <t xml:space="preserve"> 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,866</t>
+    <t xml:space="preserve">26,350</t>
   </si>
   <si>
     <t xml:space="preserve">Lethally beautiful and incredibly efficient in her dangerous line of work, Ava, a taciturn lone wolf and cold-blooded assassin, is starting to develop a conscience. Having beaten her alcohol and substance dependence with the help of Duke, her grizzled mentor of death and father figure, more and more, unstable Ava lets guilt get in the way of closing her "deals", attracting unwanted attention by breaking protocol. As a result, after a botched attempt to liquidate a high-profile target, Ava reunites with her estranged family after eight long years of absence, unaware that she has just signed her death warrant. Now, as Ava tries to settle old scores and reconnect with her loved ones, every killer in the business is after her. Can Ava rely on Duke to have her back?</t>
@@ -149,13 +113,6 @@
     <t xml:space="preserve"> Action, Crime, Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3,216,165        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tate Taylor</t>
   </si>
   <si>
@@ -165,10 +122,7 @@
     <t xml:space="preserve">Wonder Woman 1984</t>
   </si>
   <si>
-    <t xml:space="preserve"> 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176</t>
+    <t xml:space="preserve">1,307</t>
   </si>
   <si>
     <t xml:space="preserve">Fast forward to the 1980s as Wonder Woman's next big screen adventure finds her facing two all-new foes: Max Lord and The Cheetah.</t>
@@ -177,9 +131,6 @@
     <t xml:space="preserve"> Action, Adventure, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 151 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Patty Jenkins</t>
   </si>
   <si>
@@ -189,10 +140,7 @@
     <t xml:space="preserve">Die gute Fee</t>
   </si>
   <si>
-    <t xml:space="preserve"> 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,174</t>
+    <t xml:space="preserve">4,351</t>
   </si>
   <si>
     <t xml:space="preserve">A young and unskilled fairy godmother ventures out on her own to prove her worth by tracking down a young girl whose request for help was ignored.</t>
@@ -201,9 +149,6 @@
     <t xml:space="preserve"> Comedy, Drama, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 110 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sharon Maguire</t>
   </si>
   <si>
@@ -213,10 +158,7 @@
     <t xml:space="preserve">The Prom</t>
   </si>
   <si>
-    <t xml:space="preserve"> 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,247</t>
+    <t xml:space="preserve">8,949</t>
   </si>
   <si>
     <t xml:space="preserve">A troupe of hilariously self-obsessed theater stars swarm into a small conservative Indiana town in support of a high school girl who wants to take her girlfriend to the prom.</t>
@@ -225,13 +167,6 @@
     <t xml:space="preserve"> Comedy, Drama, Musical</t>
   </si>
   <si>
-    <t xml:space="preserve"> 143,669        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 130 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ryan Murphy</t>
   </si>
   <si>
@@ -241,10 +176,7 @@
     <t xml:space="preserve">Happiest Season</t>
   </si>
   <si>
-    <t xml:space="preserve"> 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,859</t>
+    <t xml:space="preserve">16,188</t>
   </si>
   <si>
     <t xml:space="preserve">Meeting your girlfriend's family for the first time can be tough. Planning to propose at her family's annual Christmas dinner - until you realize that they don't even know she's gay - is even harder. When Abby (Kristen Stewart) learns that Harper (Mackenzie Davis) has kept their relationship a secret from her family, she begins to question the girlfriend she thought she knew.</t>
@@ -253,13 +185,6 @@
     <t xml:space="preserve"> Comedy, Drama, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,401,954        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 102 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clea DuVall</t>
   </si>
   <si>
@@ -269,10 +194,7 @@
     <t xml:space="preserve">The Christmas Chronicles: Teil zwei</t>
   </si>
   <si>
-    <t xml:space="preserve"> 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,844</t>
+    <t xml:space="preserve">12,199</t>
   </si>
   <si>
     <t xml:space="preserve">Kate Pierce, now a cynical teen, is unexpectedly reunited with Santa Claus when a mysterious troublemaker threatens to cancel Christmas - forever.</t>
@@ -281,9 +203,6 @@
     <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 112 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chris Columbus</t>
   </si>
   <si>
@@ -293,25 +212,12 @@
     <t xml:space="preserve">Honest Thief</t>
   </si>
   <si>
-    <t xml:space="preserve"> 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,261</t>
+    <t xml:space="preserve">11,623</t>
   </si>
   <si>
     <t xml:space="preserve">They call him the In-and-Out-Bandit because meticulous thief Tom Carter (Liam Neeson) has stolen $9 million from small-town banks while managing to keep his identity a secret. But after he falls in love with the bubbly Annie (Kate Walsh), Tom decides to make a fresh start by coming clean about his criminal past, only to be double-crossed by two ruthless FBI agents.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Action, Crime, Drama, Romance, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28,831,341        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mark Williams</t>
   </si>
   <si>
@@ -321,7 +227,7 @@
     <t xml:space="preserve">Freaky</t>
   </si>
   <si>
-    <t xml:space="preserve">12,125</t>
+    <t xml:space="preserve">12,417</t>
   </si>
   <si>
     <t xml:space="preserve">After swapping bodies with a deranged serial killer, a young girl in high school discovers she has less than 24 hours before the change becomes permanent.</t>
@@ -330,10 +236,6 @@
     <t xml:space="preserve"> Comedy, Horror, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14,206,300        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Christopher Landon</t>
   </si>
   <si>
@@ -343,7 +245,7 @@
     <t xml:space="preserve">Hillbilly Elegy</t>
   </si>
   <si>
-    <t xml:space="preserve">15,243</t>
+    <t xml:space="preserve">15,461</t>
   </si>
   <si>
     <t xml:space="preserve">Based on the bestselling memoir by J.D. Vance, HILLBILLY ELEGY is a modern exploration of the American Dream and three generations of an Appalachian family as told by its youngest member, a Yale Law student forced to return to his hometown.</t>
@@ -352,13 +254,6 @@
     <t xml:space="preserve"> Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> 18,185        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 116 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ron Howard</t>
   </si>
   <si>
@@ -368,10 +263,7 @@
     <t xml:space="preserve">The Midnight Sky</t>
   </si>
   <si>
-    <t xml:space="preserve"> 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330</t>
+    <t xml:space="preserve">363</t>
   </si>
   <si>
     <t xml:space="preserve">This post-apocalyptic tale follows Augustine, a lonely scientist in the Arctic, as he races to stop Sully and her fellow astronauts from returning home to a mysterious global catastrophe.</t>
@@ -380,19 +272,16 @@
     <t xml:space="preserve"> Drama, Fantasy, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 122 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> George Clooney</t>
   </si>
   <si>
-    <t xml:space="preserve"> George Clooney, Felicity Jones, David Oyelowo, Tiffany Boone </t>
+    <t xml:space="preserve"> George Clooney, Felicity Jones, David Oyelowo, Caoilinn Springall </t>
   </si>
   <si>
     <t xml:space="preserve">Greenland</t>
   </si>
   <si>
-    <t xml:space="preserve">30,348</t>
+    <t xml:space="preserve">30,663</t>
   </si>
   <si>
     <t xml:space="preserve">A family fights for survival as a planet-killing comet races to Earth. John Garrity (Gerard Butler), his estranged wife Allison (Morena Baccarin), and young son Nathan make a perilous journey to their only hope for sanctuary. Amid terrifying news accounts of cities around the world being leveled by the comet's fragments, the Garritys experience the best and worst in humanity while they battle the increasing panic and lawlessness surrounding them. As the countdown to global apocalypse approaches zero, their incredible trek culminates in a desperate and last-minute flight to a possible safe haven.</t>
@@ -401,13 +290,6 @@
     <t xml:space="preserve"> Action, Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 47,800,000        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 119 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ric Roman Waugh</t>
   </si>
   <si>
@@ -417,7 +299,7 @@
     <t xml:space="preserve">Jingle Jangle Journey: Abenteuerliche Weihnachten!</t>
   </si>
   <si>
-    <t xml:space="preserve">9,539</t>
+    <t xml:space="preserve">9,710</t>
   </si>
   <si>
     <t xml:space="preserve">In the gloriously vibrant town of Cobbleton, legendary toymaker Jeronicus Jangle's (Forest Whitaker) fanciful inventions burst with whimsy and wonder. But when his trusted apprentice (Keegan-Michael Key) steals his most prized creation, it's up to his equally bright and inventive granddaughter (Madalen Mills) - and a long-forgotten invention - to heal old wounds and reawaken the magic within.</t>
@@ -435,10 +317,7 @@
     <t xml:space="preserve">Fatman</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,053</t>
+    <t xml:space="preserve">9,218</t>
   </si>
   <si>
     <t xml:space="preserve">A rowdy, unorthodox Santa Claus is fighting to save his declining business. Meanwhile, Billy, a neglected and precocious 12 year old, hires a hit man to kill Santa after receiving a lump of coal in his stocking.</t>
@@ -447,13 +326,6 @@
     <t xml:space="preserve"> Action, Comedy, Fantasy, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,086,339        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Eshom Nelms, Ian Nelms</t>
   </si>
   <si>
@@ -463,7 +335,7 @@
     <t xml:space="preserve">We Can Be Heroes</t>
   </si>
   <si>
-    <t xml:space="preserve">1,768</t>
+    <t xml:space="preserve">1,826</t>
   </si>
   <si>
     <t xml:space="preserve">When alien invaders kidnap Earth's superheroes, their kids are whisked away to a government safe house. But whip-smart tween Missy Moreno will stop at nothing to rescue her superhero dad, Marcus Moreno. Missy teams up with the rest of the superkids to escape their mysterious government babysitter, Ms. Granada. If they're going to save their parents, they'll have to work together by using their individual powers - from elasticity to time control to predicting the future - and form an out-of-this-world team.</t>
@@ -481,18 +353,12 @@
     <t xml:space="preserve">Wander</t>
   </si>
   <si>
-    <t xml:space="preserve"> 54</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arthur Bretnik is a mentally unstable conspiracy theorist and private eye with a traumatic past. After being hired to investigate a possible murder cover up in the small town of Wander, Arthur is plunged into a world of lies and deceit, as he quickly suspects the murder may be part of the same 'conspiracy cover up' that caused the death of his daughter. Increasingly paranoid, Arthur's sanity is tested as he attempts to filter fact from fiction and solve the case, all the while questioning if he is a pawn in a much bigger game.</t>
   </si>
   <si>
     <t xml:space="preserve"> Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 94 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> April Mullen</t>
   </si>
   <si>
@@ -502,10 +368,7 @@
     <t xml:space="preserve">Holidate</t>
   </si>
   <si>
-    <t xml:space="preserve"> 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,808</t>
+    <t xml:space="preserve">34,140</t>
   </si>
   <si>
     <t xml:space="preserve">Randomly meeting at a store return counter introduces Sloane to Jackson. Both tired of nightmare dates (him) and meddling family (her) during the holidays, they strike an arrangement, whereby they meet as a couple only during the holidays to make life at the very least tolerable. Slowly, so slowly, while scoffing at the cliches of romance (and to their surprise), their relationship grows into something deeper.</t>
@@ -514,9 +377,6 @@
     <t xml:space="preserve"> Comedy, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve"> 103 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> John Whitesell</t>
   </si>
   <si>
@@ -526,15 +386,12 @@
     <t xml:space="preserve">Black Bear</t>
   </si>
   <si>
-    <t xml:space="preserve">2,266</t>
+    <t xml:space="preserve">2,354</t>
   </si>
   <si>
     <t xml:space="preserve">At a remote lake house in the Adirondack Mountains, a couple entertains an out-of-town guest looking for inspiration in her filmmaking. The group quickly falls into a calculated game of desire, manipulation, and jealousy, unaware of how dangerously convoluted their lives will soon become in the filmmaker's pursuit of a work of art, which blurs the boundaries between autobiography and invention.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 104 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lawrence Michael Levine</t>
   </si>
   <si>
@@ -544,7 +401,7 @@
     <t xml:space="preserve">Run</t>
   </si>
   <si>
-    <t xml:space="preserve">15,162</t>
+    <t xml:space="preserve">15,369</t>
   </si>
   <si>
     <t xml:space="preserve">Chloe, a teenager who is confined to a wheelchair, is home schooled by her mother, However, her mother's strange behavior doesn't go unnoticed and when Chloe pries into some private papers, she discovers a Change of Name Certificate document with her mother's name, Diane Sherman, on it. When Chloe googles "Diane Sherman," the internet suddenly disconnnects. Chloe becomes suspicious of all that her mother does, suspecting her of something sinister. She decides to go on the run in her wheelchair in a desperate attempt to get away from her.</t>
@@ -553,13 +410,6 @@
     <t xml:space="preserve"> Horror, Mystery, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2,178,316        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aneesh Chaganty</t>
   </si>
   <si>
@@ -569,16 +419,12 @@
     <t xml:space="preserve">Monster Hunter</t>
   </si>
   <si>
-    <t xml:space="preserve">1,056</t>
+    <t xml:space="preserve">1,137</t>
   </si>
   <si>
     <t xml:space="preserve">When Lt. Artemis and her loyal soldiers are transported to a new world, they engage in a desperate battle for survival against enormous enemies with incredible powers. Feature film based on the video game by Capcom.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4,800,000        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Paul W.S. Anderson</t>
   </si>
   <si>
@@ -588,10 +434,7 @@
     <t xml:space="preserve">Let Them All Talk</t>
   </si>
   <si>
-    <t xml:space="preserve"> 73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,887</t>
+    <t xml:space="preserve">2,053</t>
   </si>
   <si>
     <t xml:space="preserve">A famous author goes on a cruise trip with her friends and nephew in an effort to find fun and happiness while she comes to terms with her troubled past.</t>
@@ -600,9 +443,6 @@
     <t xml:space="preserve"> Comedy, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> 113 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Steven Soderbergh</t>
   </si>
   <si>
@@ -612,7 +452,7 @@
     <t xml:space="preserve">Call</t>
   </si>
   <si>
-    <t xml:space="preserve">8,663</t>
+    <t xml:space="preserve">8,882</t>
   </si>
   <si>
     <t xml:space="preserve">Two people live in different times. Seo-Yeon lives in the present and Young-Sook lives in the past. One phone call connects the two, and their lives are changed irrevocably.</t>
@@ -630,22 +470,12 @@
     <t xml:space="preserve">Emma</t>
   </si>
   <si>
-    <t xml:space="preserve"> 71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,832</t>
+    <t xml:space="preserve">25,912</t>
   </si>
   <si>
     <t xml:space="preserve">Jane Austen's beloved comedy about finding your equal and earning your happy ending, is reimagined in this. Handsome, clever, and rich, Emma Woodhouse is a restless queen bee without rivals in her sleepy little town. In this glittering satire of social class and the pain of growing up, Emma must adventure through misguided matches and romantic missteps to find the love that has been there all along.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 26,287,085        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 124 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Autumn de Wilde</t>
   </si>
   <si>
@@ -655,18 +485,12 @@
     <t xml:space="preserve">Uncle Frank</t>
   </si>
   <si>
-    <t xml:space="preserve"> 58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,193</t>
+    <t xml:space="preserve">6,330</t>
   </si>
   <si>
     <t xml:space="preserve">In 1973, when Frank Bledsoe and his 18-year-old niece Beth take a road trip from Manhattan to Creekville, South Carolina, for the family patriarch's funeral, they're unexpectedly joined by Frank's lover, Walid.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 95 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Alan Ball</t>
   </si>
   <si>
@@ -676,7 +500,7 @@
     <t xml:space="preserve">The 2nd</t>
   </si>
   <si>
-    <t xml:space="preserve">3,846</t>
+    <t xml:space="preserve">3,876</t>
   </si>
   <si>
     <t xml:space="preserve">Special forces agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
@@ -685,13 +509,6 @@
     <t xml:space="preserve"> Action, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> 13,996        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Brian Skiba</t>
   </si>
   <si>
@@ -701,7 +518,7 @@
     <t xml:space="preserve">365 Days</t>
   </si>
   <si>
-    <t xml:space="preserve">45,642</t>
+    <t xml:space="preserve">45,706</t>
   </si>
   <si>
     <t xml:space="preserve">Massimo Torricelli, a young and handsome boss of a Sicilian Mafia family, has no other option but to take over after his father has been assassinated. Laura is a sales director in a luxurious hotel in Warsaw. She has a successful career, but her private life lacks passion. She is taking one last shot to save her relationship. Together with her bone-headed boyfriend, Martin and some other friends, she takes a trip to Sicily. She does not expect that Massimo, the most dangerous man on the island, will get in her way, kidnap her, hold her captive and give her 365 days - to fall in love with him.</t>
@@ -710,13 +527,6 @@
     <t xml:space="preserve"> Drama, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9,458,590        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 114 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Barbara Bialowas, Tomasz Mandes</t>
   </si>
   <si>
@@ -726,22 +536,12 @@
     <t xml:space="preserve">After Truth</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,686</t>
+    <t xml:space="preserve">12,731</t>
   </si>
   <si>
     <t xml:space="preserve">Tessa has everything to lose. Hardin has nothing to lose. - except her. After We Collided - Life will never be the same. After a tumultuous beginning to their relationship, Tessa and Hardin were on the path to making things work. Tessa knew Hardin could be cruel, but when a bombshell revelation is dropped about the origins of their relationship - and Hardin's mysterious past - Tessa is beside herself. Hardin will always be - Hardin. But is he really the deep, thoughtful guy Tessa fell madly in love with despite his angry exterior - or has he been a stranger all along? She wishes she could walk away. It's just not that easy. Hardin knows he made a mistake, possibly the biggest one of his life. He's not going down without a fight. But can he change? Will he change - for love? Yes, yes he will.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 47,990,375        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 105 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roger Kumble</t>
   </si>
   <si>
@@ -751,10 +551,7 @@
     <t xml:space="preserve">X-Men: New Mutants</t>
   </si>
   <si>
-    <t xml:space="preserve"> 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,159</t>
+    <t xml:space="preserve">34,332</t>
   </si>
   <si>
     <t xml:space="preserve">After a near-death experience during a strange tornado, Danielle Moonstar awakens in an abandoned research facility run by the mysterious Dr Cecilia Reyes. There, Dr Reyes introduces Dani to four other equally uncommon teenagers: Illyana Rasputin, Rahne Sinclair, Sam Guthrie, and Roberto da Costa, who wants to keep them safe and sound until they learn how to be in full control of their extraordinary abilities. However, even though the exceptional team of traumatised inmates believes that they're being treated and cared for, before long, they all start to experience horrifying hallucinations. But, this institution was supposed to be a safe place. Are they patients or prisoners?</t>
@@ -763,10 +560,6 @@
     <t xml:space="preserve"> Action, Horror, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> 46,379,478        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Josh Boone</t>
   </si>
   <si>
@@ -776,7 +569,7 @@
     <t xml:space="preserve">What Lies Below</t>
   </si>
   <si>
-    <t xml:space="preserve">836</t>
+    <t xml:space="preserve">887</t>
   </si>
   <si>
     <t xml:space="preserve">A 16 year-old girl returns home from camp and learns that her mother has a new boyfriend, one she intends to marry; a man whose charm, intelligence and beauty make him look like he's not human at all.</t>
@@ -785,9 +578,6 @@
     <t xml:space="preserve"> Horror, Mystery, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 87 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Braden R. Duemmler</t>
   </si>
   <si>
@@ -797,7 +587,7 @@
     <t xml:space="preserve">Ammonite</t>
   </si>
   <si>
-    <t xml:space="preserve">2,997</t>
+    <t xml:space="preserve">3,069</t>
   </si>
   <si>
     <t xml:space="preserve">In 1840s England, acclaimed but overlooked fossil hunter Mary Anning (Kate Winslet) works alone on the rugged Southern coastline. With the days of her famed discoveries behind her, she now searches for common fossils to sell to tourists to support herself and her ailing mother. When a wealthy visitor entrusts Mary with the care of his wife Charlotte Murchison (Saoirse Ronan), she cannot afford to turn his offer down. Proud and relentlessly passionate about her work, Mary initially clashes with her unwelcome guest, but despite the distance between their social class and personalities, an intense bond begins to develop, compelling the two women to determine the true nature of their relationship.</t>
@@ -806,13 +596,6 @@
     <t xml:space="preserve"> Biography, Drama, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve"> 160,930        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 120 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Francis Lee</t>
   </si>
   <si>
@@ -822,22 +605,12 @@
     <t xml:space="preserve">Die fantastische Reise des Dr. Dolittle</t>
   </si>
   <si>
-    <t xml:space="preserve"> 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,462</t>
+    <t xml:space="preserve">44,511</t>
   </si>
   <si>
     <t xml:space="preserve">After his wife's death, Dr. John Dolittle (Robert Downey, Jr.) decided to hide from the world with his beloved animals. But he has to take a journey to a mysterious island to find a healing tree, which is the only medicine that can help the dying Queen Victoria (Jessie Buckley) in Buckingham Palace.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 246,073,367        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 101 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Stephen Gaghan</t>
   </si>
   <si>
@@ -847,10 +620,7 @@
     <t xml:space="preserve">Let Him Go</t>
   </si>
   <si>
-    <t xml:space="preserve"> 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,297</t>
+    <t xml:space="preserve">6,381</t>
   </si>
   <si>
     <t xml:space="preserve">A retired sheriff and his wife, grieving over the death of their son, set out to find their only grandson.</t>
@@ -859,10 +629,6 @@
     <t xml:space="preserve"> Crime, Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10,144,145        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Thomas Bezucha</t>
   </si>
   <si>
@@ -872,7 +638,7 @@
     <t xml:space="preserve">Monsters of Man</t>
   </si>
   <si>
-    <t xml:space="preserve">1,279</t>
+    <t xml:space="preserve">1,340</t>
   </si>
   <si>
     <t xml:space="preserve">A robotics company teams up with a corrupt CIA agent undergoing an illegal, unsanctioned military operation. Dropping four prototype robots into a suspected drug manufacturing camp in the Golden triangle that no one will miss. The mission is to prove the robotics company is worthy of winning a lucrative military contract. Six doctors on a good cause witness the brutal slaughter of an innocent village and are forced into a deadly game of cat and mouse as they become the new targets.</t>
@@ -890,10 +656,7 @@
     <t xml:space="preserve">The Trial of the Chicago 7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70,051</t>
+    <t xml:space="preserve">70,308</t>
   </si>
   <si>
     <t xml:space="preserve">In Chicago 1968, the Democratic Party Convention was met with protests from activists like the moderate Students for a Democratic Society led by Tom Hayden and the militant Yippies led by Abbie Hoffman and Jerry Rubin, which led to violent confrontations with the local authorities. As a result, seven of the accused ringleaders are arraigned on charges like Conspiracy by the hostile Nixon administration, including Bobby Seale of the Black Panthers who was not involved in the incident. What follows is an unfair trial presided by the belligerent Judge Hoffman (No relation) and prosecuted by a reluctant but duty-bound Richard Schultz. As their pro bono lawyers face such odds, Hayden and his fellows are frustrated by the Yippies' outrageous antics undermining their defense in defiance of the system even while Seale is denied a chance to defend himself his way. Along the way, the Chicago 7 clash in their political philosophies even as they learn they need each other in this fight.</t>
@@ -902,13 +665,6 @@
     <t xml:space="preserve"> Drama, History, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24,357        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aaron Sorkin</t>
   </si>
   <si>
@@ -918,10 +674,7 @@
     <t xml:space="preserve">Promising Young Woman</t>
   </si>
   <si>
-    <t xml:space="preserve"> 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">724</t>
+    <t xml:space="preserve">732</t>
   </si>
   <si>
     <t xml:space="preserve">A young woman, traumatized by a tragic event in her past, seeks out vengeance against those who cross her path.</t>
@@ -939,16 +692,12 @@
     <t xml:space="preserve">Wild Mountain Thyme</t>
   </si>
   <si>
-    <t xml:space="preserve">521</t>
+    <t xml:space="preserve">579</t>
   </si>
   <si>
     <t xml:space="preserve">John Patrick Shanley, who created the classic MOONSTRUCK, brings his sweeping romantic vision to Ireland with Wild Mountain Thyme. The headstrong farmer Rosemary Muldoon (Emily Blunt) has her heart set on winning her neighbor Anthony Reilly's love. The problem is Anthony (Jamie Dornan) seems to have inherited a family curse, and remains oblivious to his beautiful admirer. Stung by his father Tony's (Christopher Walken) plans to sell the family farm to his American nephew (Jon Hamm), Anthony is jolted into pursuing his dreams in this comedic, moving and wildly romantic tale.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 106,569        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> John Patrick Shanley</t>
   </si>
   <si>
@@ -958,7 +707,7 @@
     <t xml:space="preserve">Songbird</t>
   </si>
   <si>
-    <t xml:space="preserve">939</t>
+    <t xml:space="preserve">1,041</t>
   </si>
   <si>
     <t xml:space="preserve">In 2024 a pandemic ravages the world and its cities. Centering on a handful of people as they navigate the obstacles currently hindering society: disease, martial law, quarantine, and vigilantes.</t>
@@ -976,7 +725,7 @@
     <t xml:space="preserve">I'm Your Woman</t>
   </si>
   <si>
-    <t xml:space="preserve">1,325</t>
+    <t xml:space="preserve">1,458</t>
   </si>
   <si>
     <t xml:space="preserve">In this 1970s set crime drama, a woman is forced to go on the run after her husband betrays his partners, sending her and her baby on a dangerous journey.</t>
@@ -994,7 +743,7 @@
     <t xml:space="preserve">Die Croods - Alles auf Anfang</t>
   </si>
   <si>
-    <t xml:space="preserve">1,430</t>
+    <t xml:space="preserve">1,464</t>
   </si>
   <si>
     <t xml:space="preserve">The prehistoric family the Croods are challenged by a rival family the Bettermans, who claim to be better and more evolved.</t>
@@ -1003,10 +752,6 @@
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 76,782,010        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Joel Crawford</t>
   </si>
   <si>
@@ -1016,10 +761,7 @@
     <t xml:space="preserve">Possessor</t>
   </si>
   <si>
-    <t xml:space="preserve"> 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,339</t>
+    <t xml:space="preserve">10,437</t>
   </si>
   <si>
     <t xml:space="preserve">Tasya Vos is a corporate agent who uses brain-implant technology to inhabit other people's bodies, driving them to commit assassinations for the benefit of the company. While she has a special gift for the work, her experiences on these jobs have caused a dramatic change in her, and in her own life she struggles to suppress violent memories and urges. As her mental strain intensifies, she begins to lose control, and soon she finds herself trapped in the mind of a man whose identity threatens to obliterate her own.</t>
@@ -1028,10 +770,6 @@
     <t xml:space="preserve"> Horror, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 883,546        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Brandon Cronenberg</t>
   </si>
   <si>
@@ -1041,18 +779,12 @@
     <t xml:space="preserve">The Devil All the Time</t>
   </si>
   <si>
-    <t xml:space="preserve"> 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,631</t>
+    <t xml:space="preserve">80,813</t>
   </si>
   <si>
     <t xml:space="preserve">Set in rural southern Ohio and West Virginia, The Devil All the Time follows a cast of compelling and bizarre characters from the end of World War II to the 1960s. There's Willard Russell, tormented veteran of the carnage in the South Pacific, who can't save his beautiful wife, Charlotte, from an agonizing death by cancer no matter how much sacrificial blood he pours on his "prayer log." There's Carl and Sandy Henderson, a husband-and-wife team of serial killers, who troll America's highways searching for suitable models to photograph and exterminate. There's the spider-handling preacher Roy and his crippled virtuoso-guitar-playing sidekick, Theodore, running from the law. And caught in the middle of all this is Arvin Eugene Russell, Willard and Charlotte's orphaned son, who grows up to be a good but also violent man in his own right.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 138 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Antonio Campos</t>
   </si>
   <si>
@@ -1062,7 +794,7 @@
     <t xml:space="preserve">Enola Holmes</t>
   </si>
   <si>
-    <t xml:space="preserve">111,864</t>
+    <t xml:space="preserve">112,078</t>
   </si>
   <si>
     <t xml:space="preserve">England, 1884 - a world on the brink of change. On the morning of her 16th birthday, Enola Holmes (Millie Bobby Brown) wakes to find that her mother (Helena Bonham Carter) has disappeared, leaving behind an odd assortment of gifts but no apparent clue as to where she's gone or why. After a free-spirited childhood, Enola suddenly finds herself under the care of her brothers Sherlock (Henry Cavill) and Mycroft (Sam Claflin), both set on sending her away to a finishing school for "proper" young ladies. Refusing to follow their wishes, Enola escapes to search for her mother in London. But when her journey finds her entangled in a mystery surrounding a young runaway Lord (Louis Partridge), Enola becomes a super-sleuth in her own right, outwitting her famous brother as she unravels a conspiracy that threatens to set back the course of history.</t>
@@ -1071,9 +803,6 @@
     <t xml:space="preserve"> Action, Adventure, Crime, Drama, Mystery</t>
   </si>
   <si>
-    <t xml:space="preserve"> 123 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Harry Bradbeer</t>
   </si>
   <si>
@@ -1083,7 +812,7 @@
     <t xml:space="preserve">Unhinged - Außer Kontrolle</t>
   </si>
   <si>
-    <t xml:space="preserve">26,374</t>
+    <t xml:space="preserve">26,495</t>
   </si>
   <si>
     <t xml:space="preserve">Academy Award winner Russell Crowe stars in Unhinged, a psychological thriller that takes something we've all experienced- road rage - to an unpredictable and terrifying conclusion. Rachel (Caren Pistorius) is running late getting to work when she crosses paths with a stranger (Crowe) at a traffic light. Soon, Rachel finds herself and everyone she loves the target of a man who feels invisible and is looking to make one last mark upon the world by teaching her a series of deadly lessons. What follows is a dangerous game of cat and mouse that proves you never know who you're driving next to.</t>
@@ -1092,10 +821,6 @@
     <t xml:space="preserve"> Action, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 42,831,465        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Derrick Borte</t>
   </si>
   <si>
@@ -1105,7 +830,7 @@
     <t xml:space="preserve">Archenemy</t>
   </si>
   <si>
-    <t xml:space="preserve">552</t>
+    <t xml:space="preserve">596</t>
   </si>
   <si>
     <t xml:space="preserve">Max Fist claims to be a hero from another dimension who fell through time and space to earth, where he has no powers. No one believes his stories except for a local teen named Hamster.</t>
@@ -1114,10 +839,6 @@
     <t xml:space="preserve"> Action, Adventure</t>
   </si>
   <si>
-    <t xml:space="preserve"> 54,570        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adam Egypt Mortimer</t>
   </si>
   <si>
@@ -1127,10 +848,7 @@
     <t xml:space="preserve">Bruderherz</t>
   </si>
   <si>
-    <t xml:space="preserve"> 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">727</t>
+    <t xml:space="preserve">788</t>
   </si>
   <si>
     <t xml:space="preserve">The story of Ray-Ray McElrathbey, a freshman football player for Clemson University, who secretly raised his younger brother on campus after his home life became too unsteady.</t>
@@ -1148,10 +866,7 @@
     <t xml:space="preserve">The Hunt</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,944</t>
+    <t xml:space="preserve">63,020</t>
   </si>
   <si>
     <t xml:space="preserve">"Twelve strangers wake up in a clearing. They don't know where they are -- or how they got there. In the shadow of a dark internet conspiracy theory, ruthless elitists gather at a remote location to hunt humans for sport. But their master plan is about to be derailed when one of the hunted, Crystal, turns the tables on her pursuers.</t>
@@ -1160,10 +875,6 @@
     <t xml:space="preserve"> Action, Horror, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11,148,678        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Craig Zobel</t>
   </si>
   <si>
@@ -1173,7 +884,7 @@
     <t xml:space="preserve">Hexen hexen</t>
   </si>
   <si>
-    <t xml:space="preserve">17,871</t>
+    <t xml:space="preserve">17,937</t>
   </si>
   <si>
     <t xml:space="preserve">Reimagining Roald Dahl's beloved story for a modern audience, Robert Zemeckis's visually innovative film tells the darkly humorous and heartwarming tale of a young orphaned boy who, in late 1967, goes to live with his loving Grandma in the rural Alabama town of Demopolis. As the boy and his grandmother encounter some deceptively glamorous but thoroughly diabolical witches, she wisely whisks him away to a seaside resort. Regrettably, they arrive at precisely the same time that the world's Grand High Witch has gathered her fellow cronies from around the globe-undercover-to carry out her nefarious plans. Zemeckis is joined by a world-class team of filmmakers, including Alfonso Cuarón, Guillermo del Toro and Kenya Barris. The cast includes powerhouse performances from Anne Hathaway, Octavia Spencer, Stanley Tucci, Kristin Chenoweth and Chris Rock, with newcomer Jahzir Kadeen Bruno as the brave young hero.</t>
@@ -1182,13 +893,6 @@
     <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy, Horror, Mystery</t>
   </si>
   <si>
-    <t xml:space="preserve"> 22,100,000        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 106 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Robert Zemeckis</t>
   </si>
   <si>
@@ -1198,22 +902,12 @@
     <t xml:space="preserve">The Secret - Das Geheimnis</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,161</t>
+    <t xml:space="preserve">6,205</t>
   </si>
   <si>
     <t xml:space="preserve">Based on the groundbreaking best-selling book by Rhonda Byrne, The Secret: Dare to Dream follows Miranda (Katie Holmes), a young widow trying to make ends meet while raising her three children and dating her boyfriend (Jerry O'Connell). A devastating storm brings an enormous challenge and a mysterious man, Bray (Josh Lucas), into Miranda's life. Bray reignites the family's spirit but, unbeknownst to Miranda, also holds an important secret - one that will change everything. With its timeless messages of hope, compassion, and gratitude, The Secret: Dare to Dream is an inspiring and heartwarming film that shows how positive thoughts can transform our lives.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3,181,806        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 107 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Andy Tennant</t>
   </si>
   <si>
@@ -1223,7 +917,7 @@
     <t xml:space="preserve">Voces - Die Stimmen</t>
   </si>
   <si>
-    <t xml:space="preserve">5,832</t>
+    <t xml:space="preserve">5,900</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel, Sara and their only son Eric are a happy family that move to an old house in the country. Working as home restaurateurs, Daniel and Sara plans for restoring and sale the house after the job be done change drastically when the own Eric is found dead in the pool close to the house. Broken by the pain, Sara moves to her parents for a days after a strong discussion with him, while Daniel keeps alone in the house. However, at the next night Daniel tapes Eric's voice in his cell phone when he was sending an audio message to apologize Sara. Looking for answers, Daniel meets Germán Redondo, a veteran and renowned writer and supernatural investigator specialized in electronic voice phenomena. Traveling to the house with his daughter Ruth, Germán analyzes Daniel's audio message, installing infrared cameras hoping to find any kind of ghostly activity, while at the same time Ruth tries get closer to her father, still affected by the suicide of his wife (Ruth's mother) happened years ago. ...</t>
@@ -1232,13 +926,6 @@
     <t xml:space="preserve"> Drama, Horror, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 443,458        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ángel Gómez Hernández</t>
   </si>
   <si>
@@ -1248,7 +935,7 @@
     <t xml:space="preserve">Die unglaubliche Geschichte der Roseninsel</t>
   </si>
   <si>
-    <t xml:space="preserve">3,117</t>
+    <t xml:space="preserve">3,415</t>
   </si>
   <si>
     <t xml:space="preserve">In 1968, engineer Giorgio Rosa established the independent state called "The Isle of Roses" off the coast of Rimini, built on a platform outside the territorial waters, with Esperanto as the official language. The Italian authorities did not take it well because the micro nation was seen as an expedient to not pay taxes on the revenues obtained thanks to the arrival of numerous tourists and curious people.</t>
@@ -1257,9 +944,6 @@
     <t xml:space="preserve"> Adventure, Comedy, Drama</t>
   </si>
   <si>
-    <t xml:space="preserve"> 117 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sydney Sibilia</t>
   </si>
   <si>
@@ -1269,7 +953,7 @@
     <t xml:space="preserve">Life in a Year</t>
   </si>
   <si>
-    <t xml:space="preserve">2,039</t>
+    <t xml:space="preserve">2,104</t>
   </si>
   <si>
     <t xml:space="preserve">The movie follows 17-year-old Daryn who finds out that his girlfriend is dying. He sets out to give her an entire life in the last year she has left.</t>
@@ -1284,7 +968,7 @@
     <t xml:space="preserve">Alles Gute kommt von oben</t>
   </si>
   <si>
-    <t xml:space="preserve">7,379</t>
+    <t xml:space="preserve">7,446</t>
   </si>
   <si>
     <t xml:space="preserve">Congressional aide Erica (Graham) forgoes family Christmas to travel at her boss's behest. At a beachside Air Force base, she clashes with Capt. Andrew Jantz (Ludwig), who knows her assignment is finding reasons to defund the facility.</t>
@@ -1302,7 +986,7 @@
     <t xml:space="preserve">Borat: Anschluss Moviefilm</t>
   </si>
   <si>
-    <t xml:space="preserve">94,877</t>
+    <t xml:space="preserve">95,050</t>
   </si>
   <si>
     <t xml:space="preserve">Follow-up film to the 2006 comedy centering on the real-life adventures of a fictional Kazakh television journalist named Borat.</t>
@@ -1320,7 +1004,7 @@
     <t xml:space="preserve">Prinzessinnentausch: Wieder vertauscht</t>
   </si>
   <si>
-    <t xml:space="preserve">5,584</t>
+    <t xml:space="preserve">5,658</t>
   </si>
   <si>
     <t xml:space="preserve">When Duchess Margaret unexpectedly inherits the throne to Montenaro and hits a rough patch with Kevin, it's up to her double Stacy to save the day before a new lookalike, party girl Fiona foils their plans.</t>
@@ -1338,10 +1022,7 @@
     <t xml:space="preserve">Hamilton</t>
   </si>
   <si>
-    <t xml:space="preserve"> 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,271</t>
+    <t xml:space="preserve">49,373</t>
   </si>
   <si>
     <t xml:space="preserve">"Hamilton" is the story of America then, told by America now. Featuring a score that blends hip-hop, jazz, R&amp;B, and show tunes, "Hamilton" has taken the story of American founding father Alexander Hamilton and created a revolutionary moment in theater--a musical that has had a profound impact on culture, politics, and education. Captured at the Richard Rodgers Theater on Broadway in June 2016, the film transports its audience into the world of the Broadway show in a uniquely intimate way.</t>
@@ -1350,9 +1031,6 @@
     <t xml:space="preserve"> Biography, Drama, History, Musical</t>
   </si>
   <si>
-    <t xml:space="preserve"> 160 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Thomas Kail</t>
   </si>
   <si>
@@ -1362,10 +1040,7 @@
     <t xml:space="preserve">Superintelligence</t>
   </si>
   <si>
-    <t xml:space="preserve"> 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,067</t>
+    <t xml:space="preserve">3,113</t>
   </si>
   <si>
     <t xml:space="preserve">Nothing extraordinary ever happens to Carol Peters, so when she starts getting snarky backtalk from her TV, phone and microwave, she thinks she's being punk'd. Or losing her mind. In fact, the world's first super-intelligence has selected her for observation, taking over her life with a bigger, more ominous plan to take over everything. Now Carol is humanity's last chance before this artificial intelligence-with-an-attitude decides to pull the plug.</t>
@@ -1374,10 +1049,6 @@
     <t xml:space="preserve"> Comedy, Romance, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,600,000        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ben Falcone</t>
   </si>
   <si>
@@ -1387,10 +1058,7 @@
     <t xml:space="preserve">Underwater - Es ist erwacht</t>
   </si>
   <si>
-    <t xml:space="preserve"> 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,650</t>
+    <t xml:space="preserve">57,732</t>
   </si>
   <si>
     <t xml:space="preserve">An unknown, massive earthquake happens in a drilling station in the bottom of the Marianna Trench. A scientific crew must find their way across the ocean floor into another station under the threats of deep pressure, dark water, dangerous deep-sea creatures, and a constant lack of oxygen.</t>
@@ -1399,10 +1067,6 @@
     <t xml:space="preserve"> Action, Horror, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40,882,928        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> William Eubank</t>
   </si>
   <si>
@@ -1412,7 +1076,7 @@
     <t xml:space="preserve">Neues aus der Welt</t>
   </si>
   <si>
-    <t xml:space="preserve">25,573</t>
+    <t xml:space="preserve">25,632</t>
   </si>
   <si>
     <t xml:space="preserve">Five years after the end of the Civil War, Captain Jefferson Kyle Kidd (Tom Hanks), a veteran of three wars, now moves from town to town as a non-fiction storyteller, sharing the news of presidents and queens, glorious feuds, devastating catastrophes, and gripping adventures from the far reaches of the globe. On the plains of Texas, he crosses paths with Johanna (Helena Zengel), a 10-year-old taken in by the Kiowa people six years earlier and raised as one of their own. Johanna, hostile to a world she's never experienced, is being returned to her biological aunt and uncle against her will. Kidd agrees to deliver the child where the law says she belongs. As they travel hundreds of miles into the unforgiving wilderness, the two will face tremendous challenges of both human and natural forces as they search for a place that either can call home.</t>
@@ -1421,9 +1085,6 @@
     <t xml:space="preserve"> Action, Adventure, Drama, Western</t>
   </si>
   <si>
-    <t xml:space="preserve"> 118 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Paul Greengrass</t>
   </si>
   <si>
@@ -1433,7 +1094,7 @@
     <t xml:space="preserve">Rebecca</t>
   </si>
   <si>
-    <t xml:space="preserve">537</t>
+    <t xml:space="preserve">545</t>
   </si>
   <si>
     <t xml:space="preserve">After a whirlwind romance in Monte Carlo with handsome widower Maxim de Winter (Armie Hammer), a newly married young woman (Lily James) arrives at Manderley, her new husband's imposing family estate on a windswept English coast. Naive and inexperienced, she begins to settle into the trappings of her new life, but finds herself battling the shadow of Maxim's first wife, the elegant and urbane Rebecca, whose haunting legacy is kept alive by Manderley's sinister housekeeper Mrs. Danvers (Kristin Scott Thomas).</t>
@@ -1442,9 +1103,6 @@
     <t xml:space="preserve"> Drama, Mystery, Romance, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 121 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ben Wheatley</t>
   </si>
   <si>
@@ -1454,9 +1112,6 @@
     <t xml:space="preserve">Soul</t>
   </si>
   <si>
-    <t xml:space="preserve"> 88</t>
-  </si>
-  <si>
     <t xml:space="preserve">A musician who has lost his passion for music is transported out of his body and must find his way back with the help of an infant soul learning about herself.</t>
   </si>
   <si>
@@ -1472,7 +1127,7 @@
     <t xml:space="preserve">9 Kere Leyla</t>
   </si>
   <si>
-    <t xml:space="preserve">5,328</t>
+    <t xml:space="preserve">5,381</t>
   </si>
   <si>
     <t xml:space="preserve">Leyla and Adam have had a happy marriage for years. However, after a while, their marriage becomes a dead end. The excitement in their marriage is now gone, and Adam falls into a love that causes his heart to beat again. Adem, who falls in love with the woman named Nergis who comes across this period, cannot think of anyone other than Nergis. However, Nergis, who took the mind of Adam, has no intention of moving to another life from the one-man world he founded.</t>
@@ -1487,10 +1142,7 @@
     <t xml:space="preserve">I'm Thinking of Ending Things</t>
   </si>
   <si>
-    <t xml:space="preserve"> 78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52,172</t>
+    <t xml:space="preserve">52,285</t>
   </si>
   <si>
     <t xml:space="preserve">Despite second thoughts about their relationship, a young woman (Jessie Buckley) takes a road trip with her new boyfriend (Jesse Plemons) to his family farm. Trapped at the farm during a snowstorm with Jake's mother (Toni Collette) and father (David Thewlis), the young woman begins to question the nature of everything she knew or understood about her boyfriend, herself, and the world. An exploration of regret, longing and the fragility of the human spirit, I'M THINKING OF ENDING THINGS is directed and written by Academy Award® winner Charlie Kaufman (Eternal Sunshine of the Spotless Mind). Inspired by Iain Reid's bestselling namesake novel.</t>
@@ -1499,9 +1151,6 @@
     <t xml:space="preserve"> Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 134 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Charlie Kaufman</t>
   </si>
   <si>
@@ -1511,10 +1160,7 @@
     <t xml:space="preserve">Wolfwalkers</t>
   </si>
   <si>
-    <t xml:space="preserve"> 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,486</t>
+    <t xml:space="preserve">2,698</t>
   </si>
   <si>
     <t xml:space="preserve">In a time of superstition and magic, when wolves are seen as demonic and nature an evil to be tamed, a young apprentice hunter, ROBYN, comes to Ireland with her father to wipe out the last pack. But when Robyn saves a wild native girl, MEBH, their friendship leads her to discover the world of the WOLFWALKERS and transform her into the very thing her father is tasked to destroy.</t>
@@ -1523,10 +1169,6 @@
     <t xml:space="preserve"> Animation, Adventure, Family, Fantasy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 171,900        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tomm Moore, Ross Stewart</t>
   </si>
   <si>
@@ -1536,7 +1178,7 @@
     <t xml:space="preserve">Der Unsichtbare</t>
   </si>
   <si>
-    <t xml:space="preserve">155,006</t>
+    <t xml:space="preserve">155,138</t>
   </si>
   <si>
     <t xml:space="preserve">The film follows Cecilia, who receives the news of her abusive ex-boyfriend's suicide. She begins to re-build her life for the better. However, her sense of reality is put into question when she begins to suspect her deceased lover is not actually dead.</t>
@@ -1545,10 +1187,6 @@
     <t xml:space="preserve"> Drama, Horror, Mystery, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 142,803,000        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Leigh Whannell</t>
   </si>
   <si>
@@ -1558,10 +1196,7 @@
     <t xml:space="preserve">Sputnik</t>
   </si>
   <si>
-    <t xml:space="preserve"> 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,959</t>
+    <t xml:space="preserve">11,003</t>
   </si>
   <si>
     <t xml:space="preserve">At the height of the Cold War, a Soviet spacecraft crash lands after a mission gone awry, leaving the commander as its only survivor. After a renowned Russian psychologist is brought in to evaluate the commander's mental state, it becomes clear that something dangerous may have come back to Earth with him.</t>
@@ -1570,10 +1205,6 @@
     <t xml:space="preserve"> Drama, Horror, Sci-Fi, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 307,062        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Egor Abramenko</t>
   </si>
   <si>
@@ -1583,10 +1214,7 @@
     <t xml:space="preserve">Monster Problems</t>
   </si>
   <si>
-    <t xml:space="preserve"> 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,375</t>
+    <t xml:space="preserve">22,474</t>
   </si>
   <si>
     <t xml:space="preserve">Seven years after the Monsterpocalypse, Joel Dawson (Dylan O'Brien), along with the rest of humanity, has been living underground ever since giant creatures took control of the land. After reconnecting over radio with his high school girlfriend Aimee (Jessica Henwick), who is now 80 miles away at a coastal colony, Joel begins to fall for her again. As Joel realizes that there's nothing left for him underground, he decides against all logic to venture out to Aimee, despite all the dangerous monsters that stand in his way. The fun-filled and action-packed adventure also stars Michael Rooker and Ariana Greenblatt.</t>
@@ -1595,13 +1223,6 @@
     <t xml:space="preserve"> Action, Adventure, Comedy</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,070,714        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 109 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Michael Matthews</t>
   </si>
   <si>
@@ -1611,19 +1232,12 @@
     <t xml:space="preserve">Jiu Jitsu</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,704</t>
+    <t xml:space="preserve">2,736</t>
   </si>
   <si>
     <t xml:space="preserve">When Jake Barnes, a master Jiu Jitsu fighter, refuses to face Brax, an indomitable alien creature, the future of humanity hangs in the balance. Injured and suffering from severe amnesia, Jake is captured by a military squad unequipped to fight the merciless intruder who has descended upon the planet. Jake is rescued by Wylie, and an ancient order of Jiu Jitsu fighters who must help him recover his memory and regain his strength in order to band together and defeat Brax in an epic battle that will determine the fate of mankind.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 47,821        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dimitri Logothetis</t>
   </si>
   <si>
@@ -1633,10 +1247,7 @@
     <t xml:space="preserve">Palm Springs</t>
   </si>
   <si>
-    <t xml:space="preserve"> 83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,761</t>
+    <t xml:space="preserve">60,885</t>
   </si>
   <si>
     <t xml:space="preserve">While stuck at a wedding in Palm Springs, Nyles (Andy Samberg) meets Sarah (Cristin Milioti), the maid of honor and family black sheep. After he rescues her from a disastrous toast, Sarah becomes drawn to Nyles and his offbeat nihilism. But when their impromptu tryst is thwarted by a surreal interruption, Sarah must join Nyles in embracing the idea that nothing really matters, and they begin wreaking spirited havoc on the wedding celebration.</t>
@@ -1645,10 +1256,6 @@
     <t xml:space="preserve"> Comedy, Fantasy, Mystery, Romance</t>
   </si>
   <si>
-    <t xml:space="preserve"> 765,535        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Max Barbakow</t>
   </si>
   <si>
@@ -1658,10 +1265,7 @@
     <t xml:space="preserve">Bill &amp; Ted Face The Music</t>
   </si>
   <si>
-    <t xml:space="preserve"> 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,446</t>
+    <t xml:space="preserve">25,499</t>
   </si>
   <si>
     <t xml:space="preserve">Once told they'd save the universe during a time-traveling adventure, 2 would-be rockers from San Dimas, California find themselves as middle-aged dads still trying to crank out a hit song and fulfill their destiny.</t>
@@ -1670,13 +1274,6 @@
     <t xml:space="preserve"> Adventure, Comedy, Music, Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6,258,081        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dean Parisot</t>
   </si>
   <si>
@@ -1686,7 +1283,7 @@
     <t xml:space="preserve">Ludo</t>
   </si>
   <si>
-    <t xml:space="preserve">23,408</t>
+    <t xml:space="preserve">23,533</t>
   </si>
   <si>
     <t xml:space="preserve">From a resurfaced sex tape to a rogue suitcase of money, four wildly different stories overlap at the whims of fate, chance and one eccentric criminal. Now these misfits, miscreants, lovers and losers are all unwitting pawns in this unpredictable game. The only way home? Keep playing.</t>
@@ -1704,10 +1301,7 @@
     <t xml:space="preserve">The Old Guard</t>
   </si>
   <si>
-    <t xml:space="preserve"> 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118,136</t>
+    <t xml:space="preserve">118,261</t>
   </si>
   <si>
     <t xml:space="preserve">Led by a warrior named Andy (Charlize Theron), a covert group of tight-knit mercenaries with a mysterious inability to die have fought to protect the mortal world for centuries. But when the team is recruited to take on an emergency mission and their extraordinary abilities are suddenly exposed, it's up to Andy and Nile (Kiki Layne), the newest soldier to join their ranks, to help the group eliminate the threat of those who seek to replicate and monetize their power by any means necessary.</t>
@@ -1716,9 +1310,6 @@
     <t xml:space="preserve"> Action, Adventure, Fantasy, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 125 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gina Prince-Bythewood</t>
   </si>
   <si>
@@ -1728,7 +1319,7 @@
     <t xml:space="preserve">La belva</t>
   </si>
   <si>
-    <t xml:space="preserve">2,586</t>
+    <t xml:space="preserve">2,615</t>
   </si>
   <si>
     <t xml:space="preserve">Leonida Riva is a gloomy, solitary war veteran, once Captain of the Army's special forces. Life and work have driven Riva apart from his family. His eldest son, Mattia, has never forgiven him while his daughter, Teresa, loves him unconditionally. However, a tragic event will force Leonida to transform into something he thought he had long buried in the past.</t>
@@ -1743,10 +1334,7 @@
     <t xml:space="preserve">Birds of Prey: The Emancipation of Harley Quinn</t>
   </si>
   <si>
-    <t xml:space="preserve"> 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156,716</t>
+    <t xml:space="preserve">156,841</t>
   </si>
   <si>
     <t xml:space="preserve">A twisted tale told by Harley Quinn herself, when Gotham's most nefariously narcissistic villain, Roman Sionis, and his zealous right-hand, Zsasz, put a target on a young girl named Cass, the city is turned upside down looking for her. Harley, Huntress, Black Canary and Renee Montoya's paths collide, and the unlikely foursome have no choice but to team up to take Roman down.</t>
@@ -1755,10 +1343,6 @@
     <t xml:space="preserve"> Action, Adventure, Comedy, Crime</t>
   </si>
   <si>
-    <t xml:space="preserve"> 201,858,461        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cathy Yan</t>
   </si>
   <si>
@@ -1768,7 +1352,7 @@
     <t xml:space="preserve">Durgamati: The Myth</t>
   </si>
   <si>
-    <t xml:space="preserve">2,773</t>
+    <t xml:space="preserve">2,944</t>
   </si>
   <si>
     <t xml:space="preserve">In the skulduggery world of politics and crime, an innocent Chanchal has to put all on the line to prove her innocence and bring justice to Shakti and the people that he loved so much. As she gets embroiled deep in a web of deceit, Chanchal must face powers both natural and supernatural to fulfil her destiny.</t>
@@ -1777,9 +1361,6 @@
     <t xml:space="preserve"> Horror, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 155 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ashok G.</t>
   </si>
   <si>
@@ -1789,10 +1370,7 @@
     <t xml:space="preserve">Ghosts of War</t>
   </si>
   <si>
-    <t xml:space="preserve"> 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,180</t>
+    <t xml:space="preserve">5,220</t>
   </si>
   <si>
     <t xml:space="preserve">Follows five battle-hardened American soldiers assigned to hold a French Chateau near the end of World War II. Formerly occupied by the Nazi high command, this unexpected respite quickly descends into madness when they encounter a supernatural enemy far more terrifying than anything seen on the battlefield.</t>
@@ -1801,10 +1379,6 @@
     <t xml:space="preserve"> Horror, Thriller, War</t>
   </si>
   <si>
-    <t xml:space="preserve"> 336,607        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Eric Bress</t>
   </si>
   <si>
@@ -1814,7 +1388,7 @@
     <t xml:space="preserve">Ma Rainey's Black Bottom</t>
   </si>
   <si>
-    <t xml:space="preserve">123</t>
+    <t xml:space="preserve">140</t>
   </si>
   <si>
     <t xml:space="preserve">Tensions and temperatures rise over the course of an afternoon recording session in 1920s Chicago as a band of musicians await trailblazing performer, the legendary "Mother of the Blues," Ma Rainey (Academy Award® winner Viola Davis). Late to the session, the fearless, fiery Ma engages in a battle of wills with her white manager and producer over control of her music. As the band waits in the studio's claustrophobic rehearsal room, ambitious trumpeter Levee (Chadwick Boseman) - who has an eye for Ma's girlfriend and is determined to stake his own claim on the music industry - spurs his fellow musicians into an eruption of stories revealing truths that will forever change the course of their lives. Adapted from two-time Pulitzer Prize winner August Wilson's play, MA RAINEY'S BLACK BOTTOM celebrates the transformative power of the blues and the artists who refuse to let society's prejudices dictate their worth. Directed by George C. Wolfe and adapted for the screen by Ruben ...</t>
@@ -1832,16 +1406,13 @@
     <t xml:space="preserve">Dolly Parton's Christmas on the Square</t>
   </si>
   <si>
-    <t xml:space="preserve">1,567</t>
+    <t xml:space="preserve">1,595</t>
   </si>
   <si>
     <t xml:space="preserve">An embittered "Scrooge" of a woman plans to sell her small town, regardless of the consequences to the people who live there.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Comedy, Drama, Family, Musical</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98 </t>
+    <t xml:space="preserve"> Comedy, Family, Musical</t>
   </si>
   <si>
     <t xml:space="preserve"> Debbie Allen</t>
@@ -1853,19 +1424,12 @@
     <t xml:space="preserve">The Wolf of Snow Hollow</t>
   </si>
   <si>
-    <t xml:space="preserve">6,713</t>
+    <t xml:space="preserve">6,769</t>
   </si>
   <si>
     <t xml:space="preserve">Terror grips a small mountain town as bodies are discovered after each full moon. Losing sleep, raising a teenage daughter, and caring for his ailing father, officer Marshall struggles to remind himself there's no such thing as werewolves.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 185,026        
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jim Cummings</t>
   </si>
   <si>
@@ -1875,18 +1439,12 @@
     <t xml:space="preserve">Nomadland</t>
   </si>
   <si>
-    <t xml:space="preserve"> 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,329</t>
+    <t xml:space="preserve">1,349</t>
   </si>
   <si>
     <t xml:space="preserve">Following the economic collapse of a company town in rural Nevada, Fern (Frances McDormand) packs her van and sets off on the road exploring a life outside of conventional society as a modern-day nomad. The third feature film from director Chloé Zhao, NOMADLAND features real nomads Linda May, Swankie and Bob Wells as Fern's mentors and comrades in her exploration through the vast landscape of the American West.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 108 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chloé Zhao</t>
   </si>
   <si>
@@ -1896,7 +1454,7 @@
     <t xml:space="preserve">Tyler Rake: Extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">152,075</t>
+    <t xml:space="preserve">152,153</t>
   </si>
   <si>
     <t xml:space="preserve">In an underworld of weapons dealers and traffickers, a young boy becomes the pawn in a war between notorious drug lords. Trapped by kidnappers inside one of the world's most impenetrable cities, his rescue beckons the unparalleled skill of a mercenary named Tyler Rake, but Rake is a broken man with nothing to lose, harboring a death wish that makes an already deadly mission near impossible.</t>
@@ -1911,7 +1469,7 @@
     <t xml:space="preserve">Black Beauty</t>
   </si>
   <si>
-    <t xml:space="preserve">1,123</t>
+    <t xml:space="preserve">1,145</t>
   </si>
   <si>
     <t xml:space="preserve">A wild horse and a teenage girl forge an unbreakable bond which keeps them connected for a lifetime.</t>
@@ -1929,7 +1487,7 @@
     <t xml:space="preserve">Schon wieder Weihnachten</t>
   </si>
   <si>
-    <t xml:space="preserve">1,821</t>
+    <t xml:space="preserve">1,898</t>
   </si>
   <si>
     <t xml:space="preserve">Stuck in a time loop where it's forever Christmas, a family man who hates the holiday starts to learn valuable lessons about what's important in life.</t>
@@ -1944,7 +1502,7 @@
     <t xml:space="preserve">Wander Darkly</t>
   </si>
   <si>
-    <t xml:space="preserve">220</t>
+    <t xml:space="preserve">232</t>
   </si>
   <si>
     <t xml:space="preserve">New parents Adrienne and Matteo are forced to reckon with trauma amidst their troubled relationship. They must revisit the memories of their past and unravel haunting truths in order to face their uncertain future.</t>
@@ -1959,7 +1517,7 @@
     <t xml:space="preserve">Ruf der Wildnis</t>
   </si>
   <si>
-    <t xml:space="preserve">34,650</t>
+    <t xml:space="preserve">34,704</t>
   </si>
   <si>
     <t xml:space="preserve">The Call of the Wild is a vibrant story of Buck, a big and kindhearted dog, a crossbreed between a St. Bernard and a Scotch Collie, whose carefree life of leisure was suddenly upset when he was stolen from his home in Santa Clara County, California and deported up north, to be sold in Skagway, Alaska, and taken further north, to Dawson City, Yukon, during the late 1890s Klondike Gold Rush, when strong sled dogs were in high demand. As a newcomer to the dog team delivery service - and not before long their front-runner - Buck, a dog like no other, who had been spoiled, and who had suffered, but he could not be broken, is having the time of his life. Forced to fight to survive, eventually taken by his last owner, John Thornton, to proximity of the Arctic Circle, somewhere between Yukon and Alaska, he progressively depends on his primal instincts, sheds the comforts of civilization and responds to "the call of the wild", as master of his own.</t>
@@ -1968,10 +1526,6 @@
     <t xml:space="preserve"> Adventure, Drama, Family</t>
   </si>
   <si>
-    <t xml:space="preserve"> 110,939,029        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chris Sanders</t>
   </si>
   <si>
@@ -1981,7 +1535,7 @@
     <t xml:space="preserve">Bad Boys for Life</t>
   </si>
   <si>
-    <t xml:space="preserve">123,179</t>
+    <t xml:space="preserve">123,252</t>
   </si>
   <si>
     <t xml:space="preserve">Marcus and Mike have to confront new issues (career changes and midlife crises), as they join the newly created elite team AMMO of the Miami police department to take down the ruthless Armando Armas, the vicious leader of a Miami drug cartel.</t>
@@ -1990,10 +1544,6 @@
     <t xml:space="preserve"> Action, Comedy, Crime, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 426,505,244        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adil El Arbi, Bilall Fallah</t>
   </si>
   <si>
@@ -2003,7 +1553,7 @@
     <t xml:space="preserve">Fatale</t>
   </si>
   <si>
-    <t xml:space="preserve">5,081</t>
+    <t xml:space="preserve">5,115</t>
   </si>
   <si>
     <t xml:space="preserve">After a one-night stand, a successful married man finds himself entangled in a cunning police detective's latest investigation.</t>
@@ -2018,7 +1568,7 @@
     <t xml:space="preserve">Blumhouse's Der Hexenclub</t>
   </si>
   <si>
-    <t xml:space="preserve">61,553</t>
+    <t xml:space="preserve">61,639</t>
   </si>
   <si>
     <t xml:space="preserve">A group of high school students form a coven of witches. A sequel to the 1996 film, "The Craft".</t>
@@ -2027,10 +1577,6 @@
     <t xml:space="preserve"> Drama, Fantasy, Horror</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,882,552        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Zoe Lister-Jones</t>
   </si>
   <si>
@@ -2040,7 +1586,7 @@
     <t xml:space="preserve">Greyhound: Schlacht im Atlantik</t>
   </si>
   <si>
-    <t xml:space="preserve">808</t>
+    <t xml:space="preserve">812</t>
   </si>
   <si>
     <t xml:space="preserve">Based upon the novel "The Good Shepherd" by C S Forester, this is the thrilling story of an Allied convoy crossing the North Atlantic in 1942 as it faces relentless attack by a German submarine wolf pack. The leader of the convoy's destroyer screen is a US Navy commander making his first Atlantic crossing. The story focuses on the his command responsibility as he fights the cold, the relentless night, the brutal sea, and his deep fatigue as he chases down the attacking submarines in the deadly game of cat and mouse. The exciting story, a thrilling ride-along with the beleaguered captain, so deeply portrays the elements of battle command that for a long period of time the book was used as a text at the US Naval Academy.</t>
@@ -2073,15 +1619,12 @@
     <t xml:space="preserve">The Very Excellent Mr. Dundee</t>
   </si>
   <si>
-    <t xml:space="preserve">8,512</t>
+    <t xml:space="preserve">8,547</t>
   </si>
   <si>
     <t xml:space="preserve">Aussie Icon Paul Hogan just wants the quiet life. He lives in Brentwood, California, happy in retirement, content doing the daily crossword and enjoying regular calls from Lucy, his delightful 10-year-old granddaughter in Sydney. So, when his agent drops by to tell him he'll be receiving a knighthood for services to comedy, he is less than impressed by this imposition and much to his agents' chagrin, turns down the offer. Paul attempts to return to his tranquil life but Lucy calls; she has excitedly told kids at her new school that granddad has been offered a Knighthood. They laughed at her. What? Paul realises he needs to get the Knighthood to help her salvage her reputation. After much begging and pleading, his agent reluctantly agrees to call the Palace. The Knighthood is back on. The next six weeks, however, see Hogan's brand totally trashed. Although he is always trying to do the right thing and salvage his quickly diminishing reputation, life is conspiring against him. He's ...</t>
   </si>
   <si>
-    <t xml:space="preserve"> 88 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dean Murphy</t>
   </si>
   <si>
@@ -2091,7 +1634,7 @@
     <t xml:space="preserve">SpongeBob Schwammkopf: Eine schwammtastische Rettung</t>
   </si>
   <si>
-    <t xml:space="preserve">34,169</t>
+    <t xml:space="preserve">34,205</t>
   </si>
   <si>
     <t xml:space="preserve">Set before the events of the television series, SpongeBob goes on a trip to Kamp Koral and meets some new friends. However, when his pet snail Gary gets kidnapped by Poseidon and taken to the Lost City of Atlantic City, he and his new best friend Patrick must go on a rescue mission to save him from the dastardly plan of Poseidon before it is too late. The movie will also reveal the first time our beloved characters (as kids) met at Camp...a magical moment that brings meaning to the power of true friendship.</t>
@@ -2100,10 +1643,6 @@
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4,810,790        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tim Hill</t>
   </si>
   <si>
@@ -2113,10 +1652,7 @@
     <t xml:space="preserve">Fantasy Island</t>
   </si>
   <si>
-    <t xml:space="preserve"> 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,164</t>
+    <t xml:space="preserve">4,214</t>
   </si>
   <si>
     <t xml:space="preserve">The enigmatic Mr. Roarke makes the secret dreams of his lucky guests come true at a luxurious but remote tropical resort. But when the fantasies turn into nightmares, the guests have to solve the island's mystery in order to escape with their lives.</t>
@@ -2125,10 +1661,6 @@
     <t xml:space="preserve"> Action, Adventure, Fantasy, Horror, Mystery, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve"> 48,811,343        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jeff Wadlow</t>
   </si>
   <si>
@@ -2144,10 +1676,6 @@
     <t xml:space="preserve"> Horror</t>
   </si>
   <si>
-    <t xml:space="preserve"> 334,022        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bryan Bertino</t>
   </si>
   <si>
@@ -2157,7 +1685,7 @@
     <t xml:space="preserve">Die bunte Seite des Monds</t>
   </si>
   <si>
-    <t xml:space="preserve">9,408</t>
+    <t xml:space="preserve">9,450</t>
   </si>
   <si>
     <t xml:space="preserve">In this animated musical, a girl builds a rocket ship and blasts off, hoping to meet a mythical moon goddess.</t>
@@ -2175,10 +1703,7 @@
     <t xml:space="preserve">Vanguard</t>
   </si>
   <si>
-    <t xml:space="preserve"> 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,737</t>
+    <t xml:space="preserve">1,757</t>
   </si>
   <si>
     <t xml:space="preserve">Covert security company Vanguard is the last hope of survival for an accountant after he is targeted by the world's deadliest mercenary organization.</t>
@@ -2187,10 +1712,6 @@
     <t xml:space="preserve"> Action</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50,573,786        
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Stanley Tong</t>
   </si>
   <si>
@@ -2200,7 +1721,7 @@
     <t xml:space="preserve">Torbaaz</t>
   </si>
   <si>
-    <t xml:space="preserve">1,177</t>
+    <t xml:space="preserve">1,244</t>
   </si>
   <si>
     <t xml:space="preserve">A man rises from personal tragedy to lead a group of children from a refugee camp to victory, transforming their lives through the game of cricket.</t>
@@ -2218,7 +1739,7 @@
     <t xml:space="preserve">His House</t>
   </si>
   <si>
-    <t xml:space="preserve">17,488</t>
+    <t xml:space="preserve">17,587</t>
   </si>
   <si>
     <t xml:space="preserve">A refugee couple makes a harrowing escape from war-torn South Sudan, but then they struggle to adjust to their new life in an English town that has an evil lurking beneath the surface.</t>
@@ -2613,3318 +2134,3322 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2" t="n">
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
         <v>7.6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="n">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2020</v>
       </c>
       <c r="C3" t="n">
         <v>7.2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="n">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2020</v>
       </c>
       <c r="C4" t="n">
         <v>5.6</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
+      <c r="D4" t="n">
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2020</v>
       </c>
       <c r="C5" t="n">
         <v>5.3</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
+      <c r="D5" t="n">
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2020</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+        <v>7.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H6"/>
-      <c r="I6" t="s">
-        <v>53</v>
+      <c r="I6" t="n">
+        <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
+        <v>6.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H7"/>
-      <c r="I7" t="s">
-        <v>61</v>
+      <c r="I7" t="n">
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2020</v>
       </c>
       <c r="C8" t="n">
         <v>6.2</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
+      <c r="D8" t="n">
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2020</v>
       </c>
       <c r="C9" t="n">
         <v>6.7</v>
       </c>
-      <c r="D9" t="s">
-        <v>74</v>
+      <c r="D9" t="n">
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2020</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>83</v>
+      <c r="D10" t="n">
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H10"/>
-      <c r="I10" t="s">
-        <v>87</v>
+      <c r="I10" t="n">
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2020</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>91</v>
+      <c r="D11" t="n">
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" t="s">
-        <v>96</v>
+        <v>32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2020</v>
       </c>
       <c r="C12" t="n">
         <v>6.4</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
+      <c r="D12" t="n">
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
         <v>102</v>
       </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2020</v>
       </c>
       <c r="C13" t="n">
         <v>6.7</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
+      <c r="D13" t="n">
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16</v>
+      </c>
+      <c r="I13" t="n">
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2020</v>
       </c>
       <c r="C14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
+        <v>5.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H14"/>
-      <c r="I14" t="s">
-        <v>119</v>
+      <c r="I14" t="n">
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2020</v>
       </c>
       <c r="C15" t="n">
         <v>6.3</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="n">
+        <v>62</v>
+      </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" t="s">
-        <v>127</v>
+        <v>91</v>
+      </c>
+      <c r="H15" t="n">
+        <v>37</v>
+      </c>
+      <c r="I15" t="n">
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2020</v>
       </c>
       <c r="C16" t="n">
         <v>6.5</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
+      <c r="D16" t="n">
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="H16"/>
-      <c r="I16" t="s">
-        <v>119</v>
+      <c r="I16" t="n">
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2020</v>
       </c>
       <c r="C17" t="n">
         <v>5.9</v>
       </c>
-      <c r="D17" t="s">
-        <v>137</v>
+      <c r="D17" t="n">
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" t="s">
-        <v>142</v>
+        <v>103</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2020</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2020</v>
       </c>
       <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>152</v>
+      <c r="D19" t="n">
+        <v>54</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="H19"/>
-      <c r="I19" t="s">
-        <v>155</v>
+      <c r="I19" t="n">
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
+        <v>117</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2020</v>
       </c>
       <c r="C20" t="n">
         <v>6.1</v>
       </c>
-      <c r="D20" t="s">
-        <v>159</v>
+      <c r="D20" t="n">
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="H20"/>
-      <c r="I20" t="s">
-        <v>163</v>
+      <c r="I20" t="n">
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2020</v>
       </c>
       <c r="C21" t="n">
         <v>6.5</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
+      <c r="D21" t="n">
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H21"/>
-      <c r="I21" t="s">
-        <v>169</v>
+      <c r="I21" t="n">
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2020</v>
       </c>
       <c r="C22" t="n">
         <v>6.7</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
+      <c r="D22" t="n">
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" t="s">
-        <v>177</v>
+        <v>131</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2020</v>
       </c>
       <c r="C23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D23"/>
+        <v>5.2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44</v>
+      </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
+        <v>38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>41</v>
+      </c>
+      <c r="I23" t="n">
+        <v>99</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
+        <v>139</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2020</v>
       </c>
       <c r="C24" t="n">
         <v>6.1</v>
       </c>
-      <c r="D24" t="s">
-        <v>187</v>
+      <c r="D24" t="n">
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="H24"/>
-      <c r="I24" t="s">
-        <v>191</v>
+      <c r="I24" t="n">
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
+        <v>145</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2020</v>
       </c>
       <c r="C25" t="n">
         <v>7.1</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="H25"/>
-      <c r="I25" t="s">
-        <v>87</v>
+      <c r="I25" t="n">
+        <v>112</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
+        <v>151</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2020</v>
       </c>
       <c r="C26" t="n">
         <v>6.7</v>
       </c>
-      <c r="D26" t="s">
-        <v>201</v>
+      <c r="D26" t="n">
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>204</v>
-      </c>
-      <c r="I26" t="s">
-        <v>205</v>
+        <v>56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23</v>
+      </c>
+      <c r="I26" t="n">
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
+        <v>156</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2020</v>
       </c>
       <c r="C27" t="n">
         <v>7.2</v>
       </c>
-      <c r="D27" t="s">
-        <v>209</v>
+      <c r="D27" t="n">
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="H27"/>
-      <c r="I27" t="s">
-        <v>212</v>
+      <c r="I27" t="n">
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
+        <v>161</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2020</v>
       </c>
       <c r="C28" t="n">
         <v>4.4</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" t="s">
-        <v>219</v>
-      </c>
-      <c r="I28" t="s">
-        <v>220</v>
+        <v>164</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
+        <v>167</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2020</v>
       </c>
       <c r="C29" t="n">
         <v>3.3</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H29" t="s">
-        <v>227</v>
-      </c>
-      <c r="I29" t="s">
-        <v>228</v>
+        <v>170</v>
+      </c>
+      <c r="H29" t="n">
+        <v>50</v>
+      </c>
+      <c r="I29" t="n">
+        <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2020</v>
       </c>
       <c r="C30" t="n">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
-        <v>232</v>
+      <c r="D30" t="n">
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" t="s">
-        <v>235</v>
-      </c>
-      <c r="I30" t="s">
-        <v>236</v>
+        <v>170</v>
+      </c>
+      <c r="H30" t="n">
+        <v>39</v>
+      </c>
+      <c r="I30" t="n">
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>239</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
+        <v>178</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2020</v>
       </c>
       <c r="C31" t="n">
         <v>5.3</v>
       </c>
-      <c r="D31" t="s">
-        <v>240</v>
+      <c r="D31" t="n">
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
-      </c>
-      <c r="H31" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="H31" t="n">
+        <v>36</v>
+      </c>
+      <c r="I31" t="n">
+        <v>94</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
+        <v>184</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2020</v>
       </c>
       <c r="C32" t="n">
         <v>4.5</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H32"/>
-      <c r="I32" t="s">
-        <v>251</v>
+      <c r="I32" t="n">
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
+        <v>190</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2020</v>
       </c>
       <c r="C33" t="n">
         <v>6.4</v>
       </c>
-      <c r="D33" t="s">
-        <v>187</v>
+      <c r="D33" t="n">
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H33" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" t="s">
-        <v>259</v>
+        <v>193</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14</v>
+      </c>
+      <c r="I33" t="n">
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
+        <v>196</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2020</v>
       </c>
       <c r="C34" t="n">
         <v>5.6</v>
       </c>
-      <c r="D34" t="s">
-        <v>263</v>
+      <c r="D34" t="n">
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" t="s">
-        <v>267</v>
+        <v>62</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22</v>
+      </c>
+      <c r="I34" t="n">
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
+        <v>201</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2020</v>
       </c>
       <c r="C35" t="n">
         <v>6.7</v>
       </c>
-      <c r="D35" t="s">
-        <v>271</v>
+      <c r="D35" t="n">
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" t="s">
-        <v>275</v>
-      </c>
-      <c r="I35" t="s">
-        <v>191</v>
+        <v>204</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>278</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
+        <v>207</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2020</v>
       </c>
       <c r="C36" t="n">
         <v>5.1</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="H36"/>
-      <c r="I36" t="s">
-        <v>27</v>
+      <c r="I36" t="n">
+        <v>131</v>
       </c>
       <c r="J36" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
+        <v>213</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2020</v>
       </c>
       <c r="C37" t="n">
         <v>7.8</v>
       </c>
-      <c r="D37" t="s">
-        <v>285</v>
+      <c r="D37" t="n">
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
-      </c>
-      <c r="H37" t="s">
-        <v>289</v>
-      </c>
-      <c r="I37" t="s">
-        <v>290</v>
+        <v>216</v>
+      </c>
+      <c r="H37" t="n">
+        <v>21</v>
+      </c>
+      <c r="I37" t="n">
+        <v>129</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>293</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
+        <v>219</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2020</v>
       </c>
       <c r="C38" t="n">
         <v>6.4</v>
       </c>
-      <c r="D38" t="s">
-        <v>294</v>
+      <c r="D38" t="n">
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="G38" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="H38"/>
-      <c r="I38" t="s">
-        <v>191</v>
+      <c r="I38" t="n">
+        <v>113</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>300</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
+        <v>225</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2020</v>
       </c>
       <c r="C39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
+        <v>5.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
-      </c>
-      <c r="H39" t="s">
-        <v>303</v>
-      </c>
-      <c r="I39" t="s">
-        <v>79</v>
+        <v>170</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
+        <v>230</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2020</v>
       </c>
       <c r="C40" t="n">
         <v>4.3</v>
       </c>
-      <c r="D40" t="s">
-        <v>263</v>
+      <c r="D40" t="n">
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="G40" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="H40"/>
-      <c r="I40" t="s">
-        <v>177</v>
+      <c r="I40" t="n">
+        <v>90</v>
       </c>
       <c r="J40" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>312</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
+        <v>236</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2020</v>
       </c>
       <c r="C41" t="n">
         <v>6.1</v>
       </c>
-      <c r="D41" t="s">
-        <v>271</v>
+      <c r="D41" t="n">
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="G41" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="H41"/>
-      <c r="I41" t="s">
-        <v>259</v>
+      <c r="I41" t="n">
+        <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
+        <v>242</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2020</v>
       </c>
       <c r="C42" t="n">
         <v>7.1</v>
       </c>
-      <c r="D42" t="s">
-        <v>115</v>
+      <c r="D42" t="n">
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="G42" t="s">
-        <v>321</v>
-      </c>
-      <c r="H42" t="s">
-        <v>322</v>
-      </c>
-      <c r="I42" t="s">
-        <v>212</v>
+        <v>245</v>
+      </c>
+      <c r="H42" t="n">
+        <v>46</v>
+      </c>
+      <c r="I42" t="n">
+        <v>95</v>
       </c>
       <c r="J42" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>325</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
+        <v>248</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2020</v>
       </c>
       <c r="C43" t="n">
         <v>6.4</v>
       </c>
-      <c r="D43" t="s">
-        <v>326</v>
+      <c r="D43" t="n">
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="G43" t="s">
-        <v>329</v>
-      </c>
-      <c r="H43" t="s">
-        <v>330</v>
-      </c>
-      <c r="I43" t="s">
-        <v>163</v>
+        <v>251</v>
+      </c>
+      <c r="H43" t="n">
+        <v>49</v>
+      </c>
+      <c r="I43" t="n">
+        <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>333</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
+        <v>254</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2020</v>
       </c>
       <c r="C44" t="n">
         <v>7.1</v>
       </c>
-      <c r="D44" t="s">
-        <v>334</v>
+      <c r="D44" t="n">
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="G44" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="H44"/>
-      <c r="I44" t="s">
-        <v>337</v>
+      <c r="I44" t="n">
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="K44" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>340</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
+        <v>259</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2020</v>
       </c>
       <c r="C45" t="n">
         <v>6.6</v>
       </c>
-      <c r="D45" t="s">
-        <v>74</v>
+      <c r="D45" t="n">
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="G45" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="H45"/>
-      <c r="I45" t="s">
-        <v>344</v>
+      <c r="I45" t="n">
+        <v>123</v>
       </c>
       <c r="J45" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="K45" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>347</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
+        <v>265</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2020</v>
       </c>
       <c r="C46" t="n">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
-        <v>137</v>
+      <c r="D46" t="n">
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="G46" t="s">
-        <v>350</v>
-      </c>
-      <c r="H46" t="s">
-        <v>351</v>
-      </c>
-      <c r="I46" t="s">
-        <v>177</v>
+        <v>268</v>
+      </c>
+      <c r="H46" t="n">
+        <v>33</v>
+      </c>
+      <c r="I46" t="n">
+        <v>90</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>354</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
+        <v>271</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2020</v>
       </c>
       <c r="C47" t="n">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
-        <v>65</v>
+      <c r="D47" t="n">
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>357</v>
-      </c>
-      <c r="H47" t="s">
-        <v>358</v>
-      </c>
-      <c r="I47" t="s">
-        <v>177</v>
+        <v>274</v>
+      </c>
+      <c r="H47" t="n">
+        <v>43</v>
+      </c>
+      <c r="I47" t="n">
+        <v>90</v>
       </c>
       <c r="J47" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
+        <v>277</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2020</v>
       </c>
       <c r="C48" t="n">
         <v>6.8</v>
       </c>
-      <c r="D48" t="s">
-        <v>362</v>
+      <c r="D48" t="n">
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="K48" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
+        <v>283</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2020</v>
       </c>
       <c r="C49" t="n">
         <v>6.5</v>
       </c>
-      <c r="D49" t="s">
-        <v>369</v>
+      <c r="D49" t="n">
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="G49" t="s">
-        <v>372</v>
-      </c>
-      <c r="H49" t="s">
-        <v>373</v>
-      </c>
-      <c r="I49" t="s">
-        <v>177</v>
+        <v>286</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>90</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>376</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
+        <v>289</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2020</v>
       </c>
       <c r="C50" t="n">
         <v>5.3</v>
       </c>
-      <c r="D50" t="s">
-        <v>57</v>
+      <c r="D50" t="n">
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s">
-        <v>379</v>
-      </c>
-      <c r="H50" t="s">
-        <v>380</v>
-      </c>
-      <c r="I50" t="s">
-        <v>381</v>
+        <v>292</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="I50" t="n">
+        <v>106</v>
       </c>
       <c r="J50" t="s">
-        <v>382</v>
+        <v>293</v>
       </c>
       <c r="K50" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>384</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
+        <v>295</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2020</v>
       </c>
       <c r="C51" t="n">
         <v>6.4</v>
       </c>
-      <c r="D51" t="s">
-        <v>385</v>
+      <c r="D51" t="n">
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" t="s">
-        <v>388</v>
-      </c>
-      <c r="I51" t="s">
-        <v>389</v>
+        <v>170</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25</v>
+      </c>
+      <c r="I51" t="n">
+        <v>107</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>392</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
+        <v>300</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2020</v>
       </c>
       <c r="C52" t="n">
         <v>6.1</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="G52" t="s">
-        <v>395</v>
-      </c>
-      <c r="H52" t="s">
-        <v>396</v>
-      </c>
-      <c r="I52" t="s">
-        <v>397</v>
+        <v>303</v>
+      </c>
+      <c r="H52" t="n">
+        <v>35</v>
+      </c>
+      <c r="I52" t="n">
+        <v>97</v>
       </c>
       <c r="J52" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="K52" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>400</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
+        <v>306</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2020</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="F53" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s">
-        <v>403</v>
+        <v>309</v>
       </c>
       <c r="H53"/>
-      <c r="I53" t="s">
-        <v>404</v>
+      <c r="I53" t="n">
+        <v>117</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>407</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
+        <v>312</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2020</v>
       </c>
       <c r="C54" t="n">
         <v>4.9</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="H54"/>
-      <c r="I54" t="s">
-        <v>389</v>
+      <c r="I54" t="n">
+        <v>107</v>
       </c>
       <c r="J54" t="s">
-        <v>410</v>
+        <v>315</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>412</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
+        <v>317</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2020</v>
       </c>
       <c r="C55" t="n">
         <v>5.8</v>
       </c>
-      <c r="D55" t="s">
-        <v>57</v>
+      <c r="D55" t="n">
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>319</v>
       </c>
       <c r="G55" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="H55"/>
-      <c r="I55" t="s">
-        <v>212</v>
+      <c r="I55" t="n">
+        <v>95</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="K55" t="s">
-        <v>417</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>418</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
+        <v>323</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2020</v>
       </c>
       <c r="C56" t="n">
         <v>6.7</v>
       </c>
-      <c r="D56" t="s">
-        <v>74</v>
+      <c r="D56" t="n">
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="G56" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="H56"/>
-      <c r="I56" t="s">
-        <v>212</v>
+      <c r="I56" t="n">
+        <v>95</v>
       </c>
       <c r="J56" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="K56" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>424</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
+        <v>329</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2020</v>
       </c>
       <c r="C57" t="n">
         <v>5.3</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="G57" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="H57"/>
-      <c r="I57" t="s">
-        <v>45</v>
+      <c r="I57" t="n">
+        <v>96</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>430</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
+        <v>335</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2020</v>
       </c>
       <c r="C58" t="n">
         <v>8.6</v>
       </c>
-      <c r="D58" t="s">
-        <v>431</v>
+      <c r="D58" t="n">
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="F58" t="s">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="G58" t="s">
-        <v>434</v>
+        <v>338</v>
       </c>
       <c r="H58"/>
-      <c r="I58" t="s">
-        <v>435</v>
+      <c r="I58" t="n">
+        <v>160</v>
       </c>
       <c r="J58" t="s">
-        <v>436</v>
+        <v>339</v>
       </c>
       <c r="K58" t="s">
-        <v>437</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>438</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
+        <v>341</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2020</v>
       </c>
       <c r="C59" t="n">
         <v>5.2</v>
       </c>
-      <c r="D59" t="s">
-        <v>439</v>
+      <c r="D59" t="n">
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>343</v>
       </c>
       <c r="G59" t="s">
-        <v>442</v>
-      </c>
-      <c r="H59" t="s">
-        <v>443</v>
-      </c>
-      <c r="I59" t="s">
-        <v>381</v>
+        <v>344</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>106</v>
       </c>
       <c r="J59" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>446</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
+        <v>347</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2020</v>
       </c>
       <c r="C60" t="n">
         <v>5.8</v>
       </c>
-      <c r="D60" t="s">
-        <v>447</v>
+      <c r="D60" t="n">
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="G60" t="s">
-        <v>450</v>
-      </c>
-      <c r="H60" t="s">
-        <v>451</v>
-      </c>
-      <c r="I60" t="s">
-        <v>212</v>
+        <v>350</v>
+      </c>
+      <c r="H60" t="n">
+        <v>32</v>
+      </c>
+      <c r="I60" t="n">
+        <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>454</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
+        <v>353</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2020</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>355</v>
       </c>
       <c r="G61" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="H61"/>
-      <c r="I61" t="s">
-        <v>458</v>
+      <c r="I61" t="n">
+        <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="K61" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>461</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
+        <v>359</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2020</v>
       </c>
       <c r="C62" t="n">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
-        <v>91</v>
+      <c r="D62" t="n">
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>462</v>
+        <v>360</v>
       </c>
       <c r="F62" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="G62" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="H62"/>
-      <c r="I62" t="s">
-        <v>465</v>
+      <c r="I62" t="n">
+        <v>121</v>
       </c>
       <c r="J62" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="K62" t="s">
-        <v>467</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
+        <v>365</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2020</v>
       </c>
       <c r="C63" t="n">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
-        <v>469</v>
+      <c r="D63" t="n">
+        <v>88</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>470</v>
+        <v>366</v>
       </c>
       <c r="G63" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
       <c r="H63"/>
-      <c r="I63" t="s">
-        <v>142</v>
+      <c r="I63" t="n">
+        <v>100</v>
       </c>
       <c r="J63" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s">
-        <v>473</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>474</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
+        <v>370</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2020</v>
       </c>
       <c r="C64" t="n">
         <v>3.8</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
       <c r="F64" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="G64" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="H64"/>
-      <c r="I64" t="s">
-        <v>87</v>
+      <c r="I64" t="n">
+        <v>112</v>
       </c>
       <c r="J64" t="s">
-        <v>477</v>
+        <v>373</v>
       </c>
       <c r="K64" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>479</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
+        <v>375</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2020</v>
       </c>
       <c r="C65" t="n">
         <v>6.7</v>
       </c>
-      <c r="D65" t="s">
-        <v>480</v>
+      <c r="D65" t="n">
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="F65" t="s">
-        <v>482</v>
+        <v>377</v>
       </c>
       <c r="G65" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="H65"/>
-      <c r="I65" t="s">
-        <v>484</v>
+      <c r="I65" t="n">
+        <v>134</v>
       </c>
       <c r="J65" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="K65" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>487</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
+        <v>381</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2020</v>
       </c>
       <c r="C66" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>488</v>
+        <v>8.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="F66" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="G66" t="s">
-        <v>491</v>
-      </c>
-      <c r="H66" t="s">
-        <v>492</v>
-      </c>
-      <c r="I66" t="s">
-        <v>163</v>
+        <v>384</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15</v>
+      </c>
+      <c r="I66" t="n">
+        <v>103</v>
       </c>
       <c r="J66" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="K66" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>495</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
+        <v>387</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2020</v>
       </c>
       <c r="C67" t="n">
         <v>7.1</v>
       </c>
-      <c r="D67" t="s">
-        <v>326</v>
+      <c r="D67" t="n">
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="F67" t="s">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="G67" t="s">
-        <v>498</v>
-      </c>
-      <c r="H67" t="s">
-        <v>499</v>
-      </c>
-      <c r="I67" t="s">
-        <v>205</v>
+        <v>390</v>
+      </c>
+      <c r="H67" t="n">
+        <v>12</v>
+      </c>
+      <c r="I67" t="n">
+        <v>124</v>
       </c>
       <c r="J67" t="s">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="K67" t="s">
-        <v>501</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>502</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
+        <v>393</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2020</v>
       </c>
       <c r="C68" t="n">
         <v>6.4</v>
       </c>
-      <c r="D68" t="s">
-        <v>503</v>
+      <c r="D68" t="n">
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>504</v>
+        <v>394</v>
       </c>
       <c r="F68" t="s">
-        <v>505</v>
+        <v>395</v>
       </c>
       <c r="G68" t="s">
-        <v>506</v>
-      </c>
-      <c r="H68" t="s">
-        <v>507</v>
-      </c>
-      <c r="I68" t="s">
-        <v>191</v>
+        <v>396</v>
+      </c>
+      <c r="H68" t="n">
+        <v>27</v>
+      </c>
+      <c r="I68" t="n">
+        <v>113</v>
       </c>
       <c r="J68" t="s">
-        <v>508</v>
+        <v>397</v>
       </c>
       <c r="K68" t="s">
-        <v>509</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>510</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
+        <v>399</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2020</v>
       </c>
       <c r="C69" t="n">
         <v>7</v>
       </c>
-      <c r="D69" t="s">
-        <v>511</v>
+      <c r="D69" t="n">
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="F69" t="s">
-        <v>513</v>
+        <v>401</v>
       </c>
       <c r="G69" t="s">
-        <v>514</v>
-      </c>
-      <c r="H69" t="s">
-        <v>515</v>
-      </c>
-      <c r="I69" t="s">
-        <v>516</v>
+        <v>402</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>109</v>
       </c>
       <c r="J69" t="s">
-        <v>517</v>
+        <v>403</v>
       </c>
       <c r="K69" t="s">
-        <v>518</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>519</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
+        <v>405</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2020</v>
       </c>
       <c r="C70" t="n">
         <v>2.9</v>
       </c>
-      <c r="D70" t="s">
-        <v>520</v>
+      <c r="D70" t="n">
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="F70" t="s">
-        <v>522</v>
+        <v>407</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s">
-        <v>523</v>
-      </c>
-      <c r="I70" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="H70" t="n">
+        <v>38</v>
+      </c>
+      <c r="I70" t="n">
+        <v>102</v>
       </c>
       <c r="J70" t="s">
-        <v>524</v>
+        <v>408</v>
       </c>
       <c r="K70" t="s">
-        <v>525</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>526</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
+        <v>410</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2020</v>
       </c>
       <c r="C71" t="n">
         <v>7.4</v>
       </c>
-      <c r="D71" t="s">
-        <v>527</v>
+      <c r="D71" t="n">
+        <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="F71" t="s">
-        <v>529</v>
+        <v>412</v>
       </c>
       <c r="G71" t="s">
-        <v>530</v>
-      </c>
-      <c r="H71" t="s">
-        <v>531</v>
-      </c>
-      <c r="I71" t="s">
-        <v>177</v>
+        <v>413</v>
+      </c>
+      <c r="H71" t="n">
+        <v>47</v>
+      </c>
+      <c r="I71" t="n">
+        <v>90</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>414</v>
       </c>
       <c r="K71" t="s">
-        <v>533</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>534</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
+        <v>416</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
       </c>
       <c r="C72" t="n">
         <v>6.1</v>
       </c>
-      <c r="D72" t="s">
-        <v>535</v>
+      <c r="D72" t="n">
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>536</v>
+        <v>417</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>418</v>
       </c>
       <c r="G72" t="s">
-        <v>538</v>
-      </c>
-      <c r="H72" t="s">
-        <v>539</v>
-      </c>
-      <c r="I72" t="s">
-        <v>540</v>
+        <v>419</v>
+      </c>
+      <c r="H72" t="n">
+        <v>44</v>
+      </c>
+      <c r="I72" t="n">
+        <v>91</v>
       </c>
       <c r="J72" t="s">
-        <v>541</v>
+        <v>420</v>
       </c>
       <c r="K72" t="s">
-        <v>542</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>543</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
+        <v>422</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2020</v>
       </c>
       <c r="C73" t="n">
         <v>7.6</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>544</v>
+        <v>423</v>
       </c>
       <c r="F73" t="s">
-        <v>545</v>
+        <v>424</v>
       </c>
       <c r="G73" t="s">
-        <v>546</v>
+        <v>425</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
       <c r="K73" t="s">
-        <v>548</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>549</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
+        <v>428</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2020</v>
       </c>
       <c r="C74" t="n">
         <v>6.6</v>
       </c>
-      <c r="D74" t="s">
-        <v>550</v>
+      <c r="D74" t="n">
+        <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>551</v>
+        <v>429</v>
       </c>
       <c r="F74" t="s">
-        <v>552</v>
+        <v>430</v>
       </c>
       <c r="G74" t="s">
-        <v>553</v>
+        <v>431</v>
       </c>
       <c r="H74"/>
-      <c r="I74" t="s">
-        <v>554</v>
+      <c r="I74" t="n">
+        <v>125</v>
       </c>
       <c r="J74" t="s">
-        <v>555</v>
+        <v>432</v>
       </c>
       <c r="K74" t="s">
-        <v>556</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>557</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
+        <v>434</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2020</v>
       </c>
       <c r="C75" t="n">
         <v>5.2</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>558</v>
+        <v>435</v>
       </c>
       <c r="F75" t="s">
-        <v>559</v>
+        <v>436</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H75"/>
-      <c r="I75" t="s">
-        <v>397</v>
+      <c r="I75" t="n">
+        <v>97</v>
       </c>
       <c r="J75" t="s">
-        <v>560</v>
+        <v>437</v>
       </c>
       <c r="K75" t="s">
-        <v>561</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>562</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
+        <v>439</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2020</v>
       </c>
       <c r="C76" t="n">
         <v>6.1</v>
       </c>
-      <c r="D76" t="s">
-        <v>563</v>
+      <c r="D76" t="n">
+        <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>564</v>
+        <v>440</v>
       </c>
       <c r="F76" t="s">
-        <v>565</v>
+        <v>441</v>
       </c>
       <c r="G76" t="s">
-        <v>566</v>
-      </c>
-      <c r="H76" t="s">
-        <v>567</v>
-      </c>
-      <c r="I76" t="s">
-        <v>516</v>
+        <v>442</v>
+      </c>
+      <c r="H76" t="n">
+        <v>19</v>
+      </c>
+      <c r="I76" t="n">
+        <v>109</v>
       </c>
       <c r="J76" t="s">
-        <v>568</v>
+        <v>443</v>
       </c>
       <c r="K76" t="s">
-        <v>569</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>570</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
+        <v>445</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2020</v>
       </c>
       <c r="C77" t="n">
         <v>3.9</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>571</v>
+        <v>446</v>
       </c>
       <c r="F77" t="s">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="G77" t="s">
-        <v>573</v>
+        <v>448</v>
       </c>
       <c r="H77"/>
-      <c r="I77" t="s">
-        <v>574</v>
+      <c r="I77" t="n">
+        <v>155</v>
       </c>
       <c r="J77" t="s">
-        <v>575</v>
+        <v>449</v>
       </c>
       <c r="K77" t="s">
-        <v>576</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>577</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
+        <v>451</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2020</v>
       </c>
       <c r="C78" t="n">
         <v>5.5</v>
       </c>
-      <c r="D78" t="s">
-        <v>578</v>
+      <c r="D78" t="n">
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="F78" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="G78" t="s">
-        <v>581</v>
-      </c>
-      <c r="H78" t="s">
-        <v>582</v>
-      </c>
-      <c r="I78" t="s">
-        <v>155</v>
+        <v>454</v>
+      </c>
+      <c r="H78" t="n">
+        <v>28</v>
+      </c>
+      <c r="I78" t="n">
+        <v>94</v>
       </c>
       <c r="J78" t="s">
-        <v>583</v>
+        <v>455</v>
       </c>
       <c r="K78" t="s">
-        <v>584</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>585</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
+        <v>457</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2020</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>488</v>
+        <v>7.2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>586</v>
+        <v>458</v>
       </c>
       <c r="F79" t="s">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="G79" t="s">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="H79"/>
-      <c r="I79" t="s">
-        <v>155</v>
+      <c r="I79" t="n">
+        <v>94</v>
       </c>
       <c r="J79" t="s">
-        <v>589</v>
+        <v>461</v>
       </c>
       <c r="K79" t="s">
-        <v>590</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>591</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
+        <v>463</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2020</v>
       </c>
       <c r="C80" t="n">
         <v>5.2</v>
       </c>
-      <c r="D80" t="s">
-        <v>83</v>
+      <c r="D80" t="n">
+        <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>592</v>
+        <v>464</v>
       </c>
       <c r="F80" t="s">
-        <v>593</v>
+        <v>465</v>
       </c>
       <c r="G80" t="s">
-        <v>594</v>
+        <v>466</v>
       </c>
       <c r="H80"/>
-      <c r="I80" t="s">
-        <v>595</v>
+      <c r="I80" t="n">
+        <v>98</v>
       </c>
       <c r="J80" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
       <c r="K80" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>598</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
+        <v>469</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2020</v>
       </c>
       <c r="C81" t="n">
         <v>6.2</v>
       </c>
-      <c r="D81" t="s">
-        <v>49</v>
+      <c r="D81" t="n">
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>599</v>
+        <v>470</v>
       </c>
       <c r="F81" t="s">
-        <v>600</v>
+        <v>471</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" t="s">
-        <v>601</v>
-      </c>
-      <c r="I81" t="s">
-        <v>602</v>
+        <v>73</v>
+      </c>
+      <c r="H81" t="n">
+        <v>17</v>
+      </c>
+      <c r="I81" t="n">
+        <v>83</v>
       </c>
       <c r="J81" t="s">
-        <v>603</v>
+        <v>472</v>
       </c>
       <c r="K81" t="s">
-        <v>604</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>605</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
+        <v>474</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2020</v>
       </c>
       <c r="C82" t="n">
         <v>7.8</v>
       </c>
-      <c r="D82" t="s">
-        <v>606</v>
+      <c r="D82" t="n">
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>607</v>
+        <v>475</v>
       </c>
       <c r="F82" t="s">
-        <v>608</v>
+        <v>476</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H82"/>
-      <c r="I82" t="s">
-        <v>609</v>
+      <c r="I82" t="n">
+        <v>108</v>
       </c>
       <c r="J82" t="s">
-        <v>610</v>
+        <v>477</v>
       </c>
       <c r="K82" t="s">
-        <v>611</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>612</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
+        <v>479</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2020</v>
       </c>
       <c r="C83" t="n">
         <v>6.7</v>
       </c>
-      <c r="D83" t="s">
-        <v>115</v>
+      <c r="D83" t="n">
+        <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>613</v>
+        <v>480</v>
       </c>
       <c r="F83" t="s">
-        <v>614</v>
+        <v>481</v>
       </c>
       <c r="G83" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="H83"/>
-      <c r="I83" t="s">
-        <v>111</v>
+      <c r="I83" t="n">
+        <v>116</v>
       </c>
       <c r="J83" t="s">
-        <v>615</v>
+        <v>482</v>
       </c>
       <c r="K83" t="s">
-        <v>616</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>617</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
+        <v>484</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2020</v>
       </c>
       <c r="C84" t="n">
         <v>6.3</v>
       </c>
-      <c r="D84" t="s">
-        <v>362</v>
+      <c r="D84" t="n">
+        <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>618</v>
+        <v>485</v>
       </c>
       <c r="F84" t="s">
-        <v>619</v>
+        <v>486</v>
       </c>
       <c r="G84" t="s">
-        <v>620</v>
+        <v>487</v>
       </c>
       <c r="H84"/>
-      <c r="I84" t="s">
-        <v>61</v>
+      <c r="I84" t="n">
+        <v>110</v>
       </c>
       <c r="J84" t="s">
-        <v>621</v>
+        <v>488</v>
       </c>
       <c r="K84" t="s">
-        <v>622</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>623</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
+        <v>490</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2020</v>
       </c>
       <c r="C85" t="n">
         <v>6.7</v>
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>624</v>
+        <v>491</v>
       </c>
       <c r="F85" t="s">
-        <v>625</v>
+        <v>492</v>
       </c>
       <c r="G85" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="H85"/>
-      <c r="I85" t="s">
-        <v>142</v>
+      <c r="I85" t="n">
+        <v>100</v>
       </c>
       <c r="J85" t="s">
-        <v>626</v>
+        <v>493</v>
       </c>
       <c r="K85" t="s">
-        <v>627</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>628</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
+        <v>495</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2020</v>
       </c>
       <c r="C86" t="n">
         <v>5.5</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
+      <c r="D86" t="n">
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>629</v>
+        <v>496</v>
       </c>
       <c r="F86" t="s">
-        <v>630</v>
+        <v>497</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H86"/>
-      <c r="I86" t="s">
-        <v>397</v>
+      <c r="I86" t="n">
+        <v>97</v>
       </c>
       <c r="J86" t="s">
-        <v>631</v>
+        <v>498</v>
       </c>
       <c r="K86" t="s">
-        <v>632</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>633</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
+        <v>500</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2020</v>
       </c>
       <c r="C87" t="n">
         <v>6.8</v>
       </c>
-      <c r="D87" t="s">
-        <v>57</v>
+      <c r="D87" t="n">
+        <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>634</v>
+        <v>501</v>
       </c>
       <c r="F87" t="s">
-        <v>635</v>
+        <v>502</v>
       </c>
       <c r="G87" t="s">
-        <v>636</v>
-      </c>
-      <c r="H87" t="s">
-        <v>637</v>
-      </c>
-      <c r="I87" t="s">
-        <v>142</v>
+        <v>503</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+      <c r="I87" t="n">
+        <v>100</v>
       </c>
       <c r="J87" t="s">
-        <v>638</v>
+        <v>504</v>
       </c>
       <c r="K87" t="s">
-        <v>639</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>640</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
+        <v>506</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2020</v>
       </c>
       <c r="C88" t="n">
         <v>6.6</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="n">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>507</v>
+      </c>
+      <c r="F88" t="s">
+        <v>508</v>
+      </c>
+      <c r="G88" t="s">
+        <v>509</v>
+      </c>
+      <c r="H88" t="n">
+        <v>34</v>
+      </c>
+      <c r="I88" t="n">
+        <v>124</v>
+      </c>
+      <c r="J88" t="s">
+        <v>510</v>
+      </c>
+      <c r="K88" t="s">
         <v>511</v>
-      </c>
-      <c r="E88" t="s">
-        <v>641</v>
-      </c>
-      <c r="F88" t="s">
-        <v>642</v>
-      </c>
-      <c r="G88" t="s">
-        <v>643</v>
-      </c>
-      <c r="H88" t="s">
-        <v>644</v>
-      </c>
-      <c r="I88" t="s">
-        <v>205</v>
-      </c>
-      <c r="J88" t="s">
-        <v>645</v>
-      </c>
-      <c r="K88" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>647</v>
-      </c>
-      <c r="B89" t="s">
-        <v>12</v>
+        <v>512</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2020</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>648</v>
+        <v>513</v>
       </c>
       <c r="F89" t="s">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="G89" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="s">
-        <v>650</v>
+        <v>515</v>
       </c>
       <c r="K89" t="s">
-        <v>651</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>652</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
+        <v>517</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2020</v>
       </c>
       <c r="C90" t="n">
         <v>4.3</v>
       </c>
-      <c r="D90" t="s">
-        <v>152</v>
+      <c r="D90" t="n">
+        <v>54</v>
       </c>
       <c r="E90" t="s">
-        <v>653</v>
+        <v>518</v>
       </c>
       <c r="F90" t="s">
-        <v>654</v>
+        <v>519</v>
       </c>
       <c r="G90" t="s">
-        <v>655</v>
-      </c>
-      <c r="H90" t="s">
-        <v>656</v>
-      </c>
-      <c r="I90" t="s">
-        <v>397</v>
+        <v>520</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>97</v>
       </c>
       <c r="J90" t="s">
-        <v>657</v>
+        <v>521</v>
       </c>
       <c r="K90" t="s">
-        <v>658</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>659</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
+        <v>523</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2020</v>
       </c>
       <c r="C91" t="n">
         <v>7</v>
       </c>
-      <c r="D91" t="s">
-        <v>271</v>
+      <c r="D91" t="n">
+        <v>64</v>
       </c>
       <c r="E91" t="s">
-        <v>660</v>
+        <v>524</v>
       </c>
       <c r="F91" t="s">
-        <v>661</v>
+        <v>525</v>
       </c>
       <c r="G91" t="s">
-        <v>662</v>
+        <v>526</v>
       </c>
       <c r="H91"/>
-      <c r="I91" t="s">
-        <v>540</v>
+      <c r="I91" t="n">
+        <v>91</v>
       </c>
       <c r="J91" t="s">
-        <v>663</v>
+        <v>527</v>
       </c>
       <c r="K91" t="s">
-        <v>664</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>665</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
+        <v>529</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2020</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>666</v>
+        <v>530</v>
       </c>
       <c r="G92" t="s">
-        <v>667</v>
+        <v>531</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>668</v>
+        <v>532</v>
       </c>
       <c r="K92" t="s">
-        <v>669</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>670</v>
-      </c>
-      <c r="B93" t="s">
-        <v>12</v>
+        <v>534</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2020</v>
       </c>
       <c r="C93" t="n">
         <v>4.7</v>
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>671</v>
+        <v>535</v>
       </c>
       <c r="F93" t="s">
-        <v>672</v>
+        <v>536</v>
       </c>
       <c r="G93" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="H93"/>
-      <c r="I93" t="s">
-        <v>673</v>
+      <c r="I93" t="n">
+        <v>88</v>
       </c>
       <c r="J93" t="s">
-        <v>674</v>
+        <v>537</v>
       </c>
       <c r="K93" t="s">
-        <v>675</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>676</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
+        <v>539</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2020</v>
       </c>
       <c r="C94" t="n">
         <v>6</v>
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>677</v>
+        <v>540</v>
       </c>
       <c r="F94" t="s">
-        <v>678</v>
+        <v>541</v>
       </c>
       <c r="G94" t="s">
-        <v>679</v>
-      </c>
-      <c r="H94" t="s">
-        <v>680</v>
-      </c>
-      <c r="I94" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="H94" t="n">
+        <v>31</v>
+      </c>
+      <c r="I94" t="n">
+        <v>91</v>
       </c>
       <c r="J94" t="s">
-        <v>681</v>
+        <v>543</v>
       </c>
       <c r="K94" t="s">
-        <v>682</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>683</v>
-      </c>
-      <c r="B95" t="s">
-        <v>12</v>
+        <v>545</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2020</v>
       </c>
       <c r="C95" t="n">
         <v>4.9</v>
       </c>
-      <c r="D95" t="s">
-        <v>684</v>
+      <c r="D95" t="n">
+        <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>685</v>
+        <v>546</v>
       </c>
       <c r="F95" t="s">
-        <v>686</v>
+        <v>547</v>
       </c>
       <c r="G95" t="s">
-        <v>687</v>
-      </c>
-      <c r="H95" t="s">
-        <v>688</v>
-      </c>
-      <c r="I95" t="s">
-        <v>516</v>
+        <v>548</v>
+      </c>
+      <c r="H95" t="n">
+        <v>40</v>
+      </c>
+      <c r="I95" t="n">
+        <v>109</v>
       </c>
       <c r="J95" t="s">
-        <v>689</v>
+        <v>549</v>
       </c>
       <c r="K95" t="s">
-        <v>690</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>691</v>
-      </c>
-      <c r="B96" t="s">
-        <v>12</v>
+        <v>551</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2020</v>
       </c>
       <c r="C96" t="n">
         <v>6.1</v>
       </c>
-      <c r="D96" t="s">
-        <v>326</v>
+      <c r="D96" t="n">
+        <v>72</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>692</v>
+        <v>552</v>
       </c>
       <c r="G96" t="s">
-        <v>693</v>
-      </c>
-      <c r="H96" t="s">
-        <v>694</v>
-      </c>
-      <c r="I96" t="s">
-        <v>212</v>
+        <v>553</v>
+      </c>
+      <c r="H96" t="n">
+        <v>30</v>
+      </c>
+      <c r="I96" t="n">
+        <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>695</v>
+        <v>554</v>
       </c>
       <c r="K96" t="s">
-        <v>696</v>
+        <v>555</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>697</v>
-      </c>
-      <c r="B97" t="s">
-        <v>12</v>
+        <v>556</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2020</v>
       </c>
       <c r="C97" t="n">
         <v>6.5</v>
       </c>
-      <c r="D97" t="s">
-        <v>563</v>
+      <c r="D97" t="n">
+        <v>60</v>
       </c>
       <c r="E97" t="s">
-        <v>698</v>
+        <v>557</v>
       </c>
       <c r="F97" t="s">
-        <v>699</v>
+        <v>558</v>
       </c>
       <c r="G97" t="s">
-        <v>700</v>
+        <v>559</v>
       </c>
       <c r="H97"/>
-      <c r="I97" t="s">
-        <v>212</v>
+      <c r="I97" t="n">
+        <v>95</v>
       </c>
       <c r="J97" t="s">
-        <v>701</v>
+        <v>560</v>
       </c>
       <c r="K97" t="s">
-        <v>702</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>703</v>
-      </c>
-      <c r="B98" t="s">
-        <v>12</v>
+        <v>562</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2020</v>
       </c>
       <c r="C98" t="n">
         <v>4.6</v>
       </c>
-      <c r="D98" t="s">
-        <v>704</v>
+      <c r="D98" t="n">
+        <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>705</v>
+        <v>563</v>
       </c>
       <c r="F98" t="s">
-        <v>706</v>
+        <v>564</v>
       </c>
       <c r="G98" t="s">
-        <v>707</v>
-      </c>
-      <c r="H98" t="s">
-        <v>708</v>
-      </c>
-      <c r="I98" t="s">
-        <v>389</v>
+        <v>565</v>
+      </c>
+      <c r="H98" t="n">
+        <v>42</v>
+      </c>
+      <c r="I98" t="n">
+        <v>107</v>
       </c>
       <c r="J98" t="s">
-        <v>709</v>
+        <v>566</v>
       </c>
       <c r="K98" t="s">
-        <v>710</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>711</v>
-      </c>
-      <c r="B99" t="s">
-        <v>12</v>
+        <v>568</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2020</v>
       </c>
       <c r="C99" t="n">
         <v>5</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>712</v>
+        <v>569</v>
       </c>
       <c r="F99" t="s">
-        <v>713</v>
+        <v>570</v>
       </c>
       <c r="G99" t="s">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>715</v>
+        <v>572</v>
       </c>
       <c r="K99" t="s">
-        <v>716</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>717</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
+        <v>574</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2020</v>
       </c>
       <c r="C100" t="n">
         <v>6.4</v>
       </c>
-      <c r="D100" t="s">
-        <v>326</v>
+      <c r="D100" t="n">
+        <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>718</v>
+        <v>575</v>
       </c>
       <c r="F100" t="s">
-        <v>719</v>
+        <v>576</v>
       </c>
       <c r="G100" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="H100"/>
-      <c r="I100" t="s">
-        <v>220</v>
+      <c r="I100" t="n">
+        <v>93</v>
       </c>
       <c r="J100" t="s">
-        <v>720</v>
+        <v>577</v>
       </c>
       <c r="K100" t="s">
-        <v>721</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>722</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
+        <v>579</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2020</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>723</v>
+        <v>580</v>
       </c>
       <c r="G101" t="s">
-        <v>724</v>
+        <v>581</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>725</v>
+        <v>582</v>
       </c>
       <c r="K101" t="s">
-        <v>726</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">Runtime..Minutes.</t>
   </si>
   <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actors</t>
   </si>
   <si>
@@ -50,7 +53,7 @@
     <t xml:space="preserve">Tenet</t>
   </si>
   <si>
-    <t xml:space="preserve">202,395</t>
+    <t xml:space="preserve">203,385</t>
   </si>
   <si>
     <t xml:space="preserve">In a twilight world of international espionage, an unnamed CIA operative, known as The Protagonist, is recruited by a mysterious organization called Tenet to participate in a global assignment that unfolds beyond real time. The mission: prevent Andrei Sator, a renegade Russian oligarch with precognition abilities, from starting World War III. The Protagonist will soon master the art of "time inversion" as a way of countering the threat that is to come.</t>
@@ -59,6 +62,9 @@
     <t xml:space="preserve"> Action, Sci-Fi</t>
   </si>
   <si>
+    <t xml:space="preserve"> UK , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Christopher Nolan</t>
   </si>
   <si>
@@ -68,7 +74,7 @@
     <t xml:space="preserve">Mank</t>
   </si>
   <si>
-    <t xml:space="preserve">20,947</t>
+    <t xml:space="preserve">21,176</t>
   </si>
   <si>
     <t xml:space="preserve">1940. Film studio RKO hires 24-year-old wunderkind Orson Welles under a contract that gives him full creative control of his movies. For his first film, he calls in washed-up alcoholic Herman J Mankiewicz to write the screenplay. That film is "Citizen Kane," and this is the story of how it was written.</t>
@@ -77,6 +83,9 @@
     <t xml:space="preserve"> Biography, Comedy, Drama</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> David Fincher</t>
   </si>
   <si>
@@ -86,7 +95,7 @@
     <t xml:space="preserve">Mulan</t>
   </si>
   <si>
-    <t xml:space="preserve">85,664</t>
+    <t xml:space="preserve">85,862</t>
   </si>
   <si>
     <t xml:space="preserve">A young Chinese maiden disguises herself as a male warrior in order to save her father.</t>
@@ -95,6 +104,9 @@
     <t xml:space="preserve"> Action, Adventure, Drama, Family, Fantasy</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Canada , Hong Kong </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Niki Caro</t>
   </si>
   <si>
@@ -104,7 +116,7 @@
     <t xml:space="preserve">Code Ava: Trained to Kill</t>
   </si>
   <si>
-    <t xml:space="preserve">26,350</t>
+    <t xml:space="preserve">26,523</t>
   </si>
   <si>
     <t xml:space="preserve">Lethally beautiful and incredibly efficient in her dangerous line of work, Ava, a taciturn lone wolf and cold-blooded assassin, is starting to develop a conscience. Having beaten her alcohol and substance dependence with the help of Duke, her grizzled mentor of death and father figure, more and more, unstable Ava lets guilt get in the way of closing her "deals", attracting unwanted attention by breaking protocol. As a result, after a botched attempt to liquidate a high-profile target, Ava reunites with her estranged family after eight long years of absence, unaware that she has just signed her death warrant. Now, as Ava tries to settle old scores and reconnect with her loved ones, every killer in the business is after her. Can Ava rely on Duke to have her back?</t>
@@ -122,7 +134,7 @@
     <t xml:space="preserve">Wonder Woman 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">1,307</t>
+    <t xml:space="preserve">1,911</t>
   </si>
   <si>
     <t xml:space="preserve">Fast forward to the 1980s as Wonder Woman's next big screen adventure finds her facing two all-new foes: Max Lord and The Cheetah.</t>
@@ -131,6 +143,9 @@
     <t xml:space="preserve"> Action, Adventure, Fantasy</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , UK , Spain </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Patty Jenkins</t>
   </si>
   <si>
@@ -140,7 +155,7 @@
     <t xml:space="preserve">Die gute Fee</t>
   </si>
   <si>
-    <t xml:space="preserve">4,351</t>
+    <t xml:space="preserve">4,423</t>
   </si>
   <si>
     <t xml:space="preserve">A young and unskilled fairy godmother ventures out on her own to prove her worth by tracking down a young girl whose request for help was ignored.</t>
@@ -158,7 +173,7 @@
     <t xml:space="preserve">The Prom</t>
   </si>
   <si>
-    <t xml:space="preserve">8,949</t>
+    <t xml:space="preserve">9,199</t>
   </si>
   <si>
     <t xml:space="preserve">A troupe of hilariously self-obsessed theater stars swarm into a small conservative Indiana town in support of a high school girl who wants to take her girlfriend to the prom.</t>
@@ -176,7 +191,7 @@
     <t xml:space="preserve">Happiest Season</t>
   </si>
   <si>
-    <t xml:space="preserve">16,188</t>
+    <t xml:space="preserve">16,315</t>
   </si>
   <si>
     <t xml:space="preserve">Meeting your girlfriend's family for the first time can be tough. Planning to propose at her family's annual Christmas dinner - until you realize that they don't even know she's gay - is even harder. When Abby (Kristen Stewart) learns that Harper (Mackenzie Davis) has kept their relationship a secret from her family, she begins to question the girlfriend she thought she knew.</t>
@@ -185,6 +200,9 @@
     <t xml:space="preserve"> Comedy, Drama, Romance</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Canada </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Clea DuVall</t>
   </si>
   <si>
@@ -194,7 +212,7 @@
     <t xml:space="preserve">The Christmas Chronicles: Teil zwei</t>
   </si>
   <si>
-    <t xml:space="preserve">12,199</t>
+    <t xml:space="preserve">12,327</t>
   </si>
   <si>
     <t xml:space="preserve">Kate Pierce, now a cynical teen, is unexpectedly reunited with Santa Claus when a mysterious troublemaker threatens to cancel Christmas - forever.</t>
@@ -203,6 +221,9 @@
     <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy</t>
   </si>
   <si>
+    <t xml:space="preserve"> Canada </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Chris Columbus</t>
   </si>
   <si>
@@ -212,7 +233,7 @@
     <t xml:space="preserve">Honest Thief</t>
   </si>
   <si>
-    <t xml:space="preserve">11,623</t>
+    <t xml:space="preserve">11,808</t>
   </si>
   <si>
     <t xml:space="preserve">They call him the In-and-Out-Bandit because meticulous thief Tom Carter (Liam Neeson) has stolen $9 million from small-town banks while managing to keep his identity a secret. But after he falls in love with the bubbly Annie (Kate Walsh), Tom decides to make a fresh start by coming clean about his criminal past, only to be double-crossed by two ruthless FBI agents.</t>
@@ -227,7 +248,7 @@
     <t xml:space="preserve">Freaky</t>
   </si>
   <si>
-    <t xml:space="preserve">12,417</t>
+    <t xml:space="preserve">12,544</t>
   </si>
   <si>
     <t xml:space="preserve">After swapping bodies with a deranged serial killer, a young girl in high school discovers she has less than 24 hours before the change becomes permanent.</t>
@@ -245,7 +266,7 @@
     <t xml:space="preserve">Hillbilly Elegy</t>
   </si>
   <si>
-    <t xml:space="preserve">15,461</t>
+    <t xml:space="preserve">15,529</t>
   </si>
   <si>
     <t xml:space="preserve">Based on the bestselling memoir by J.D. Vance, HILLBILLY ELEGY is a modern exploration of the American Dream and three generations of an Appalachian family as told by its youngest member, a Yale Law student forced to return to his hometown.</t>
@@ -263,7 +284,7 @@
     <t xml:space="preserve">The Midnight Sky</t>
   </si>
   <si>
-    <t xml:space="preserve">363</t>
+    <t xml:space="preserve">381</t>
   </si>
   <si>
     <t xml:space="preserve">This post-apocalyptic tale follows Augustine, a lonely scientist in the Arctic, as he races to stop Sully and her fellow astronauts from returning home to a mysterious global catastrophe.</t>
@@ -281,7 +302,7 @@
     <t xml:space="preserve">Greenland</t>
   </si>
   <si>
-    <t xml:space="preserve">30,663</t>
+    <t xml:space="preserve">30,814</t>
   </si>
   <si>
     <t xml:space="preserve">A family fights for survival as a planet-killing comet races to Earth. John Garrity (Gerard Butler), his estranged wife Allison (Morena Baccarin), and young son Nathan make a perilous journey to their only hope for sanctuary. Amid terrifying news accounts of cities around the world being leveled by the comet's fragments, the Garritys experience the best and worst in humanity while they battle the increasing panic and lawlessness surrounding them. As the countdown to global apocalypse approaches zero, their incredible trek culminates in a desperate and last-minute flight to a possible safe haven.</t>
@@ -290,6 +311,9 @@
     <t xml:space="preserve"> Action, Drama, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , UK </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ric Roman Waugh</t>
   </si>
   <si>
@@ -299,7 +323,7 @@
     <t xml:space="preserve">Jingle Jangle Journey: Abenteuerliche Weihnachten!</t>
   </si>
   <si>
-    <t xml:space="preserve">9,710</t>
+    <t xml:space="preserve">9,780</t>
   </si>
   <si>
     <t xml:space="preserve">In the gloriously vibrant town of Cobbleton, legendary toymaker Jeronicus Jangle's (Forest Whitaker) fanciful inventions burst with whimsy and wonder. But when his trusted apprentice (Keegan-Michael Key) steals his most prized creation, it's up to his equally bright and inventive granddaughter (Madalen Mills) - and a long-forgotten invention - to heal old wounds and reawaken the magic within.</t>
@@ -317,7 +341,7 @@
     <t xml:space="preserve">Fatman</t>
   </si>
   <si>
-    <t xml:space="preserve">9,218</t>
+    <t xml:space="preserve">9,328</t>
   </si>
   <si>
     <t xml:space="preserve">A rowdy, unorthodox Santa Claus is fighting to save his declining business. Meanwhile, Billy, a neglected and precocious 12 year old, hires a hit man to kill Santa after receiving a lump of coal in his stocking.</t>
@@ -326,6 +350,9 @@
     <t xml:space="preserve"> Action, Comedy, Fantasy, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> UK , Canada , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Eshom Nelms, Ian Nelms</t>
   </si>
   <si>
@@ -335,7 +362,7 @@
     <t xml:space="preserve">We Can Be Heroes</t>
   </si>
   <si>
-    <t xml:space="preserve">1,826</t>
+    <t xml:space="preserve">1,846</t>
   </si>
   <si>
     <t xml:space="preserve">When alien invaders kidnap Earth's superheroes, their kids are whisked away to a government safe house. But whip-smart tween Missy Moreno will stop at nothing to rescue her superhero dad, Marcus Moreno. Missy teams up with the rest of the superkids to escape their mysterious government babysitter, Ms. Granada. If they're going to save their parents, they'll have to work together by using their individual powers - from elasticity to time control to predicting the future - and form an out-of-this-world team.</t>
@@ -359,6 +386,9 @@
     <t xml:space="preserve"> Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> Canada , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> April Mullen</t>
   </si>
   <si>
@@ -368,7 +398,7 @@
     <t xml:space="preserve">Holidate</t>
   </si>
   <si>
-    <t xml:space="preserve">34,140</t>
+    <t xml:space="preserve">34,279</t>
   </si>
   <si>
     <t xml:space="preserve">Randomly meeting at a store return counter introduces Sloane to Jackson. Both tired of nightmare dates (him) and meddling family (her) during the holidays, they strike an arrangement, whereby they meet as a couple only during the holidays to make life at the very least tolerable. Slowly, so slowly, while scoffing at the cliches of romance (and to their surprise), their relationship grows into something deeper.</t>
@@ -386,7 +416,7 @@
     <t xml:space="preserve">Black Bear</t>
   </si>
   <si>
-    <t xml:space="preserve">2,354</t>
+    <t xml:space="preserve">2,381</t>
   </si>
   <si>
     <t xml:space="preserve">At a remote lake house in the Adirondack Mountains, a couple entertains an out-of-town guest looking for inspiration in her filmmaking. The group quickly falls into a calculated game of desire, manipulation, and jealousy, unaware of how dangerously convoluted their lives will soon become in the filmmaker's pursuit of a work of art, which blurs the boundaries between autobiography and invention.</t>
@@ -401,7 +431,7 @@
     <t xml:space="preserve">Run</t>
   </si>
   <si>
-    <t xml:space="preserve">15,369</t>
+    <t xml:space="preserve">15,463</t>
   </si>
   <si>
     <t xml:space="preserve">Chloe, a teenager who is confined to a wheelchair, is home schooled by her mother, However, her mother's strange behavior doesn't go unnoticed and when Chloe pries into some private papers, she discovers a Change of Name Certificate document with her mother's name, Diane Sherman, on it. When Chloe googles "Diane Sherman," the internet suddenly disconnnects. Chloe becomes suspicious of all that her mother does, suspecting her of something sinister. She decides to go on the run in her wheelchair in a desperate attempt to get away from her.</t>
@@ -419,12 +449,15 @@
     <t xml:space="preserve">Monster Hunter</t>
   </si>
   <si>
-    <t xml:space="preserve">1,137</t>
+    <t xml:space="preserve">1,174</t>
   </si>
   <si>
     <t xml:space="preserve">When Lt. Artemis and her loyal soldiers are transported to a new world, they engage in a desperate battle for survival against enormous enemies with incredible powers. Feature film based on the video game by Capcom.</t>
   </si>
   <si>
+    <t xml:space="preserve"> China , Germany , Japan , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Paul W.S. Anderson</t>
   </si>
   <si>
@@ -434,7 +467,7 @@
     <t xml:space="preserve">Let Them All Talk</t>
   </si>
   <si>
-    <t xml:space="preserve">2,053</t>
+    <t xml:space="preserve">2,128</t>
   </si>
   <si>
     <t xml:space="preserve">A famous author goes on a cruise trip with her friends and nephew in an effort to find fun and happiness while she comes to terms with her troubled past.</t>
@@ -452,7 +485,7 @@
     <t xml:space="preserve">Call</t>
   </si>
   <si>
-    <t xml:space="preserve">8,882</t>
+    <t xml:space="preserve">8,981</t>
   </si>
   <si>
     <t xml:space="preserve">Two people live in different times. Seo-Yeon lives in the present and Young-Sook lives in the past. One phone call connects the two, and their lives are changed irrevocably.</t>
@@ -461,6 +494,9 @@
     <t xml:space="preserve"> Crime, Horror, Mystery, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> South Korea </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Chung-Hyun Lee</t>
   </si>
   <si>
@@ -470,12 +506,15 @@
     <t xml:space="preserve">Emma</t>
   </si>
   <si>
-    <t xml:space="preserve">25,912</t>
+    <t xml:space="preserve">25,937</t>
   </si>
   <si>
     <t xml:space="preserve">Jane Austen's beloved comedy about finding your equal and earning your happy ending, is reimagined in this. Handsome, clever, and rich, Emma Woodhouse is a restless queen bee without rivals in her sleepy little town. In this glittering satire of social class and the pain of growing up, Emma must adventure through misguided matches and romantic missteps to find the love that has been there all along.</t>
   </si>
   <si>
+    <t xml:space="preserve"> UK </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Autumn de Wilde</t>
   </si>
   <si>
@@ -485,7 +524,7 @@
     <t xml:space="preserve">Uncle Frank</t>
   </si>
   <si>
-    <t xml:space="preserve">6,330</t>
+    <t xml:space="preserve">6,388</t>
   </si>
   <si>
     <t xml:space="preserve">In 1973, when Frank Bledsoe and his 18-year-old niece Beth take a road trip from Manhattan to Creekville, South Carolina, for the family patriarch's funeral, they're unexpectedly joined by Frank's lover, Walid.</t>
@@ -500,7 +539,7 @@
     <t xml:space="preserve">The 2nd</t>
   </si>
   <si>
-    <t xml:space="preserve">3,876</t>
+    <t xml:space="preserve">3,887</t>
   </si>
   <si>
     <t xml:space="preserve">Special forces agent Vic Davis is on his way to pick up his estranged son, Sean, from his college campus when he finds himself in the middle of a high-stakes terrorist operation. His son's friend Erin Walton, the daughter of Supreme Court Justice Walton is the target, and this armed faction will stop at nothing to kidnap her and use her as leverage for a pending landmark legal case.</t>
@@ -518,7 +557,7 @@
     <t xml:space="preserve">365 Days</t>
   </si>
   <si>
-    <t xml:space="preserve">45,706</t>
+    <t xml:space="preserve">45,727</t>
   </si>
   <si>
     <t xml:space="preserve">Massimo Torricelli, a young and handsome boss of a Sicilian Mafia family, has no other option but to take over after his father has been assassinated. Laura is a sales director in a luxurious hotel in Warsaw. She has a successful career, but her private life lacks passion. She is taking one last shot to save her relationship. Together with her bone-headed boyfriend, Martin and some other friends, she takes a trip to Sicily. She does not expect that Massimo, the most dangerous man on the island, will get in her way, kidnap her, hold her captive and give her 365 days - to fall in love with him.</t>
@@ -527,6 +566,9 @@
     <t xml:space="preserve"> Drama, Romance</t>
   </si>
   <si>
+    <t xml:space="preserve"> Poland </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Barbara Bialowas, Tomasz Mandes</t>
   </si>
   <si>
@@ -536,7 +578,7 @@
     <t xml:space="preserve">After Truth</t>
   </si>
   <si>
-    <t xml:space="preserve">12,731</t>
+    <t xml:space="preserve">12,757</t>
   </si>
   <si>
     <t xml:space="preserve">Tessa has everything to lose. Hardin has nothing to lose. - except her. After We Collided - Life will never be the same. After a tumultuous beginning to their relationship, Tessa and Hardin were on the path to making things work. Tessa knew Hardin could be cruel, but when a bombshell revelation is dropped about the origins of their relationship - and Hardin's mysterious past - Tessa is beside herself. Hardin will always be - Hardin. But is he really the deep, thoughtful guy Tessa fell madly in love with despite his angry exterior - or has he been a stranger all along? She wishes she could walk away. It's just not that easy. Hardin knows he made a mistake, possibly the biggest one of his life. He's not going down without a fight. But can he change? Will he change - for love? Yes, yes he will.</t>
@@ -551,7 +593,7 @@
     <t xml:space="preserve">X-Men: New Mutants</t>
   </si>
   <si>
-    <t xml:space="preserve">34,332</t>
+    <t xml:space="preserve">34,412</t>
   </si>
   <si>
     <t xml:space="preserve">After a near-death experience during a strange tornado, Danielle Moonstar awakens in an abandoned research facility run by the mysterious Dr Cecilia Reyes. There, Dr Reyes introduces Dani to four other equally uncommon teenagers: Illyana Rasputin, Rahne Sinclair, Sam Guthrie, and Roberto da Costa, who wants to keep them safe and sound until they learn how to be in full control of their extraordinary abilities. However, even though the exceptional team of traumatised inmates believes that they're being treated and cared for, before long, they all start to experience horrifying hallucinations. But, this institution was supposed to be a safe place. Are they patients or prisoners?</t>
@@ -569,7 +611,7 @@
     <t xml:space="preserve">What Lies Below</t>
   </si>
   <si>
-    <t xml:space="preserve">887</t>
+    <t xml:space="preserve">907</t>
   </si>
   <si>
     <t xml:space="preserve">A 16 year-old girl returns home from camp and learns that her mother has a new boyfriend, one she intends to marry; a man whose charm, intelligence and beauty make him look like he's not human at all.</t>
@@ -587,7 +629,7 @@
     <t xml:space="preserve">Ammonite</t>
   </si>
   <si>
-    <t xml:space="preserve">3,069</t>
+    <t xml:space="preserve">3,120</t>
   </si>
   <si>
     <t xml:space="preserve">In 1840s England, acclaimed but overlooked fossil hunter Mary Anning (Kate Winslet) works alone on the rugged Southern coastline. With the days of her famed discoveries behind her, she now searches for common fossils to sell to tourists to support herself and her ailing mother. When a wealthy visitor entrusts Mary with the care of his wife Charlotte Murchison (Saoirse Ronan), she cannot afford to turn his offer down. Proud and relentlessly passionate about her work, Mary initially clashes with her unwelcome guest, but despite the distance between their social class and personalities, an intense bond begins to develop, compelling the two women to determine the true nature of their relationship.</t>
@@ -596,6 +638,9 @@
     <t xml:space="preserve"> Biography, Drama, Romance</t>
   </si>
   <si>
+    <t xml:space="preserve"> UK , Australia , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Francis Lee</t>
   </si>
   <si>
@@ -605,12 +650,15 @@
     <t xml:space="preserve">Die fantastische Reise des Dr. Dolittle</t>
   </si>
   <si>
-    <t xml:space="preserve">44,511</t>
+    <t xml:space="preserve">44,528</t>
   </si>
   <si>
     <t xml:space="preserve">After his wife's death, Dr. John Dolittle (Robert Downey, Jr.) decided to hide from the world with his beloved animals. But he has to take a journey to a mysterious island to find a healing tree, which is the only medicine that can help the dying Queen Victoria (Jessie Buckley) in Buckingham Palace.</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , China , UK , Japan </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Stephen Gaghan</t>
   </si>
   <si>
@@ -620,7 +668,7 @@
     <t xml:space="preserve">Let Him Go</t>
   </si>
   <si>
-    <t xml:space="preserve">6,381</t>
+    <t xml:space="preserve">6,422</t>
   </si>
   <si>
     <t xml:space="preserve">A retired sheriff and his wife, grieving over the death of their son, set out to find their only grandson.</t>
@@ -638,7 +686,7 @@
     <t xml:space="preserve">Monsters of Man</t>
   </si>
   <si>
-    <t xml:space="preserve">1,340</t>
+    <t xml:space="preserve">1,361</t>
   </si>
   <si>
     <t xml:space="preserve">A robotics company teams up with a corrupt CIA agent undergoing an illegal, unsanctioned military operation. Dropping four prototype robots into a suspected drug manufacturing camp in the Golden triangle that no one will miss. The mission is to prove the robotics company is worthy of winning a lucrative military contract. Six doctors on a good cause witness the brutal slaughter of an innocent village and are forced into a deadly game of cat and mouse as they become the new targets.</t>
@@ -647,6 +695,9 @@
     <t xml:space="preserve"> Sci-Fi</t>
   </si>
   <si>
+    <t xml:space="preserve"> Australia </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mark Toia</t>
   </si>
   <si>
@@ -656,7 +707,7 @@
     <t xml:space="preserve">The Trial of the Chicago 7</t>
   </si>
   <si>
-    <t xml:space="preserve">70,308</t>
+    <t xml:space="preserve">70,442</t>
   </si>
   <si>
     <t xml:space="preserve">In Chicago 1968, the Democratic Party Convention was met with protests from activists like the moderate Students for a Democratic Society led by Tom Hayden and the militant Yippies led by Abbie Hoffman and Jerry Rubin, which led to violent confrontations with the local authorities. As a result, seven of the accused ringleaders are arraigned on charges like Conspiracy by the hostile Nixon administration, including Bobby Seale of the Black Panthers who was not involved in the incident. What follows is an unfair trial presided by the belligerent Judge Hoffman (No relation) and prosecuted by a reluctant but duty-bound Richard Schultz. As their pro bono lawyers face such odds, Hayden and his fellows are frustrated by the Yippies' outrageous antics undermining their defense in defiance of the system even while Seale is denied a chance to defend himself his way. Along the way, the Chicago 7 clash in their political philosophies even as they learn they need each other in this fight.</t>
@@ -665,6 +716,9 @@
     <t xml:space="preserve"> Drama, History, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , UK , India </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Aaron Sorkin</t>
   </si>
   <si>
@@ -674,7 +728,7 @@
     <t xml:space="preserve">Promising Young Woman</t>
   </si>
   <si>
-    <t xml:space="preserve">732</t>
+    <t xml:space="preserve">734</t>
   </si>
   <si>
     <t xml:space="preserve">A young woman, traumatized by a tragic event in her past, seeks out vengeance against those who cross her path.</t>
@@ -686,18 +740,21 @@
     <t xml:space="preserve"> Emerald Fennell</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carey Mulligan, Bo Burnham, Laverne Cox, Alison Brie </t>
+    <t xml:space="preserve"> Carey Mulligan, Bo Burnham, Alison Brie, Clancy Brown </t>
   </si>
   <si>
     <t xml:space="preserve">Wild Mountain Thyme</t>
   </si>
   <si>
-    <t xml:space="preserve">579</t>
+    <t xml:space="preserve">599</t>
   </si>
   <si>
     <t xml:space="preserve">John Patrick Shanley, who created the classic MOONSTRUCK, brings his sweeping romantic vision to Ireland with Wild Mountain Thyme. The headstrong farmer Rosemary Muldoon (Emily Blunt) has her heart set on winning her neighbor Anthony Reilly's love. The problem is Anthony (Jamie Dornan) seems to have inherited a family curse, and remains oblivious to his beautiful admirer. Stung by his father Tony's (Christopher Walken) plans to sell the family farm to his American nephew (Jon Hamm), Anthony is jolted into pursuing his dreams in this comedic, moving and wildly romantic tale.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ireland , UK </t>
+  </si>
+  <si>
     <t xml:space="preserve"> John Patrick Shanley</t>
   </si>
   <si>
@@ -707,7 +764,7 @@
     <t xml:space="preserve">Songbird</t>
   </si>
   <si>
-    <t xml:space="preserve">1,041</t>
+    <t xml:space="preserve">1,080</t>
   </si>
   <si>
     <t xml:space="preserve">In 2024 a pandemic ravages the world and its cities. Centering on a handful of people as they navigate the obstacles currently hindering society: disease, martial law, quarantine, and vigilantes.</t>
@@ -725,7 +782,7 @@
     <t xml:space="preserve">I'm Your Woman</t>
   </si>
   <si>
-    <t xml:space="preserve">1,458</t>
+    <t xml:space="preserve">1,509</t>
   </si>
   <si>
     <t xml:space="preserve">In this 1970s set crime drama, a woman is forced to go on the run after her husband betrays his partners, sending her and her baby on a dangerous journey.</t>
@@ -743,7 +800,7 @@
     <t xml:space="preserve">Die Croods - Alles auf Anfang</t>
   </si>
   <si>
-    <t xml:space="preserve">1,464</t>
+    <t xml:space="preserve">1,672</t>
   </si>
   <si>
     <t xml:space="preserve">The prehistoric family the Croods are challenged by a rival family the Bettermans, who claim to be better and more evolved.</t>
@@ -761,7 +818,7 @@
     <t xml:space="preserve">Possessor</t>
   </si>
   <si>
-    <t xml:space="preserve">10,437</t>
+    <t xml:space="preserve">10,488</t>
   </si>
   <si>
     <t xml:space="preserve">Tasya Vos is a corporate agent who uses brain-implant technology to inhabit other people's bodies, driving them to commit assassinations for the benefit of the company. While she has a special gift for the work, her experiences on these jobs have caused a dramatic change in her, and in her own life she struggles to suppress violent memories and urges. As her mental strain intensifies, she begins to lose control, and soon she finds herself trapped in the mind of a man whose identity threatens to obliterate her own.</t>
@@ -770,6 +827,9 @@
     <t xml:space="preserve"> Horror, Sci-Fi, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> Canada , UK </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Brandon Cronenberg</t>
   </si>
   <si>
@@ -779,7 +839,7 @@
     <t xml:space="preserve">The Devil All the Time</t>
   </si>
   <si>
-    <t xml:space="preserve">80,813</t>
+    <t xml:space="preserve">80,877</t>
   </si>
   <si>
     <t xml:space="preserve">Set in rural southern Ohio and West Virginia, The Devil All the Time follows a cast of compelling and bizarre characters from the end of World War II to the 1960s. There's Willard Russell, tormented veteran of the carnage in the South Pacific, who can't save his beautiful wife, Charlotte, from an agonizing death by cancer no matter how much sacrificial blood he pours on his "prayer log." There's Carl and Sandy Henderson, a husband-and-wife team of serial killers, who troll America's highways searching for suitable models to photograph and exterminate. There's the spider-handling preacher Roy and his crippled virtuoso-guitar-playing sidekick, Theodore, running from the law. And caught in the middle of all this is Arvin Eugene Russell, Willard and Charlotte's orphaned son, who grows up to be a good but also violent man in his own right.</t>
@@ -794,7 +854,7 @@
     <t xml:space="preserve">Enola Holmes</t>
   </si>
   <si>
-    <t xml:space="preserve">112,078</t>
+    <t xml:space="preserve">112,171</t>
   </si>
   <si>
     <t xml:space="preserve">England, 1884 - a world on the brink of change. On the morning of her 16th birthday, Enola Holmes (Millie Bobby Brown) wakes to find that her mother (Helena Bonham Carter) has disappeared, leaving behind an odd assortment of gifts but no apparent clue as to where she's gone or why. After a free-spirited childhood, Enola suddenly finds herself under the care of her brothers Sherlock (Henry Cavill) and Mycroft (Sam Claflin), both set on sending her away to a finishing school for "proper" young ladies. Refusing to follow their wishes, Enola escapes to search for her mother in London. But when her journey finds her entangled in a mystery surrounding a young runaway Lord (Louis Partridge), Enola becomes a super-sleuth in her own right, outwitting her famous brother as she unravels a conspiracy that threatens to set back the course of history.</t>
@@ -812,7 +872,7 @@
     <t xml:space="preserve">Unhinged - Außer Kontrolle</t>
   </si>
   <si>
-    <t xml:space="preserve">26,495</t>
+    <t xml:space="preserve">26,548</t>
   </si>
   <si>
     <t xml:space="preserve">Academy Award winner Russell Crowe stars in Unhinged, a psychological thriller that takes something we've all experienced- road rage - to an unpredictable and terrifying conclusion. Rachel (Caren Pistorius) is running late getting to work when she crosses paths with a stranger (Crowe) at a traffic light. Soon, Rachel finds herself and everyone she loves the target of a man who feels invisible and is looking to make one last mark upon the world by teaching her a series of deadly lessons. What follows is a dangerous game of cat and mouse that proves you never know who you're driving next to.</t>
@@ -830,7 +890,7 @@
     <t xml:space="preserve">Archenemy</t>
   </si>
   <si>
-    <t xml:space="preserve">596</t>
+    <t xml:space="preserve">611</t>
   </si>
   <si>
     <t xml:space="preserve">Max Fist claims to be a hero from another dimension who fell through time and space to earth, where he has no powers. No one believes his stories except for a local teen named Hamster.</t>
@@ -848,7 +908,7 @@
     <t xml:space="preserve">Bruderherz</t>
   </si>
   <si>
-    <t xml:space="preserve">788</t>
+    <t xml:space="preserve">819</t>
   </si>
   <si>
     <t xml:space="preserve">The story of Ray-Ray McElrathbey, a freshman football player for Clemson University, who secretly raised his younger brother on campus after his home life became too unsteady.</t>
@@ -866,7 +926,7 @@
     <t xml:space="preserve">The Hunt</t>
   </si>
   <si>
-    <t xml:space="preserve">63,020</t>
+    <t xml:space="preserve">63,051</t>
   </si>
   <si>
     <t xml:space="preserve">"Twelve strangers wake up in a clearing. They don't know where they are -- or how they got there. In the shadow of a dark internet conspiracy theory, ruthless elitists gather at a remote location to hunt humans for sport. But their master plan is about to be derailed when one of the hunted, Crystal, turns the tables on her pursuers.</t>
@@ -875,6 +935,9 @@
     <t xml:space="preserve"> Action, Horror, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Japan </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Craig Zobel</t>
   </si>
   <si>
@@ -884,7 +947,7 @@
     <t xml:space="preserve">Hexen hexen</t>
   </si>
   <si>
-    <t xml:space="preserve">17,937</t>
+    <t xml:space="preserve">17,971</t>
   </si>
   <si>
     <t xml:space="preserve">Reimagining Roald Dahl's beloved story for a modern audience, Robert Zemeckis's visually innovative film tells the darkly humorous and heartwarming tale of a young orphaned boy who, in late 1967, goes to live with his loving Grandma in the rural Alabama town of Demopolis. As the boy and his grandmother encounter some deceptively glamorous but thoroughly diabolical witches, she wisely whisks him away to a seaside resort. Regrettably, they arrive at precisely the same time that the world's Grand High Witch has gathered her fellow cronies from around the globe-undercover-to carry out her nefarious plans. Zemeckis is joined by a world-class team of filmmakers, including Alfonso Cuarón, Guillermo del Toro and Kenya Barris. The cast includes powerhouse performances from Anne Hathaway, Octavia Spencer, Stanley Tucci, Kristin Chenoweth and Chris Rock, with newcomer Jahzir Kadeen Bruno as the brave young hero.</t>
@@ -893,6 +956,9 @@
     <t xml:space="preserve"> Adventure, Comedy, Family, Fantasy, Horror, Mystery</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Mexico , UK </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Robert Zemeckis</t>
   </si>
   <si>
@@ -902,7 +968,7 @@
     <t xml:space="preserve">The Secret - Das Geheimnis</t>
   </si>
   <si>
-    <t xml:space="preserve">6,205</t>
+    <t xml:space="preserve">6,238</t>
   </si>
   <si>
     <t xml:space="preserve">Based on the groundbreaking best-selling book by Rhonda Byrne, The Secret: Dare to Dream follows Miranda (Katie Holmes), a young widow trying to make ends meet while raising her three children and dating her boyfriend (Jerry O'Connell). A devastating storm brings an enormous challenge and a mysterious man, Bray (Josh Lucas), into Miranda's life. Bray reignites the family's spirit but, unbeknownst to Miranda, also holds an important secret - one that will change everything. With its timeless messages of hope, compassion, and gratitude, The Secret: Dare to Dream is an inspiring and heartwarming film that shows how positive thoughts can transform our lives.</t>
@@ -917,7 +983,7 @@
     <t xml:space="preserve">Voces - Die Stimmen</t>
   </si>
   <si>
-    <t xml:space="preserve">5,900</t>
+    <t xml:space="preserve">5,935</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel, Sara and their only son Eric are a happy family that move to an old house in the country. Working as home restaurateurs, Daniel and Sara plans for restoring and sale the house after the job be done change drastically when the own Eric is found dead in the pool close to the house. Broken by the pain, Sara moves to her parents for a days after a strong discussion with him, while Daniel keeps alone in the house. However, at the next night Daniel tapes Eric's voice in his cell phone when he was sending an audio message to apologize Sara. Looking for answers, Daniel meets Germán Redondo, a veteran and renowned writer and supernatural investigator specialized in electronic voice phenomena. Traveling to the house with his daughter Ruth, Germán analyzes Daniel's audio message, installing infrared cameras hoping to find any kind of ghostly activity, while at the same time Ruth tries get closer to her father, still affected by the suicide of his wife (Ruth's mother) happened years ago. ...</t>
@@ -926,6 +992,9 @@
     <t xml:space="preserve"> Drama, Horror, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> Spain </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ángel Gómez Hernández</t>
   </si>
   <si>
@@ -935,7 +1004,7 @@
     <t xml:space="preserve">Die unglaubliche Geschichte der Roseninsel</t>
   </si>
   <si>
-    <t xml:space="preserve">3,415</t>
+    <t xml:space="preserve">3,580</t>
   </si>
   <si>
     <t xml:space="preserve">In 1968, engineer Giorgio Rosa established the independent state called "The Isle of Roses" off the coast of Rimini, built on a platform outside the territorial waters, with Esperanto as the official language. The Italian authorities did not take it well because the micro nation was seen as an expedient to not pay taxes on the revenues obtained thanks to the arrival of numerous tourists and curious people.</t>
@@ -944,6 +1013,9 @@
     <t xml:space="preserve"> Adventure, Comedy, Drama</t>
   </si>
   <si>
+    <t xml:space="preserve"> Italy </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sydney Sibilia</t>
   </si>
   <si>
@@ -953,7 +1025,7 @@
     <t xml:space="preserve">Life in a Year</t>
   </si>
   <si>
-    <t xml:space="preserve">2,104</t>
+    <t xml:space="preserve">2,122</t>
   </si>
   <si>
     <t xml:space="preserve">The movie follows 17-year-old Daryn who finds out that his girlfriend is dying. He sets out to give her an entire life in the last year she has left.</t>
@@ -968,7 +1040,7 @@
     <t xml:space="preserve">Alles Gute kommt von oben</t>
   </si>
   <si>
-    <t xml:space="preserve">7,446</t>
+    <t xml:space="preserve">7,477</t>
   </si>
   <si>
     <t xml:space="preserve">Congressional aide Erica (Graham) forgoes family Christmas to travel at her boss's behest. At a beachside Air Force base, she clashes with Capt. Andrew Jantz (Ludwig), who knows her assignment is finding reasons to defund the facility.</t>
@@ -986,7 +1058,7 @@
     <t xml:space="preserve">Borat: Anschluss Moviefilm</t>
   </si>
   <si>
-    <t xml:space="preserve">95,050</t>
+    <t xml:space="preserve">95,150</t>
   </si>
   <si>
     <t xml:space="preserve">Follow-up film to the 2006 comedy centering on the real-life adventures of a fictional Kazakh television journalist named Borat.</t>
@@ -1004,7 +1076,7 @@
     <t xml:space="preserve">Prinzessinnentausch: Wieder vertauscht</t>
   </si>
   <si>
-    <t xml:space="preserve">5,658</t>
+    <t xml:space="preserve">5,702</t>
   </si>
   <si>
     <t xml:space="preserve">When Duchess Margaret unexpectedly inherits the throne to Montenaro and hits a rough patch with Kevin, it's up to her double Stacy to save the day before a new lookalike, party girl Fiona foils their plans.</t>
@@ -1022,7 +1094,7 @@
     <t xml:space="preserve">Hamilton</t>
   </si>
   <si>
-    <t xml:space="preserve">49,373</t>
+    <t xml:space="preserve">49,412</t>
   </si>
   <si>
     <t xml:space="preserve">"Hamilton" is the story of America then, told by America now. Featuring a score that blends hip-hop, jazz, R&amp;B, and show tunes, "Hamilton" has taken the story of American founding father Alexander Hamilton and created a revolutionary moment in theater--a musical that has had a profound impact on culture, politics, and education. Captured at the Richard Rodgers Theater on Broadway in June 2016, the film transports its audience into the world of the Broadway show in a uniquely intimate way.</t>
@@ -1040,7 +1112,7 @@
     <t xml:space="preserve">Superintelligence</t>
   </si>
   <si>
-    <t xml:space="preserve">3,113</t>
+    <t xml:space="preserve">3,132</t>
   </si>
   <si>
     <t xml:space="preserve">Nothing extraordinary ever happens to Carol Peters, so when she starts getting snarky backtalk from her TV, phone and microwave, she thinks she's being punk'd. Or losing her mind. In fact, the world's first super-intelligence has selected her for observation, taking over her life with a bigger, more ominous plan to take over everything. Now Carol is humanity's last chance before this artificial intelligence-with-an-attitude decides to pull the plug.</t>
@@ -1058,7 +1130,7 @@
     <t xml:space="preserve">Underwater - Es ist erwacht</t>
   </si>
   <si>
-    <t xml:space="preserve">57,732</t>
+    <t xml:space="preserve">57,762</t>
   </si>
   <si>
     <t xml:space="preserve">An unknown, massive earthquake happens in a drilling station in the bottom of the Marianna Trench. A scientific crew must find their way across the ocean floor into another station under the threats of deep pressure, dark water, dangerous deep-sea creatures, and a constant lack of oxygen.</t>
@@ -1076,7 +1148,7 @@
     <t xml:space="preserve">Neues aus der Welt</t>
   </si>
   <si>
-    <t xml:space="preserve">25,632</t>
+    <t xml:space="preserve">25,662</t>
   </si>
   <si>
     <t xml:space="preserve">Five years after the end of the Civil War, Captain Jefferson Kyle Kidd (Tom Hanks), a veteran of three wars, now moves from town to town as a non-fiction storyteller, sharing the news of presidents and queens, glorious feuds, devastating catastrophes, and gripping adventures from the far reaches of the globe. On the plains of Texas, he crosses paths with Johanna (Helena Zengel), a 10-year-old taken in by the Kiowa people six years earlier and raised as one of their own. Johanna, hostile to a world she's never experienced, is being returned to her biological aunt and uncle against her will. Kidd agrees to deliver the child where the law says she belongs. As they travel hundreds of miles into the unforgiving wilderness, the two will face tremendous challenges of both human and natural forces as they search for a place that either can call home.</t>
@@ -1094,7 +1166,7 @@
     <t xml:space="preserve">Rebecca</t>
   </si>
   <si>
-    <t xml:space="preserve">545</t>
+    <t xml:space="preserve">550</t>
   </si>
   <si>
     <t xml:space="preserve">After a whirlwind romance in Monte Carlo with handsome widower Maxim de Winter (Armie Hammer), a newly married young woman (Lily James) arrives at Manderley, her new husband's imposing family estate on a windswept English coast. Naive and inexperienced, she begins to settle into the trappings of her new life, but finds herself battling the shadow of Maxim's first wife, the elegant and urbane Rebecca, whose haunting legacy is kept alive by Manderley's sinister housekeeper Mrs. Danvers (Kristin Scott Thomas).</t>
@@ -1112,7 +1184,7 @@
     <t xml:space="preserve">Soul</t>
   </si>
   <si>
-    <t xml:space="preserve">A musician who has lost his passion for music is transported out of his body and must find his way back with the help of an infant soul learning about herself.</t>
+    <t xml:space="preserve">Joe is a middle-school band teacher whose life hasn't quite gone the way he expected. His true passion is jazz -- and he's good. But when he travels to another realm to help someone find their passion, he soon discovers what it means to have soul.</t>
   </si>
   <si>
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy, Music</t>
@@ -1127,12 +1199,15 @@
     <t xml:space="preserve">9 Kere Leyla</t>
   </si>
   <si>
-    <t xml:space="preserve">5,381</t>
+    <t xml:space="preserve">5,409</t>
   </si>
   <si>
     <t xml:space="preserve">Leyla and Adam have had a happy marriage for years. However, after a while, their marriage becomes a dead end. The excitement in their marriage is now gone, and Adam falls into a love that causes his heart to beat again. Adem, who falls in love with the woman named Nergis who comes across this period, cannot think of anyone other than Nergis. However, Nergis, who took the mind of Adam, has no intention of moving to another life from the one-man world he founded.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Turkey </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ezel Akay</t>
   </si>
   <si>
@@ -1142,7 +1217,7 @@
     <t xml:space="preserve">I'm Thinking of Ending Things</t>
   </si>
   <si>
-    <t xml:space="preserve">52,285</t>
+    <t xml:space="preserve">52,344</t>
   </si>
   <si>
     <t xml:space="preserve">Despite second thoughts about their relationship, a young woman (Jessie Buckley) takes a road trip with her new boyfriend (Jesse Plemons) to his family farm. Trapped at the farm during a snowstorm with Jake's mother (Toni Collette) and father (David Thewlis), the young woman begins to question the nature of everything she knew or understood about her boyfriend, herself, and the world. An exploration of regret, longing and the fragility of the human spirit, I'M THINKING OF ENDING THINGS is directed and written by Academy Award® winner Charlie Kaufman (Eternal Sunshine of the Spotless Mind). Inspired by Iain Reid's bestselling namesake novel.</t>
@@ -1160,7 +1235,7 @@
     <t xml:space="preserve">Wolfwalkers</t>
   </si>
   <si>
-    <t xml:space="preserve">2,698</t>
+    <t xml:space="preserve">2,799</t>
   </si>
   <si>
     <t xml:space="preserve">In a time of superstition and magic, when wolves are seen as demonic and nature an evil to be tamed, a young apprentice hunter, ROBYN, comes to Ireland with her father to wipe out the last pack. But when Robyn saves a wild native girl, MEBH, their friendship leads her to discover the world of the WOLFWALKERS and transform her into the very thing her father is tasked to destroy.</t>
@@ -1169,6 +1244,9 @@
     <t xml:space="preserve"> Animation, Adventure, Family, Fantasy</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ireland , Luxembourg , France , Denmark , USA , UK </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tomm Moore, Ross Stewart</t>
   </si>
   <si>
@@ -1178,7 +1256,7 @@
     <t xml:space="preserve">Der Unsichtbare</t>
   </si>
   <si>
-    <t xml:space="preserve">155,138</t>
+    <t xml:space="preserve">155,194</t>
   </si>
   <si>
     <t xml:space="preserve">The film follows Cecilia, who receives the news of her abusive ex-boyfriend's suicide. She begins to re-build her life for the better. However, her sense of reality is put into question when she begins to suspect her deceased lover is not actually dead.</t>
@@ -1187,6 +1265,9 @@
     <t xml:space="preserve"> Drama, Horror, Mystery, Sci-Fi, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> Canada , Australia , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Leigh Whannell</t>
   </si>
   <si>
@@ -1196,7 +1277,7 @@
     <t xml:space="preserve">Sputnik</t>
   </si>
   <si>
-    <t xml:space="preserve">11,003</t>
+    <t xml:space="preserve">11,028</t>
   </si>
   <si>
     <t xml:space="preserve">At the height of the Cold War, a Soviet spacecraft crash lands after a mission gone awry, leaving the commander as its only survivor. After a renowned Russian psychologist is brought in to evaluate the commander's mental state, it becomes clear that something dangerous may have come back to Earth with him.</t>
@@ -1205,6 +1286,9 @@
     <t xml:space="preserve"> Drama, Horror, Sci-Fi, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> Russia </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Egor Abramenko</t>
   </si>
   <si>
@@ -1214,7 +1298,7 @@
     <t xml:space="preserve">Monster Problems</t>
   </si>
   <si>
-    <t xml:space="preserve">22,474</t>
+    <t xml:space="preserve">22,517</t>
   </si>
   <si>
     <t xml:space="preserve">Seven years after the Monsterpocalypse, Joel Dawson (Dylan O'Brien), along with the rest of humanity, has been living underground ever since giant creatures took control of the land. After reconnecting over radio with his high school girlfriend Aimee (Jessica Henwick), who is now 80 miles away at a coastal colony, Joel begins to fall for her again. As Joel realizes that there's nothing left for him underground, he decides against all logic to venture out to Aimee, despite all the dangerous monsters that stand in his way. The fun-filled and action-packed adventure also stars Michael Rooker and Ariana Greenblatt.</t>
@@ -1232,7 +1316,7 @@
     <t xml:space="preserve">Jiu Jitsu</t>
   </si>
   <si>
-    <t xml:space="preserve">2,736</t>
+    <t xml:space="preserve">2,759</t>
   </si>
   <si>
     <t xml:space="preserve">When Jake Barnes, a master Jiu Jitsu fighter, refuses to face Brax, an indomitable alien creature, the future of humanity hangs in the balance. Injured and suffering from severe amnesia, Jake is captured by a military squad unequipped to fight the merciless intruder who has descended upon the planet. Jake is rescued by Wylie, and an ancient order of Jiu Jitsu fighters who must help him recover his memory and regain his strength in order to band together and defeat Brax in an epic battle that will determine the fate of mankind.</t>
@@ -1247,7 +1331,7 @@
     <t xml:space="preserve">Palm Springs</t>
   </si>
   <si>
-    <t xml:space="preserve">60,885</t>
+    <t xml:space="preserve">60,937</t>
   </si>
   <si>
     <t xml:space="preserve">While stuck at a wedding in Palm Springs, Nyles (Andy Samberg) meets Sarah (Cristin Milioti), the maid of honor and family black sheep. After he rescues her from a disastrous toast, Sarah becomes drawn to Nyles and his offbeat nihilism. But when their impromptu tryst is thwarted by a surreal interruption, Sarah must join Nyles in embracing the idea that nothing really matters, and they begin wreaking spirited havoc on the wedding celebration.</t>
@@ -1256,6 +1340,9 @@
     <t xml:space="preserve"> Comedy, Fantasy, Mystery, Romance</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Hong Kong </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Max Barbakow</t>
   </si>
   <si>
@@ -1265,7 +1352,7 @@
     <t xml:space="preserve">Bill &amp; Ted Face The Music</t>
   </si>
   <si>
-    <t xml:space="preserve">25,499</t>
+    <t xml:space="preserve">25,522</t>
   </si>
   <si>
     <t xml:space="preserve">Once told they'd save the universe during a time-traveling adventure, 2 would-be rockers from San Dimas, California find themselves as middle-aged dads still trying to crank out a hit song and fulfill their destiny.</t>
@@ -1274,6 +1361,9 @@
     <t xml:space="preserve"> Adventure, Comedy, Music, Sci-Fi</t>
   </si>
   <si>
+    <t xml:space="preserve"> Bahamas , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Dean Parisot</t>
   </si>
   <si>
@@ -1283,7 +1373,7 @@
     <t xml:space="preserve">Ludo</t>
   </si>
   <si>
-    <t xml:space="preserve">23,533</t>
+    <t xml:space="preserve">23,585</t>
   </si>
   <si>
     <t xml:space="preserve">From a resurfaced sex tape to a rogue suitcase of money, four wildly different stories overlap at the whims of fate, chance and one eccentric criminal. Now these misfits, miscreants, lovers and losers are all unwitting pawns in this unpredictable game. The only way home? Keep playing.</t>
@@ -1292,6 +1382,9 @@
     <t xml:space="preserve"> Action, Comedy, Crime, Drama</t>
   </si>
   <si>
+    <t xml:space="preserve"> India </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Anurag Basu</t>
   </si>
   <si>
@@ -1301,7 +1394,7 @@
     <t xml:space="preserve">The Old Guard</t>
   </si>
   <si>
-    <t xml:space="preserve">118,261</t>
+    <t xml:space="preserve">118,324</t>
   </si>
   <si>
     <t xml:space="preserve">Led by a warrior named Andy (Charlize Theron), a covert group of tight-knit mercenaries with a mysterious inability to die have fought to protect the mortal world for centuries. But when the team is recruited to take on an emergency mission and their extraordinary abilities are suddenly exposed, it's up to Andy and Nile (Kiki Layne), the newest soldier to join their ranks, to help the group eliminate the threat of those who seek to replicate and monetize their power by any means necessary.</t>
@@ -1319,7 +1412,7 @@
     <t xml:space="preserve">La belva</t>
   </si>
   <si>
-    <t xml:space="preserve">2,615</t>
+    <t xml:space="preserve">2,629</t>
   </si>
   <si>
     <t xml:space="preserve">Leonida Riva is a gloomy, solitary war veteran, once Captain of the Army's special forces. Life and work have driven Riva apart from his family. His eldest son, Mattia, has never forgiven him while his daughter, Teresa, loves him unconditionally. However, a tragic event will force Leonida to transform into something he thought he had long buried in the past.</t>
@@ -1334,7 +1427,7 @@
     <t xml:space="preserve">Birds of Prey: The Emancipation of Harley Quinn</t>
   </si>
   <si>
-    <t xml:space="preserve">156,841</t>
+    <t xml:space="preserve">156,899</t>
   </si>
   <si>
     <t xml:space="preserve">A twisted tale told by Harley Quinn herself, when Gotham's most nefariously narcissistic villain, Roman Sionis, and his zealous right-hand, Zsasz, put a target on a young girl named Cass, the city is turned upside down looking for her. Harley, Huntress, Black Canary and Renee Montoya's paths collide, and the unlikely foursome have no choice but to team up to take Roman down.</t>
@@ -1352,7 +1445,7 @@
     <t xml:space="preserve">Durgamati: The Myth</t>
   </si>
   <si>
-    <t xml:space="preserve">2,944</t>
+    <t xml:space="preserve">2,989</t>
   </si>
   <si>
     <t xml:space="preserve">In the skulduggery world of politics and crime, an innocent Chanchal has to put all on the line to prove her innocence and bring justice to Shakti and the people that he loved so much. As she gets embroiled deep in a web of deceit, Chanchal must face powers both natural and supernatural to fulfil her destiny.</t>
@@ -1370,7 +1463,7 @@
     <t xml:space="preserve">Ghosts of War</t>
   </si>
   <si>
-    <t xml:space="preserve">5,220</t>
+    <t xml:space="preserve">5,237</t>
   </si>
   <si>
     <t xml:space="preserve">Follows five battle-hardened American soldiers assigned to hold a French Chateau near the end of World War II. Formerly occupied by the Nazi high command, this unexpected respite quickly descends into madness when they encounter a supernatural enemy far more terrifying than anything seen on the battlefield.</t>
@@ -1388,7 +1481,7 @@
     <t xml:space="preserve">Ma Rainey's Black Bottom</t>
   </si>
   <si>
-    <t xml:space="preserve">140</t>
+    <t xml:space="preserve">145</t>
   </si>
   <si>
     <t xml:space="preserve">Tensions and temperatures rise over the course of an afternoon recording session in 1920s Chicago as a band of musicians await trailblazing performer, the legendary "Mother of the Blues," Ma Rainey (Academy Award® winner Viola Davis). Late to the session, the fearless, fiery Ma engages in a battle of wills with her white manager and producer over control of her music. As the band waits in the studio's claustrophobic rehearsal room, ambitious trumpeter Levee (Chadwick Boseman) - who has an eye for Ma's girlfriend and is determined to stake his own claim on the music industry - spurs his fellow musicians into an eruption of stories revealing truths that will forever change the course of their lives. Adapted from two-time Pulitzer Prize winner August Wilson's play, MA RAINEY'S BLACK BOTTOM celebrates the transformative power of the blues and the artists who refuse to let society's prejudices dictate their worth. Directed by George C. Wolfe and adapted for the screen by Ruben ...</t>
@@ -1406,7 +1499,7 @@
     <t xml:space="preserve">Dolly Parton's Christmas on the Square</t>
   </si>
   <si>
-    <t xml:space="preserve">1,595</t>
+    <t xml:space="preserve">1,608</t>
   </si>
   <si>
     <t xml:space="preserve">An embittered "Scrooge" of a woman plans to sell her small town, regardless of the consequences to the people who live there.</t>
@@ -1424,7 +1517,7 @@
     <t xml:space="preserve">The Wolf of Snow Hollow</t>
   </si>
   <si>
-    <t xml:space="preserve">6,769</t>
+    <t xml:space="preserve">6,787</t>
   </si>
   <si>
     <t xml:space="preserve">Terror grips a small mountain town as bodies are discovered after each full moon. Losing sleep, raising a teenage daughter, and caring for his ailing father, officer Marshall struggles to remind himself there's no such thing as werewolves.</t>
@@ -1439,12 +1532,15 @@
     <t xml:space="preserve">Nomadland</t>
   </si>
   <si>
-    <t xml:space="preserve">1,349</t>
+    <t xml:space="preserve">1,354</t>
   </si>
   <si>
     <t xml:space="preserve">Following the economic collapse of a company town in rural Nevada, Fern (Frances McDormand) packs her van and sets off on the road exploring a life outside of conventional society as a modern-day nomad. The third feature film from director Chloé Zhao, NOMADLAND features real nomads Linda May, Swankie and Bob Wells as Fern's mentors and comrades in her exploration through the vast landscape of the American West.</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Germany </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Chloé Zhao</t>
   </si>
   <si>
@@ -1454,7 +1550,7 @@
     <t xml:space="preserve">Tyler Rake: Extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">152,153</t>
+    <t xml:space="preserve">152,200</t>
   </si>
   <si>
     <t xml:space="preserve">In an underworld of weapons dealers and traffickers, a young boy becomes the pawn in a war between notorious drug lords. Trapped by kidnappers inside one of the world's most impenetrable cities, his rescue beckons the unparalleled skill of a mercenary named Tyler Rake, but Rake is a broken man with nothing to lose, harboring a death wish that makes an already deadly mission near impossible.</t>
@@ -1469,7 +1565,7 @@
     <t xml:space="preserve">Black Beauty</t>
   </si>
   <si>
-    <t xml:space="preserve">1,145</t>
+    <t xml:space="preserve">1,157</t>
   </si>
   <si>
     <t xml:space="preserve">A wild horse and a teenage girl forge an unbreakable bond which keeps them connected for a lifetime.</t>
@@ -1478,6 +1574,9 @@
     <t xml:space="preserve"> Drama, Family</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , UK , South Africa , Germany , France </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ashley Avis</t>
   </si>
   <si>
@@ -1487,12 +1586,15 @@
     <t xml:space="preserve">Schon wieder Weihnachten</t>
   </si>
   <si>
-    <t xml:space="preserve">1,898</t>
+    <t xml:space="preserve">1,922</t>
   </si>
   <si>
     <t xml:space="preserve">Stuck in a time loop where it's forever Christmas, a family man who hates the holiday starts to learn valuable lessons about what's important in life.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Brazil </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Roberto Santucci</t>
   </si>
   <si>
@@ -1502,7 +1604,7 @@
     <t xml:space="preserve">Wander Darkly</t>
   </si>
   <si>
-    <t xml:space="preserve">232</t>
+    <t xml:space="preserve">235</t>
   </si>
   <si>
     <t xml:space="preserve">New parents Adrienne and Matteo are forced to reckon with trauma amidst their troubled relationship. They must revisit the memories of their past and unravel haunting truths in order to face their uncertain future.</t>
@@ -1517,7 +1619,7 @@
     <t xml:space="preserve">Ruf der Wildnis</t>
   </si>
   <si>
-    <t xml:space="preserve">34,704</t>
+    <t xml:space="preserve">34,725</t>
   </si>
   <si>
     <t xml:space="preserve">The Call of the Wild is a vibrant story of Buck, a big and kindhearted dog, a crossbreed between a St. Bernard and a Scotch Collie, whose carefree life of leisure was suddenly upset when he was stolen from his home in Santa Clara County, California and deported up north, to be sold in Skagway, Alaska, and taken further north, to Dawson City, Yukon, during the late 1890s Klondike Gold Rush, when strong sled dogs were in high demand. As a newcomer to the dog team delivery service - and not before long their front-runner - Buck, a dog like no other, who had been spoiled, and who had suffered, but he could not be broken, is having the time of his life. Forced to fight to survive, eventually taken by his last owner, John Thornton, to proximity of the Arctic Circle, somewhere between Yukon and Alaska, he progressively depends on his primal instincts, sheds the comforts of civilization and responds to "the call of the wild", as master of his own.</t>
@@ -1526,6 +1628,9 @@
     <t xml:space="preserve"> Adventure, Drama, Family</t>
   </si>
   <si>
+    <t xml:space="preserve"> Canada , USA , Portugal </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Chris Sanders</t>
   </si>
   <si>
@@ -1535,7 +1640,7 @@
     <t xml:space="preserve">Bad Boys for Life</t>
   </si>
   <si>
-    <t xml:space="preserve">123,252</t>
+    <t xml:space="preserve">123,294</t>
   </si>
   <si>
     <t xml:space="preserve">Marcus and Mike have to confront new issues (career changes and midlife crises), as they join the newly created elite team AMMO of the Miami police department to take down the ruthless Armando Armas, the vicious leader of a Miami drug cartel.</t>
@@ -1544,6 +1649,9 @@
     <t xml:space="preserve"> Action, Comedy, Crime, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Mexico </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Adil El Arbi, Bilall Fallah</t>
   </si>
   <si>
@@ -1553,7 +1661,7 @@
     <t xml:space="preserve">Fatale</t>
   </si>
   <si>
-    <t xml:space="preserve">5,115</t>
+    <t xml:space="preserve">5,133</t>
   </si>
   <si>
     <t xml:space="preserve">After a one-night stand, a successful married man finds himself entangled in a cunning police detective's latest investigation.</t>
@@ -1568,7 +1676,7 @@
     <t xml:space="preserve">Blumhouse's Der Hexenclub</t>
   </si>
   <si>
-    <t xml:space="preserve">61,639</t>
+    <t xml:space="preserve">61,692</t>
   </si>
   <si>
     <t xml:space="preserve">A group of high school students form a coven of witches. A sequel to the 1996 film, "The Craft".</t>
@@ -1595,6 +1703,9 @@
     <t xml:space="preserve"> Action, Drama, History, War</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , Canada , China </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Aaron Schneider</t>
   </si>
   <si>
@@ -1619,12 +1730,15 @@
     <t xml:space="preserve">The Very Excellent Mr. Dundee</t>
   </si>
   <si>
-    <t xml:space="preserve">8,547</t>
+    <t xml:space="preserve">8,563</t>
   </si>
   <si>
     <t xml:space="preserve">Aussie Icon Paul Hogan just wants the quiet life. He lives in Brentwood, California, happy in retirement, content doing the daily crossword and enjoying regular calls from Lucy, his delightful 10-year-old granddaughter in Sydney. So, when his agent drops by to tell him he'll be receiving a knighthood for services to comedy, he is less than impressed by this imposition and much to his agents' chagrin, turns down the offer. Paul attempts to return to his tranquil life but Lucy calls; she has excitedly told kids at her new school that granddad has been offered a Knighthood. They laughed at her. What? Paul realises he needs to get the Knighthood to help her salvage her reputation. After much begging and pleading, his agent reluctantly agrees to call the Palace. The Knighthood is back on. The next six weeks, however, see Hogan's brand totally trashed. Although he is always trying to do the right thing and salvage his quickly diminishing reputation, life is conspiring against him. He's ...</t>
   </si>
   <si>
+    <t xml:space="preserve"> Australia , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Dean Murphy</t>
   </si>
   <si>
@@ -1634,7 +1748,7 @@
     <t xml:space="preserve">SpongeBob Schwammkopf: Eine schwammtastische Rettung</t>
   </si>
   <si>
-    <t xml:space="preserve">34,205</t>
+    <t xml:space="preserve">34,216</t>
   </si>
   <si>
     <t xml:space="preserve">Set before the events of the television series, SpongeBob goes on a trip to Kamp Koral and meets some new friends. However, when his pet snail Gary gets kidnapped by Poseidon and taken to the Lost City of Atlantic City, he and his new best friend Patrick must go on a rescue mission to save him from the dastardly plan of Poseidon before it is too late. The movie will also reveal the first time our beloved characters (as kids) met at Camp...a magical moment that brings meaning to the power of true friendship.</t>
@@ -1643,6 +1757,9 @@
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family</t>
   </si>
   <si>
+    <t xml:space="preserve"> USA , South Korea </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tim Hill</t>
   </si>
   <si>
@@ -1652,7 +1769,7 @@
     <t xml:space="preserve">Fantasy Island</t>
   </si>
   <si>
-    <t xml:space="preserve">4,214</t>
+    <t xml:space="preserve">4,245</t>
   </si>
   <si>
     <t xml:space="preserve">The enigmatic Mr. Roarke makes the secret dreams of his lucky guests come true at a luxurious but remote tropical resort. But when the fantasies turn into nightmares, the guests have to solve the island's mystery in order to escape with their lives.</t>
@@ -1685,7 +1802,7 @@
     <t xml:space="preserve">Die bunte Seite des Monds</t>
   </si>
   <si>
-    <t xml:space="preserve">9,450</t>
+    <t xml:space="preserve">9,463</t>
   </si>
   <si>
     <t xml:space="preserve">In this animated musical, a girl builds a rocket ship and blasts off, hoping to meet a mythical moon goddess.</t>
@@ -1694,6 +1811,9 @@
     <t xml:space="preserve"> Animation, Adventure, Comedy, Family, Fantasy, Musical, Sci-Fi</t>
   </si>
   <si>
+    <t xml:space="preserve"> China , USA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Glen Keane, John Kahrs</t>
   </si>
   <si>
@@ -1703,7 +1823,7 @@
     <t xml:space="preserve">Vanguard</t>
   </si>
   <si>
-    <t xml:space="preserve">1,757</t>
+    <t xml:space="preserve">1,763</t>
   </si>
   <si>
     <t xml:space="preserve">Covert security company Vanguard is the last hope of survival for an accountant after he is targeted by the world's deadliest mercenary organization.</t>
@@ -1712,6 +1832,9 @@
     <t xml:space="preserve"> Action</t>
   </si>
   <si>
+    <t xml:space="preserve"> China </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Stanley Tong</t>
   </si>
   <si>
@@ -1721,7 +1844,7 @@
     <t xml:space="preserve">Torbaaz</t>
   </si>
   <si>
-    <t xml:space="preserve">1,244</t>
+    <t xml:space="preserve">1,268</t>
   </si>
   <si>
     <t xml:space="preserve">A man rises from personal tragedy to lead a group of children from a refugee camp to victory, transforming their lives through the game of cricket.</t>
@@ -1739,7 +1862,7 @@
     <t xml:space="preserve">His House</t>
   </si>
   <si>
-    <t xml:space="preserve">17,587</t>
+    <t xml:space="preserve">17,646</t>
   </si>
   <si>
     <t xml:space="preserve">A refugee couple makes a harrowing escape from war-torn South Sudan, but then they struggle to adjust to their new life in an English town that has an evil lurking beneath the surface.</t>
@@ -1758,6 +1881,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Action, Adventure, Comedy, Sci-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA , Canada , Japan </t>
   </si>
   <si>
     <t xml:space="preserve"> Shawn Levy</t>
@@ -2129,10 +2255,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -2144,13 +2273,13 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>29</v>
@@ -2159,15 +2288,18 @@
         <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
         <v>2020</v>
@@ -2179,30 +2311,33 @@
         <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
         <v>2020</v>
@@ -2214,30 +2349,33 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
         <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
         <v>2020</v>
@@ -2249,13 +2387,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
         <v>26</v>
@@ -2264,81 +2402,90 @@
         <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="n">
         <v>2020</v>
       </c>
       <c r="C6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D6" t="n">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="n">
         <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" t="n">
         <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D7" t="n">
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="n">
         <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" t="n">
         <v>2020</v>
@@ -2350,30 +2497,33 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
         <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B9" t="n">
         <v>2020</v>
@@ -2385,13 +2535,13 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -2400,15 +2550,18 @@
         <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B10" t="n">
         <v>2020</v>
@@ -2420,28 +2573,31 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
         <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B11" t="n">
         <v>2020</v>
@@ -2453,13 +2609,13 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
         <v>24</v>
@@ -2468,15 +2624,18 @@
         <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B12" t="n">
         <v>2020</v>
@@ -2488,13 +2647,13 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H12" t="n">
         <v>11</v>
@@ -2503,15 +2662,18 @@
         <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B13" t="n">
         <v>2020</v>
@@ -2523,30 +2685,33 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
         <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B14" t="n">
         <v>2020</v>
@@ -2558,28 +2723,33 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14"/>
+        <v>92</v>
+      </c>
+      <c r="H14" t="n">
+        <v>45</v>
+      </c>
       <c r="I14" t="n">
         <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="L14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B15" t="n">
         <v>2020</v>
@@ -2591,30 +2761,33 @@
         <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" t="n">
         <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B16" t="n">
         <v>2020</v>
@@ -2626,28 +2799,31 @@
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="n">
         <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>2020</v>
@@ -2659,13 +2835,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -2674,15 +2850,18 @@
         <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="L17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B18" t="n">
         <v>2020</v>
@@ -2690,26 +2869,29 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="L18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B19" t="n">
         <v>2020</v>
@@ -2722,25 +2904,28 @@
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="n">
         <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="L19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>2020</v>
@@ -2752,28 +2937,31 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="n">
         <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>131</v>
+      </c>
+      <c r="L20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>2020</v>
@@ -2785,28 +2973,31 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="n">
         <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="L21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B22" t="n">
         <v>2020</v>
@@ -2818,65 +3009,71 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="n">
         <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="L22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B23" t="n">
         <v>2020</v>
       </c>
       <c r="C23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="D23" t="n">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H23" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I23" t="n">
         <v>99</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s">
-        <v>138</v>
+        <v>148</v>
+      </c>
+      <c r="L23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B24" t="n">
         <v>2020</v>
@@ -2888,28 +3085,31 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="n">
         <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>154</v>
+      </c>
+      <c r="L24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B25" t="n">
         <v>2020</v>
@@ -2919,28 +3119,31 @@
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="n">
         <v>112</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
-        <v>150</v>
+        <v>161</v>
+      </c>
+      <c r="L25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B26" t="n">
         <v>2020</v>
@@ -2952,13 +3155,13 @@
         <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H26" t="n">
         <v>23</v>
@@ -2967,15 +3170,18 @@
         <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="L26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B27" t="n">
         <v>2020</v>
@@ -2987,28 +3193,31 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
         <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>172</v>
+      </c>
+      <c r="L27" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B28" t="n">
         <v>2020</v>
@@ -3018,30 +3227,33 @@
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
         <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" t="n">
         <v>2020</v>
@@ -3051,30 +3263,33 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="n">
         <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>172</v>
+        <v>185</v>
+      </c>
+      <c r="L29" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B30" t="n">
         <v>2020</v>
@@ -3086,13 +3301,13 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H30" t="n">
         <v>39</v>
@@ -3101,15 +3316,18 @@
         <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>177</v>
+        <v>190</v>
+      </c>
+      <c r="L30" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B31" t="n">
         <v>2020</v>
@@ -3121,30 +3339,33 @@
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="H31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I31" t="n">
         <v>94</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>196</v>
+      </c>
+      <c r="L31" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B32" t="n">
         <v>2020</v>
@@ -3154,28 +3375,31 @@
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
         <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>189</v>
+        <v>202</v>
+      </c>
+      <c r="L32" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B33" t="n">
         <v>2020</v>
@@ -3187,30 +3411,33 @@
         <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="H33" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I33" t="n">
         <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B34" t="n">
         <v>2020</v>
@@ -3222,30 +3449,33 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" t="n">
         <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>215</v>
+      </c>
+      <c r="L34" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B35" t="n">
         <v>2020</v>
@@ -3257,13 +3487,13 @@
         <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="H35" t="n">
         <v>6</v>
@@ -3272,15 +3502,18 @@
         <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>206</v>
+        <v>221</v>
+      </c>
+      <c r="L35" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B36" t="n">
         <v>2020</v>
@@ -3290,28 +3523,31 @@
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="n">
         <v>131</v>
       </c>
       <c r="J36" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s">
-        <v>212</v>
+        <v>228</v>
+      </c>
+      <c r="L36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B37" t="n">
         <v>2020</v>
@@ -3323,30 +3559,33 @@
         <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
         <v>129</v>
       </c>
       <c r="J37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K37" t="s">
-        <v>218</v>
+        <v>235</v>
+      </c>
+      <c r="L37" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="B38" t="n">
         <v>2020</v>
@@ -3358,28 +3597,31 @@
         <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H38"/>
       <c r="I38" t="n">
         <v>113</v>
       </c>
       <c r="J38" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>241</v>
+      </c>
+      <c r="L38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B39" t="n">
         <v>2020</v>
@@ -3391,30 +3633,33 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
         <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s">
-        <v>229</v>
+        <v>247</v>
+      </c>
+      <c r="L39" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B40" t="n">
         <v>2020</v>
@@ -3426,28 +3671,31 @@
         <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="n">
         <v>90</v>
       </c>
       <c r="J40" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>235</v>
+        <v>253</v>
+      </c>
+      <c r="L40" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B41" t="n">
         <v>2020</v>
@@ -3459,28 +3707,31 @@
         <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="n">
         <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>241</v>
+        <v>259</v>
+      </c>
+      <c r="L41" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B42" t="n">
         <v>2020</v>
@@ -3492,30 +3743,33 @@
         <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H42" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I42" t="n">
         <v>95</v>
       </c>
       <c r="J42" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>247</v>
+        <v>265</v>
+      </c>
+      <c r="L42" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B43" t="n">
         <v>2020</v>
@@ -3527,30 +3781,33 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H43" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I43" t="n">
         <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s">
-        <v>253</v>
+        <v>272</v>
+      </c>
+      <c r="L43" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B44" t="n">
         <v>2020</v>
@@ -3562,28 +3819,31 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
         <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>258</v>
+        <v>277</v>
+      </c>
+      <c r="L44" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B45" t="n">
         <v>2020</v>
@@ -3595,28 +3855,31 @@
         <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="n">
         <v>123</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="K45" t="s">
-        <v>264</v>
+        <v>283</v>
+      </c>
+      <c r="L45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B46" t="n">
         <v>2020</v>
@@ -3628,30 +3891,33 @@
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H46" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I46" t="n">
         <v>90</v>
       </c>
       <c r="J46" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>270</v>
+        <v>289</v>
+      </c>
+      <c r="L46" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B47" t="n">
         <v>2020</v>
@@ -3663,13 +3929,13 @@
         <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="H47" t="n">
         <v>43</v>
@@ -3678,15 +3944,18 @@
         <v>90</v>
       </c>
       <c r="J47" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>295</v>
+      </c>
+      <c r="L47" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B48" t="n">
         <v>2020</v>
@@ -3698,26 +3967,29 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="F48" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="G48" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>282</v>
+        <v>301</v>
+      </c>
+      <c r="L48" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B49" t="n">
         <v>2020</v>
@@ -3729,13 +4001,13 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G49" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="H49" t="n">
         <v>7</v>
@@ -3744,15 +4016,18 @@
         <v>90</v>
       </c>
       <c r="J49" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>308</v>
+      </c>
+      <c r="L49" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B50" t="n">
         <v>2020</v>
@@ -3764,30 +4039,33 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="G50" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I50" t="n">
         <v>106</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="K50" t="s">
-        <v>294</v>
+        <v>315</v>
+      </c>
+      <c r="L50" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B51" t="n">
         <v>2020</v>
@@ -3799,13 +4077,13 @@
         <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="G51" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H51" t="n">
         <v>25</v>
@@ -3814,15 +4092,18 @@
         <v>107</v>
       </c>
       <c r="J51" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>299</v>
+        <v>320</v>
+      </c>
+      <c r="L51" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B52" t="n">
         <v>2020</v>
@@ -3832,30 +4113,33 @@
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="H52" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I52" t="n">
         <v>97</v>
       </c>
       <c r="J52" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s">
-        <v>305</v>
+        <v>327</v>
+      </c>
+      <c r="L52" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B53" t="n">
         <v>2020</v>
@@ -3865,28 +4149,31 @@
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="n">
         <v>117</v>
       </c>
       <c r="J53" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="K53" t="s">
-        <v>311</v>
+        <v>334</v>
+      </c>
+      <c r="L53" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B54" t="n">
         <v>2020</v>
@@ -3896,28 +4183,31 @@
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="n">
         <v>107</v>
       </c>
       <c r="J54" t="s">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>316</v>
+        <v>339</v>
+      </c>
+      <c r="L54" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B55" t="n">
         <v>2020</v>
@@ -3929,28 +4219,31 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="F55" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="G55" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="H55"/>
       <c r="I55" t="n">
         <v>95</v>
       </c>
       <c r="J55" t="s">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>322</v>
+        <v>345</v>
+      </c>
+      <c r="L55" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B56" t="n">
         <v>2020</v>
@@ -3962,28 +4255,31 @@
         <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F56" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="G56" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="n">
         <v>95</v>
       </c>
       <c r="J56" t="s">
-        <v>327</v>
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>328</v>
+        <v>351</v>
+      </c>
+      <c r="L56" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B57" t="n">
         <v>2020</v>
@@ -3993,28 +4289,31 @@
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="F57" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="G57" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="n">
         <v>96</v>
       </c>
       <c r="J57" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>334</v>
+        <v>357</v>
+      </c>
+      <c r="L57" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B58" t="n">
         <v>2020</v>
@@ -4026,28 +4325,31 @@
         <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="F58" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="G58" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="n">
         <v>160</v>
       </c>
       <c r="J58" t="s">
-        <v>339</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>340</v>
+        <v>363</v>
+      </c>
+      <c r="L58" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B59" t="n">
         <v>2020</v>
@@ -4059,13 +4361,13 @@
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="F59" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="G59" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -4074,15 +4376,18 @@
         <v>106</v>
       </c>
       <c r="J59" t="s">
-        <v>345</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>346</v>
+        <v>369</v>
+      </c>
+      <c r="L59" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B60" t="n">
         <v>2020</v>
@@ -4094,13 +4399,13 @@
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="F60" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="G60" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="H60" t="n">
         <v>32</v>
@@ -4109,15 +4414,18 @@
         <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>351</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>352</v>
+        <v>375</v>
+      </c>
+      <c r="L60" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B61" t="n">
         <v>2020</v>
@@ -4125,28 +4433,31 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="G61" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="H61"/>
       <c r="I61" t="n">
         <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>358</v>
+        <v>381</v>
+      </c>
+      <c r="L61" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B62" t="n">
         <v>2020</v>
@@ -4158,28 +4469,31 @@
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="F62" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="G62" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="n">
         <v>121</v>
       </c>
       <c r="J62" t="s">
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>364</v>
+        <v>387</v>
+      </c>
+      <c r="L62" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="B63" t="n">
         <v>2020</v>
@@ -4192,25 +4506,28 @@
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="G63" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="H63"/>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="s">
-        <v>368</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>369</v>
+        <v>392</v>
+      </c>
+      <c r="L63" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B64" t="n">
         <v>2020</v>
@@ -4220,28 +4537,31 @@
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="F64" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="G64" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="n">
         <v>112</v>
       </c>
       <c r="J64" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="K64" t="s">
-        <v>374</v>
+        <v>398</v>
+      </c>
+      <c r="L64" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="B65" t="n">
         <v>2020</v>
@@ -4253,28 +4573,31 @@
         <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="F65" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G65" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
         <v>134</v>
       </c>
       <c r="J65" t="s">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>380</v>
+        <v>404</v>
+      </c>
+      <c r="L65" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B66" t="n">
         <v>2020</v>
@@ -4286,13 +4609,13 @@
         <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="F66" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="G66" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="H66" t="n">
         <v>15</v>
@@ -4301,15 +4624,18 @@
         <v>103</v>
       </c>
       <c r="J66" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="K66" t="s">
-        <v>386</v>
+        <v>411</v>
+      </c>
+      <c r="L66" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B67" t="n">
         <v>2020</v>
@@ -4321,13 +4647,13 @@
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="F67" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="G67" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="H67" t="n">
         <v>12</v>
@@ -4336,15 +4662,18 @@
         <v>124</v>
       </c>
       <c r="J67" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="K67" t="s">
-        <v>392</v>
+        <v>418</v>
+      </c>
+      <c r="L67" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="B68" t="n">
         <v>2020</v>
@@ -4356,13 +4685,13 @@
         <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="G68" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="H68" t="n">
         <v>27</v>
@@ -4371,15 +4700,18 @@
         <v>113</v>
       </c>
       <c r="J68" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="K68" t="s">
-        <v>398</v>
+        <v>425</v>
+      </c>
+      <c r="L68" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="B69" t="n">
         <v>2020</v>
@@ -4391,13 +4723,13 @@
         <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="F69" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="G69" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -4406,15 +4738,18 @@
         <v>109</v>
       </c>
       <c r="J69" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="K69" t="s">
-        <v>404</v>
+        <v>431</v>
+      </c>
+      <c r="L69" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B70" t="n">
         <v>2020</v>
@@ -4426,30 +4761,33 @@
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="F70" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I70" t="n">
         <v>102</v>
       </c>
       <c r="J70" t="s">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>409</v>
+        <v>436</v>
+      </c>
+      <c r="L70" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="B71" t="n">
         <v>2020</v>
@@ -4461,13 +4799,13 @@
         <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="F71" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="G71" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="H71" t="n">
         <v>47</v>
@@ -4476,15 +4814,18 @@
         <v>90</v>
       </c>
       <c r="J71" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>443</v>
+      </c>
+      <c r="L71" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="B72" t="n">
         <v>2020</v>
@@ -4496,13 +4837,13 @@
         <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="F72" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="G72" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="H72" t="n">
         <v>44</v>
@@ -4511,15 +4852,18 @@
         <v>91</v>
       </c>
       <c r="J72" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="K72" t="s">
-        <v>421</v>
+        <v>450</v>
+      </c>
+      <c r="L72" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="B73" t="n">
         <v>2020</v>
@@ -4529,26 +4873,29 @@
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="F73" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="G73" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="K73" t="s">
-        <v>427</v>
+        <v>457</v>
+      </c>
+      <c r="L73" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B74" t="n">
         <v>2020</v>
@@ -4560,28 +4907,31 @@
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="F74" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="G74" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="H74"/>
       <c r="I74" t="n">
         <v>125</v>
       </c>
       <c r="J74" t="s">
-        <v>432</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>433</v>
+        <v>463</v>
+      </c>
+      <c r="L74" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="B75" t="n">
         <v>2020</v>
@@ -4591,28 +4941,31 @@
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="F75" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
         <v>97</v>
       </c>
       <c r="J75" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="K75" t="s">
-        <v>438</v>
+        <v>468</v>
+      </c>
+      <c r="L75" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B76" t="n">
         <v>2020</v>
@@ -4624,30 +4977,33 @@
         <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="G76" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" t="n">
         <v>109</v>
       </c>
       <c r="J76" t="s">
-        <v>443</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>444</v>
+        <v>474</v>
+      </c>
+      <c r="L76" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="B77" t="n">
         <v>2020</v>
@@ -4657,28 +5013,31 @@
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="F77" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="G77" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="H77"/>
       <c r="I77" t="n">
         <v>155</v>
       </c>
       <c r="J77" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K77" t="s">
-        <v>450</v>
+        <v>480</v>
+      </c>
+      <c r="L77" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="B78" t="n">
         <v>2020</v>
@@ -4690,13 +5049,13 @@
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="F78" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="G78" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="H78" t="n">
         <v>28</v>
@@ -4705,15 +5064,18 @@
         <v>94</v>
       </c>
       <c r="J78" t="s">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="K78" t="s">
-        <v>456</v>
+        <v>486</v>
+      </c>
+      <c r="L78" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="B79" t="n">
         <v>2020</v>
@@ -4725,28 +5087,31 @@
         <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="G79" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="H79"/>
       <c r="I79" t="n">
         <v>94</v>
       </c>
       <c r="J79" t="s">
-        <v>461</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>462</v>
+        <v>492</v>
+      </c>
+      <c r="L79" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B80" t="n">
         <v>2020</v>
@@ -4758,28 +5123,31 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="F80" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="G80" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="H80"/>
       <c r="I80" t="n">
         <v>98</v>
       </c>
       <c r="J80" t="s">
-        <v>467</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>468</v>
+        <v>498</v>
+      </c>
+      <c r="L80" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="B81" t="n">
         <v>2020</v>
@@ -4791,30 +5159,33 @@
         <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="F81" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I81" t="n">
         <v>83</v>
       </c>
       <c r="J81" t="s">
-        <v>472</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>473</v>
+        <v>503</v>
+      </c>
+      <c r="L81" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="B82" t="n">
         <v>2020</v>
@@ -4826,28 +5197,31 @@
         <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="F82" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82"/>
       <c r="I82" t="n">
         <v>108</v>
       </c>
       <c r="J82" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="K82" t="s">
-        <v>478</v>
+        <v>509</v>
+      </c>
+      <c r="L82" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="B83" t="n">
         <v>2020</v>
@@ -4859,28 +5233,31 @@
         <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="F83" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="G83" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
         <v>116</v>
       </c>
       <c r="J83" t="s">
-        <v>482</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>483</v>
+        <v>514</v>
+      </c>
+      <c r="L83" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="B84" t="n">
         <v>2020</v>
@@ -4892,28 +5269,31 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F84" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="G84" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
         <v>110</v>
       </c>
       <c r="J84" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="K84" t="s">
-        <v>489</v>
+        <v>521</v>
+      </c>
+      <c r="L84" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="B85" t="n">
         <v>2020</v>
@@ -4923,28 +5303,31 @@
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="F85" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="G85" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
         <v>100</v>
       </c>
       <c r="J85" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="K85" t="s">
-        <v>494</v>
+        <v>527</v>
+      </c>
+      <c r="L85" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="B86" t="n">
         <v>2020</v>
@@ -4956,28 +5339,31 @@
         <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="F86" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="G86" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
         <v>97</v>
       </c>
       <c r="J86" t="s">
-        <v>498</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>499</v>
+        <v>532</v>
+      </c>
+      <c r="L86" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="B87" t="n">
         <v>2020</v>
@@ -4989,13 +5375,13 @@
         <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="F87" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="G87" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="H87" t="n">
         <v>8</v>
@@ -5004,15 +5390,18 @@
         <v>100</v>
       </c>
       <c r="J87" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="K87" t="s">
-        <v>505</v>
+        <v>539</v>
+      </c>
+      <c r="L87" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="B88" t="n">
         <v>2020</v>
@@ -5024,30 +5413,33 @@
         <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F88" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="G88" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="H88" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I88" t="n">
         <v>124</v>
       </c>
       <c r="J88" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="K88" t="s">
-        <v>511</v>
+        <v>546</v>
+      </c>
+      <c r="L88" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B89" t="n">
         <v>2020</v>
@@ -5055,26 +5447,29 @@
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="F89" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="s">
-        <v>515</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>516</v>
+        <v>551</v>
+      </c>
+      <c r="L89" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="B90" t="n">
         <v>2020</v>
@@ -5086,13 +5481,13 @@
         <v>54</v>
       </c>
       <c r="E90" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="F90" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="G90" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="H90" t="n">
         <v>5</v>
@@ -5101,15 +5496,18 @@
         <v>97</v>
       </c>
       <c r="J90" t="s">
-        <v>521</v>
+        <v>62</v>
       </c>
       <c r="K90" t="s">
-        <v>522</v>
+        <v>557</v>
+      </c>
+      <c r="L90" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="B91" t="n">
         <v>2020</v>
@@ -5121,28 +5519,31 @@
         <v>64</v>
       </c>
       <c r="E91" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="F91" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="G91" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="H91"/>
       <c r="I91" t="n">
         <v>91</v>
       </c>
       <c r="J91" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="K91" t="s">
-        <v>528</v>
+        <v>564</v>
+      </c>
+      <c r="L91" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="B92" t="n">
         <v>2020</v>
@@ -5151,23 +5552,26 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="G92" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>532</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>533</v>
+        <v>569</v>
+      </c>
+      <c r="L92" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="B93" t="n">
         <v>2020</v>
@@ -5177,28 +5581,31 @@
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="F93" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="G93" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="H93"/>
       <c r="I93" t="n">
         <v>88</v>
       </c>
       <c r="J93" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="K93" t="s">
-        <v>538</v>
+        <v>575</v>
+      </c>
+      <c r="L93" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="B94" t="n">
         <v>2020</v>
@@ -5208,13 +5615,13 @@
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="F94" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="G94" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="H94" t="n">
         <v>31</v>
@@ -5223,15 +5630,18 @@
         <v>91</v>
       </c>
       <c r="J94" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="K94" t="s">
-        <v>544</v>
+        <v>582</v>
+      </c>
+      <c r="L94" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="B95" t="n">
         <v>2020</v>
@@ -5243,13 +5653,13 @@
         <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="F95" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="G95" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="H95" t="n">
         <v>40</v>
@@ -5258,15 +5668,18 @@
         <v>109</v>
       </c>
       <c r="J95" t="s">
-        <v>549</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>550</v>
+        <v>588</v>
+      </c>
+      <c r="L95" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="B96" t="n">
         <v>2020</v>
@@ -5279,27 +5692,30 @@
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="G96" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="H96" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I96" t="n">
         <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>554</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>555</v>
+        <v>593</v>
+      </c>
+      <c r="L96" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="B97" t="n">
         <v>2020</v>
@@ -5311,28 +5727,31 @@
         <v>60</v>
       </c>
       <c r="E97" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="F97" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="G97" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="H97"/>
       <c r="I97" t="n">
         <v>95</v>
       </c>
       <c r="J97" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="K97" t="s">
-        <v>561</v>
+        <v>600</v>
+      </c>
+      <c r="L97" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="B98" t="n">
         <v>2020</v>
@@ -5344,13 +5763,13 @@
         <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="F98" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="G98" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="H98" t="n">
         <v>42</v>
@@ -5359,77 +5778,86 @@
         <v>107</v>
       </c>
       <c r="J98" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="K98" t="s">
-        <v>567</v>
+        <v>607</v>
+      </c>
+      <c r="L98" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="B99" t="n">
         <v>2020</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="F99" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="G99" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>572</v>
+        <v>456</v>
       </c>
       <c r="K99" t="s">
-        <v>573</v>
+        <v>613</v>
+      </c>
+      <c r="L99" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="B100" t="n">
         <v>2020</v>
       </c>
       <c r="C100" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D100" t="n">
         <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="F100" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="G100" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="n">
         <v>93</v>
       </c>
       <c r="J100" t="s">
-        <v>577</v>
+        <v>166</v>
       </c>
       <c r="K100" t="s">
-        <v>578</v>
+        <v>618</v>
+      </c>
+      <c r="L100" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="B101" t="n">
         <v>2020</v>
@@ -5438,18 +5866,21 @@
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="G101" t="s">
-        <v>581</v>
+        <v>622</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="K101" t="s">
-        <v>583</v>
+        <v>624</v>
+      </c>
+      <c r="L101" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
